--- a/Template.xlsx
+++ b/Template.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="PageCount">'Товарная накладная'!$C$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Товарная накладная'!$A$1:$BD$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Товарная накладная'!$A$1:$BD$70</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -300,9 +300,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="172" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="173" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="174" formatCode="dd\ mmmm\ yyyy&quot; г.&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="dd\ mmmm\ yyyy&quot; г.&quot;;@"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -914,208 +914,208 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1590,7 +1590,7 @@
   </sheetPr>
   <dimension ref="A1:BS123"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A42" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H22" sqref="H22:AV22"/>
     </sheetView>
   </sheetViews>
@@ -1985,11 +1985,11 @@
       <c r="AY5" s="8"/>
       <c r="AZ5" s="9"/>
       <c r="BA5" s="8"/>
-      <c r="BB5" s="101" t="s">
+      <c r="BB5" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="BC5" s="101"/>
-      <c r="BD5" s="101"/>
+      <c r="BC5" s="114"/>
+      <c r="BD5" s="114"/>
       <c r="BG5" s="6"/>
       <c r="BH5" s="7">
         <v>180</v>
@@ -2055,11 +2055,11 @@
       <c r="BA6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="BB6" s="102" t="s">
+      <c r="BB6" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="BC6" s="102"/>
-      <c r="BD6" s="102"/>
+      <c r="BC6" s="115"/>
+      <c r="BD6" s="115"/>
       <c r="BG6" s="6"/>
       <c r="BH6" s="7">
         <v>210</v>
@@ -2070,66 +2070,66 @@
       <c r="BR6" s="6"/>
     </row>
     <row r="7" spans="1:71" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
-      <c r="Y7" s="103"/>
-      <c r="Z7" s="103"/>
-      <c r="AA7" s="103"/>
-      <c r="AB7" s="103"/>
-      <c r="AC7" s="103"/>
-      <c r="AD7" s="103"/>
-      <c r="AE7" s="103"/>
-      <c r="AF7" s="103"/>
-      <c r="AG7" s="103"/>
-      <c r="AH7" s="103"/>
-      <c r="AI7" s="103"/>
-      <c r="AJ7" s="103"/>
-      <c r="AK7" s="103"/>
-      <c r="AL7" s="103"/>
-      <c r="AM7" s="103"/>
-      <c r="AN7" s="103"/>
-      <c r="AO7" s="103"/>
-      <c r="AP7" s="103"/>
-      <c r="AQ7" s="103"/>
-      <c r="AR7" s="103"/>
-      <c r="AS7" s="103"/>
-      <c r="AT7" s="103"/>
-      <c r="AU7" s="103"/>
-      <c r="AV7" s="103"/>
-      <c r="AW7" s="103"/>
-      <c r="AX7" s="103"/>
-      <c r="AY7" s="104" t="s">
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
+      <c r="Z7" s="116"/>
+      <c r="AA7" s="116"/>
+      <c r="AB7" s="116"/>
+      <c r="AC7" s="116"/>
+      <c r="AD7" s="116"/>
+      <c r="AE7" s="116"/>
+      <c r="AF7" s="116"/>
+      <c r="AG7" s="116"/>
+      <c r="AH7" s="116"/>
+      <c r="AI7" s="116"/>
+      <c r="AJ7" s="116"/>
+      <c r="AK7" s="116"/>
+      <c r="AL7" s="116"/>
+      <c r="AM7" s="116"/>
+      <c r="AN7" s="116"/>
+      <c r="AO7" s="116"/>
+      <c r="AP7" s="116"/>
+      <c r="AQ7" s="116"/>
+      <c r="AR7" s="116"/>
+      <c r="AS7" s="116"/>
+      <c r="AT7" s="116"/>
+      <c r="AU7" s="116"/>
+      <c r="AV7" s="116"/>
+      <c r="AW7" s="116"/>
+      <c r="AX7" s="116"/>
+      <c r="AY7" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="AZ7" s="104"/>
-      <c r="BA7" s="104"/>
-      <c r="BB7" s="86"/>
-      <c r="BC7" s="86"/>
-      <c r="BD7" s="86"/>
+      <c r="AZ7" s="117"/>
+      <c r="BA7" s="117"/>
+      <c r="BB7" s="118"/>
+      <c r="BC7" s="118"/>
+      <c r="BD7" s="118"/>
       <c r="BG7" s="6"/>
       <c r="BH7" s="7">
         <v>412</v>
@@ -2140,62 +2140,62 @@
       <c r="BR7" s="6"/>
     </row>
     <row r="8" spans="1:71" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="103"/>
-      <c r="Z8" s="103"/>
-      <c r="AA8" s="103"/>
-      <c r="AB8" s="103"/>
-      <c r="AC8" s="103"/>
-      <c r="AD8" s="103"/>
-      <c r="AE8" s="103"/>
-      <c r="AF8" s="103"/>
-      <c r="AG8" s="103"/>
-      <c r="AH8" s="103"/>
-      <c r="AI8" s="103"/>
-      <c r="AJ8" s="103"/>
-      <c r="AK8" s="103"/>
-      <c r="AL8" s="103"/>
-      <c r="AM8" s="103"/>
-      <c r="AN8" s="103"/>
-      <c r="AO8" s="103"/>
-      <c r="AP8" s="103"/>
-      <c r="AQ8" s="103"/>
-      <c r="AR8" s="103"/>
-      <c r="AS8" s="103"/>
-      <c r="AT8" s="103"/>
-      <c r="AU8" s="103"/>
-      <c r="AV8" s="103"/>
-      <c r="AW8" s="103"/>
-      <c r="AX8" s="103"/>
-      <c r="AY8" s="104"/>
-      <c r="AZ8" s="104"/>
-      <c r="BA8" s="104"/>
-      <c r="BB8" s="86"/>
-      <c r="BC8" s="86"/>
-      <c r="BD8" s="86"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
+      <c r="Z8" s="116"/>
+      <c r="AA8" s="116"/>
+      <c r="AB8" s="116"/>
+      <c r="AC8" s="116"/>
+      <c r="AD8" s="116"/>
+      <c r="AE8" s="116"/>
+      <c r="AF8" s="116"/>
+      <c r="AG8" s="116"/>
+      <c r="AH8" s="116"/>
+      <c r="AI8" s="116"/>
+      <c r="AJ8" s="116"/>
+      <c r="AK8" s="116"/>
+      <c r="AL8" s="116"/>
+      <c r="AM8" s="116"/>
+      <c r="AN8" s="116"/>
+      <c r="AO8" s="116"/>
+      <c r="AP8" s="116"/>
+      <c r="AQ8" s="116"/>
+      <c r="AR8" s="116"/>
+      <c r="AS8" s="116"/>
+      <c r="AT8" s="116"/>
+      <c r="AU8" s="116"/>
+      <c r="AV8" s="116"/>
+      <c r="AW8" s="116"/>
+      <c r="AX8" s="116"/>
+      <c r="AY8" s="117"/>
+      <c r="AZ8" s="117"/>
+      <c r="BA8" s="117"/>
+      <c r="BB8" s="118"/>
+      <c r="BC8" s="118"/>
+      <c r="BD8" s="118"/>
       <c r="BG8" s="6"/>
       <c r="BH8" s="7">
         <v>75</v>
@@ -2206,52 +2206,52 @@
       <c r="BR8" s="6"/>
     </row>
     <row r="9" spans="1:71" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="94"/>
-      <c r="V9" s="94"/>
-      <c r="W9" s="94"/>
-      <c r="X9" s="94"/>
-      <c r="Y9" s="94"/>
-      <c r="Z9" s="94"/>
-      <c r="AA9" s="94"/>
-      <c r="AB9" s="94"/>
-      <c r="AC9" s="94"/>
-      <c r="AD9" s="94"/>
-      <c r="AE9" s="94"/>
-      <c r="AF9" s="94"/>
-      <c r="AG9" s="94"/>
-      <c r="AH9" s="94"/>
-      <c r="AI9" s="94"/>
-      <c r="AJ9" s="94"/>
-      <c r="AK9" s="94"/>
-      <c r="AL9" s="94"/>
-      <c r="AM9" s="94"/>
-      <c r="AN9" s="94"/>
-      <c r="AO9" s="94"/>
-      <c r="AP9" s="94"/>
-      <c r="AQ9" s="94"/>
-      <c r="AR9" s="94"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="89"/>
+      <c r="AF9" s="89"/>
+      <c r="AG9" s="89"/>
+      <c r="AH9" s="89"/>
+      <c r="AI9" s="89"/>
+      <c r="AJ9" s="89"/>
+      <c r="AK9" s="89"/>
+      <c r="AL9" s="89"/>
+      <c r="AM9" s="89"/>
+      <c r="AN9" s="89"/>
+      <c r="AO9" s="89"/>
+      <c r="AP9" s="89"/>
+      <c r="AQ9" s="89"/>
+      <c r="AR9" s="89"/>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
@@ -2261,9 +2261,9 @@
       <c r="AY9" s="3"/>
       <c r="AZ9" s="3"/>
       <c r="BA9" s="12"/>
-      <c r="BB9" s="86"/>
-      <c r="BC9" s="86"/>
-      <c r="BD9" s="86"/>
+      <c r="BB9" s="118"/>
+      <c r="BC9" s="118"/>
+      <c r="BD9" s="118"/>
       <c r="BG9" s="6"/>
       <c r="BH9" s="7">
         <v>135</v>
@@ -2274,62 +2274,62 @@
       <c r="BR9" s="6"/>
     </row>
     <row r="10" spans="1:71" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="105"/>
-      <c r="V10" s="105"/>
-      <c r="W10" s="105"/>
-      <c r="X10" s="105"/>
-      <c r="Y10" s="105"/>
-      <c r="Z10" s="105"/>
-      <c r="AA10" s="105"/>
-      <c r="AB10" s="105"/>
-      <c r="AC10" s="105"/>
-      <c r="AD10" s="105"/>
-      <c r="AE10" s="105"/>
-      <c r="AF10" s="105"/>
-      <c r="AG10" s="105"/>
-      <c r="AH10" s="105"/>
-      <c r="AI10" s="105"/>
-      <c r="AJ10" s="105"/>
-      <c r="AK10" s="105"/>
-      <c r="AL10" s="105"/>
-      <c r="AM10" s="105"/>
-      <c r="AN10" s="105"/>
-      <c r="AO10" s="105"/>
-      <c r="AP10" s="105"/>
-      <c r="AQ10" s="105"/>
-      <c r="AR10" s="105"/>
-      <c r="AS10" s="105"/>
-      <c r="AT10" s="105"/>
-      <c r="AU10" s="105"/>
-      <c r="AV10" s="105"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="119"/>
+      <c r="V10" s="119"/>
+      <c r="W10" s="119"/>
+      <c r="X10" s="119"/>
+      <c r="Y10" s="119"/>
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="119"/>
+      <c r="AB10" s="119"/>
+      <c r="AC10" s="119"/>
+      <c r="AD10" s="119"/>
+      <c r="AE10" s="119"/>
+      <c r="AF10" s="119"/>
+      <c r="AG10" s="119"/>
+      <c r="AH10" s="119"/>
+      <c r="AI10" s="119"/>
+      <c r="AJ10" s="119"/>
+      <c r="AK10" s="119"/>
+      <c r="AL10" s="119"/>
+      <c r="AM10" s="119"/>
+      <c r="AN10" s="119"/>
+      <c r="AO10" s="119"/>
+      <c r="AP10" s="119"/>
+      <c r="AQ10" s="119"/>
+      <c r="AR10" s="119"/>
+      <c r="AS10" s="119"/>
+      <c r="AT10" s="119"/>
+      <c r="AU10" s="119"/>
+      <c r="AV10" s="119"/>
       <c r="AW10" s="13"/>
       <c r="AX10" s="13"/>
       <c r="AY10" s="14"/>
       <c r="AZ10" s="3"/>
       <c r="BA10" s="12"/>
-      <c r="BB10" s="86"/>
-      <c r="BC10" s="86"/>
-      <c r="BD10" s="86"/>
+      <c r="BB10" s="118"/>
+      <c r="BC10" s="118"/>
+      <c r="BD10" s="118"/>
       <c r="BG10" s="6"/>
       <c r="BH10" s="7">
         <v>162</v>
@@ -2340,52 +2340,52 @@
       <c r="BR10" s="6"/>
     </row>
     <row r="11" spans="1:71" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="94"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="94"/>
-      <c r="Y11" s="94"/>
-      <c r="Z11" s="94"/>
-      <c r="AA11" s="94"/>
-      <c r="AB11" s="94"/>
-      <c r="AC11" s="94"/>
-      <c r="AD11" s="94"/>
-      <c r="AE11" s="94"/>
-      <c r="AF11" s="94"/>
-      <c r="AG11" s="94"/>
-      <c r="AH11" s="94"/>
-      <c r="AI11" s="94"/>
-      <c r="AJ11" s="94"/>
-      <c r="AK11" s="94"/>
-      <c r="AL11" s="94"/>
-      <c r="AM11" s="94"/>
-      <c r="AN11" s="94"/>
-      <c r="AO11" s="94"/>
-      <c r="AP11" s="94"/>
-      <c r="AQ11" s="94"/>
-      <c r="AR11" s="94"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="89"/>
+      <c r="AE11" s="89"/>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="89"/>
+      <c r="AH11" s="89"/>
+      <c r="AI11" s="89"/>
+      <c r="AJ11" s="89"/>
+      <c r="AK11" s="89"/>
+      <c r="AL11" s="89"/>
+      <c r="AM11" s="89"/>
+      <c r="AN11" s="89"/>
+      <c r="AO11" s="89"/>
+      <c r="AP11" s="89"/>
+      <c r="AQ11" s="89"/>
+      <c r="AR11" s="89"/>
       <c r="AS11" s="15"/>
       <c r="AT11" s="15"/>
       <c r="AU11" s="15"/>
@@ -2395,9 +2395,9 @@
       <c r="AY11" s="3"/>
       <c r="AZ11" s="3"/>
       <c r="BA11" s="12"/>
-      <c r="BB11" s="86"/>
-      <c r="BC11" s="86"/>
-      <c r="BD11" s="86"/>
+      <c r="BB11" s="118"/>
+      <c r="BC11" s="118"/>
+      <c r="BD11" s="118"/>
       <c r="BG11" s="6"/>
       <c r="BH11" s="7">
         <v>150</v>
@@ -2408,41 +2408,41 @@
       <c r="BR11" s="6"/>
     </row>
     <row r="12" spans="1:71" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="95"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="95"/>
-      <c r="AI12" s="95"/>
+      <c r="A12" s="120"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="120"/>
+      <c r="T12" s="120"/>
+      <c r="U12" s="120"/>
+      <c r="V12" s="120"/>
+      <c r="W12" s="120"/>
+      <c r="X12" s="120"/>
+      <c r="Y12" s="120"/>
+      <c r="Z12" s="120"/>
+      <c r="AA12" s="120"/>
+      <c r="AB12" s="120"/>
+      <c r="AC12" s="120"/>
+      <c r="AD12" s="120"/>
+      <c r="AE12" s="120"/>
+      <c r="AF12" s="120"/>
+      <c r="AG12" s="120"/>
+      <c r="AH12" s="120"/>
+      <c r="AI12" s="120"/>
       <c r="AJ12" s="17"/>
       <c r="AK12" s="17"/>
       <c r="AL12" s="17"/>
@@ -2463,9 +2463,9 @@
       <c r="BA12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="BB12" s="86"/>
-      <c r="BC12" s="86"/>
-      <c r="BD12" s="86"/>
+      <c r="BB12" s="118"/>
+      <c r="BC12" s="118"/>
+      <c r="BD12" s="118"/>
       <c r="BG12" s="6"/>
       <c r="BH12" s="7">
         <v>195</v>
@@ -2476,58 +2476,58 @@
       <c r="BR12" s="6"/>
     </row>
     <row r="13" spans="1:71" s="23" customFormat="1" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="96" t="s">
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="96"/>
-      <c r="AG13" s="96"/>
-      <c r="AH13" s="96"/>
-      <c r="AI13" s="96"/>
-      <c r="AJ13" s="96"/>
-      <c r="AK13" s="96"/>
-      <c r="AL13" s="96"/>
-      <c r="AM13" s="96"/>
-      <c r="AN13" s="96"/>
-      <c r="AO13" s="96"/>
-      <c r="AP13" s="96"/>
-      <c r="AQ13" s="96"/>
-      <c r="AR13" s="96"/>
-      <c r="AS13" s="96"/>
-      <c r="AT13" s="96"/>
-      <c r="AU13" s="96"/>
-      <c r="AV13" s="96"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="122"/>
+      <c r="T13" s="122"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="122"/>
+      <c r="X13" s="122"/>
+      <c r="Y13" s="122"/>
+      <c r="Z13" s="122"/>
+      <c r="AA13" s="122"/>
+      <c r="AB13" s="122"/>
+      <c r="AC13" s="122"/>
+      <c r="AD13" s="122"/>
+      <c r="AE13" s="122"/>
+      <c r="AF13" s="122"/>
+      <c r="AG13" s="122"/>
+      <c r="AH13" s="122"/>
+      <c r="AI13" s="122"/>
+      <c r="AJ13" s="122"/>
+      <c r="AK13" s="122"/>
+      <c r="AL13" s="122"/>
+      <c r="AM13" s="122"/>
+      <c r="AN13" s="122"/>
+      <c r="AO13" s="122"/>
+      <c r="AP13" s="122"/>
+      <c r="AQ13" s="122"/>
+      <c r="AR13" s="122"/>
+      <c r="AS13" s="122"/>
+      <c r="AT13" s="122"/>
+      <c r="AU13" s="122"/>
+      <c r="AV13" s="122"/>
       <c r="AW13" s="19"/>
       <c r="AX13" s="20"/>
       <c r="AY13" s="21"/>
@@ -2535,9 +2535,9 @@
       <c r="BA13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BB13" s="97"/>
-      <c r="BC13" s="97"/>
-      <c r="BD13" s="97"/>
+      <c r="BB13" s="123"/>
+      <c r="BC13" s="123"/>
+      <c r="BD13" s="123"/>
       <c r="BE13" s="1"/>
       <c r="BG13" s="6"/>
       <c r="BH13" s="7">
@@ -2623,45 +2623,45 @@
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="89" t="s">
+      <c r="H15" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="89"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="89"/>
-      <c r="AB15" s="89"/>
-      <c r="AC15" s="89"/>
-      <c r="AD15" s="89"/>
-      <c r="AE15" s="89"/>
-      <c r="AF15" s="89"/>
-      <c r="AG15" s="89"/>
-      <c r="AH15" s="89"/>
-      <c r="AI15" s="89"/>
-      <c r="AJ15" s="89"/>
-      <c r="AK15" s="89"/>
-      <c r="AL15" s="89"/>
-      <c r="AM15" s="89"/>
-      <c r="AN15" s="89"/>
-      <c r="AO15" s="89"/>
-      <c r="AP15" s="89"/>
-      <c r="AQ15" s="89"/>
-      <c r="AR15" s="89"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="124"/>
+      <c r="Q15" s="124"/>
+      <c r="R15" s="124"/>
+      <c r="S15" s="124"/>
+      <c r="T15" s="124"/>
+      <c r="U15" s="124"/>
+      <c r="V15" s="124"/>
+      <c r="W15" s="124"/>
+      <c r="X15" s="124"/>
+      <c r="Y15" s="124"/>
+      <c r="Z15" s="124"/>
+      <c r="AA15" s="124"/>
+      <c r="AB15" s="124"/>
+      <c r="AC15" s="124"/>
+      <c r="AD15" s="124"/>
+      <c r="AE15" s="124"/>
+      <c r="AF15" s="124"/>
+      <c r="AG15" s="124"/>
+      <c r="AH15" s="124"/>
+      <c r="AI15" s="124"/>
+      <c r="AJ15" s="124"/>
+      <c r="AK15" s="124"/>
+      <c r="AL15" s="124"/>
+      <c r="AM15" s="124"/>
+      <c r="AN15" s="124"/>
+      <c r="AO15" s="124"/>
+      <c r="AP15" s="124"/>
+      <c r="AQ15" s="124"/>
+      <c r="AR15" s="124"/>
       <c r="AS15" s="17"/>
       <c r="AT15" s="17"/>
       <c r="AU15" s="17"/>
@@ -2671,9 +2671,9 @@
       <c r="AY15" s="3"/>
       <c r="AZ15" s="3"/>
       <c r="BA15" s="20"/>
-      <c r="BB15" s="85"/>
-      <c r="BC15" s="85"/>
-      <c r="BD15" s="85"/>
+      <c r="BB15" s="125"/>
+      <c r="BC15" s="125"/>
+      <c r="BD15" s="125"/>
       <c r="BE15" s="1" t="s">
         <v>11</v>
       </c>
@@ -2687,58 +2687,58 @@
       <c r="BR15" s="6"/>
     </row>
     <row r="16" spans="1:71" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="93" t="s">
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="126" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="93"/>
-      <c r="AJ16" s="93"/>
-      <c r="AK16" s="93"/>
-      <c r="AL16" s="93"/>
-      <c r="AM16" s="93"/>
-      <c r="AN16" s="93"/>
-      <c r="AO16" s="93"/>
-      <c r="AP16" s="93"/>
-      <c r="AQ16" s="93"/>
-      <c r="AR16" s="93"/>
-      <c r="AS16" s="93"/>
-      <c r="AT16" s="93"/>
-      <c r="AU16" s="93"/>
-      <c r="AV16" s="93"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="126"/>
+      <c r="O16" s="126"/>
+      <c r="P16" s="126"/>
+      <c r="Q16" s="126"/>
+      <c r="R16" s="126"/>
+      <c r="S16" s="126"/>
+      <c r="T16" s="126"/>
+      <c r="U16" s="126"/>
+      <c r="V16" s="126"/>
+      <c r="W16" s="126"/>
+      <c r="X16" s="126"/>
+      <c r="Y16" s="126"/>
+      <c r="Z16" s="126"/>
+      <c r="AA16" s="126"/>
+      <c r="AB16" s="126"/>
+      <c r="AC16" s="126"/>
+      <c r="AD16" s="126"/>
+      <c r="AE16" s="126"/>
+      <c r="AF16" s="126"/>
+      <c r="AG16" s="126"/>
+      <c r="AH16" s="126"/>
+      <c r="AI16" s="126"/>
+      <c r="AJ16" s="126"/>
+      <c r="AK16" s="126"/>
+      <c r="AL16" s="126"/>
+      <c r="AM16" s="126"/>
+      <c r="AN16" s="126"/>
+      <c r="AO16" s="126"/>
+      <c r="AP16" s="126"/>
+      <c r="AQ16" s="126"/>
+      <c r="AR16" s="126"/>
+      <c r="AS16" s="126"/>
+      <c r="AT16" s="126"/>
+      <c r="AU16" s="126"/>
+      <c r="AV16" s="126"/>
       <c r="AW16" s="20"/>
       <c r="AX16" s="20"/>
       <c r="AY16" s="3"/>
@@ -2746,9 +2746,9 @@
       <c r="BA16" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BB16" s="85"/>
-      <c r="BC16" s="85"/>
-      <c r="BD16" s="85"/>
+      <c r="BB16" s="125"/>
+      <c r="BC16" s="125"/>
+      <c r="BD16" s="125"/>
       <c r="BG16" s="6"/>
       <c r="BH16" s="7">
         <v>412</v>
@@ -2830,45 +2830,45 @@
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="89" t="s">
+      <c r="H18" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="89"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="89"/>
-      <c r="AJ18" s="89"/>
-      <c r="AK18" s="89"/>
-      <c r="AL18" s="89"/>
-      <c r="AM18" s="89"/>
-      <c r="AN18" s="89"/>
-      <c r="AO18" s="89"/>
-      <c r="AP18" s="89"/>
-      <c r="AQ18" s="89"/>
-      <c r="AR18" s="89"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="124"/>
+      <c r="R18" s="124"/>
+      <c r="S18" s="124"/>
+      <c r="T18" s="124"/>
+      <c r="U18" s="124"/>
+      <c r="V18" s="124"/>
+      <c r="W18" s="124"/>
+      <c r="X18" s="124"/>
+      <c r="Y18" s="124"/>
+      <c r="Z18" s="124"/>
+      <c r="AA18" s="124"/>
+      <c r="AB18" s="124"/>
+      <c r="AC18" s="124"/>
+      <c r="AD18" s="124"/>
+      <c r="AE18" s="124"/>
+      <c r="AF18" s="124"/>
+      <c r="AG18" s="124"/>
+      <c r="AH18" s="124"/>
+      <c r="AI18" s="124"/>
+      <c r="AJ18" s="124"/>
+      <c r="AK18" s="124"/>
+      <c r="AL18" s="124"/>
+      <c r="AM18" s="124"/>
+      <c r="AN18" s="124"/>
+      <c r="AO18" s="124"/>
+      <c r="AP18" s="124"/>
+      <c r="AQ18" s="124"/>
+      <c r="AR18" s="124"/>
       <c r="AS18" s="17"/>
       <c r="AT18" s="17"/>
       <c r="AU18" s="17"/>
@@ -2878,9 +2878,9 @@
       <c r="AY18" s="3"/>
       <c r="AZ18" s="3"/>
       <c r="BA18" s="20"/>
-      <c r="BB18" s="85"/>
-      <c r="BC18" s="85"/>
-      <c r="BD18" s="85"/>
+      <c r="BB18" s="125"/>
+      <c r="BC18" s="125"/>
+      <c r="BD18" s="125"/>
       <c r="BG18" s="6"/>
       <c r="BH18" s="7">
         <v>150</v>
@@ -2891,58 +2891,58 @@
       <c r="BR18" s="6"/>
     </row>
     <row r="19" spans="1:71" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="93" t="s">
+      <c r="B19" s="121"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="93"/>
-      <c r="AB19" s="93"/>
-      <c r="AC19" s="93"/>
-      <c r="AD19" s="93"/>
-      <c r="AE19" s="93"/>
-      <c r="AF19" s="93"/>
-      <c r="AG19" s="93"/>
-      <c r="AH19" s="93"/>
-      <c r="AI19" s="93"/>
-      <c r="AJ19" s="93"/>
-      <c r="AK19" s="93"/>
-      <c r="AL19" s="93"/>
-      <c r="AM19" s="93"/>
-      <c r="AN19" s="93"/>
-      <c r="AO19" s="93"/>
-      <c r="AP19" s="93"/>
-      <c r="AQ19" s="93"/>
-      <c r="AR19" s="93"/>
-      <c r="AS19" s="93"/>
-      <c r="AT19" s="93"/>
-      <c r="AU19" s="93"/>
-      <c r="AV19" s="93"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="126"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="126"/>
+      <c r="R19" s="126"/>
+      <c r="S19" s="126"/>
+      <c r="T19" s="126"/>
+      <c r="U19" s="126"/>
+      <c r="V19" s="126"/>
+      <c r="W19" s="126"/>
+      <c r="X19" s="126"/>
+      <c r="Y19" s="126"/>
+      <c r="Z19" s="126"/>
+      <c r="AA19" s="126"/>
+      <c r="AB19" s="126"/>
+      <c r="AC19" s="126"/>
+      <c r="AD19" s="126"/>
+      <c r="AE19" s="126"/>
+      <c r="AF19" s="126"/>
+      <c r="AG19" s="126"/>
+      <c r="AH19" s="126"/>
+      <c r="AI19" s="126"/>
+      <c r="AJ19" s="126"/>
+      <c r="AK19" s="126"/>
+      <c r="AL19" s="126"/>
+      <c r="AM19" s="126"/>
+      <c r="AN19" s="126"/>
+      <c r="AO19" s="126"/>
+      <c r="AP19" s="126"/>
+      <c r="AQ19" s="126"/>
+      <c r="AR19" s="126"/>
+      <c r="AS19" s="126"/>
+      <c r="AT19" s="126"/>
+      <c r="AU19" s="126"/>
+      <c r="AV19" s="126"/>
       <c r="AW19" s="20"/>
       <c r="AX19" s="20"/>
       <c r="AY19" s="3"/>
@@ -2950,9 +2950,9 @@
       <c r="BA19" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BB19" s="85"/>
-      <c r="BC19" s="85"/>
-      <c r="BD19" s="85"/>
+      <c r="BB19" s="125"/>
+      <c r="BC19" s="125"/>
+      <c r="BD19" s="125"/>
       <c r="BG19" s="6"/>
       <c r="BH19" s="7">
         <v>412</v>
@@ -3034,45 +3034,45 @@
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="89" t="s">
+      <c r="H21" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="89"/>
-      <c r="V21" s="89"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="89"/>
-      <c r="AC21" s="89"/>
-      <c r="AD21" s="89"/>
-      <c r="AE21" s="89"/>
-      <c r="AF21" s="89"/>
-      <c r="AG21" s="89"/>
-      <c r="AH21" s="89"/>
-      <c r="AI21" s="89"/>
-      <c r="AJ21" s="89"/>
-      <c r="AK21" s="89"/>
-      <c r="AL21" s="89"/>
-      <c r="AM21" s="89"/>
-      <c r="AN21" s="89"/>
-      <c r="AO21" s="89"/>
-      <c r="AP21" s="89"/>
-      <c r="AQ21" s="89"/>
-      <c r="AR21" s="89"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="124"/>
+      <c r="N21" s="124"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="124"/>
+      <c r="Q21" s="124"/>
+      <c r="R21" s="124"/>
+      <c r="S21" s="124"/>
+      <c r="T21" s="124"/>
+      <c r="U21" s="124"/>
+      <c r="V21" s="124"/>
+      <c r="W21" s="124"/>
+      <c r="X21" s="124"/>
+      <c r="Y21" s="124"/>
+      <c r="Z21" s="124"/>
+      <c r="AA21" s="124"/>
+      <c r="AB21" s="124"/>
+      <c r="AC21" s="124"/>
+      <c r="AD21" s="124"/>
+      <c r="AE21" s="124"/>
+      <c r="AF21" s="124"/>
+      <c r="AG21" s="124"/>
+      <c r="AH21" s="124"/>
+      <c r="AI21" s="124"/>
+      <c r="AJ21" s="124"/>
+      <c r="AK21" s="124"/>
+      <c r="AL21" s="124"/>
+      <c r="AM21" s="124"/>
+      <c r="AN21" s="124"/>
+      <c r="AO21" s="124"/>
+      <c r="AP21" s="124"/>
+      <c r="AQ21" s="124"/>
+      <c r="AR21" s="124"/>
       <c r="AS21" s="3"/>
       <c r="AT21" s="34"/>
       <c r="AU21" s="3"/>
@@ -3080,13 +3080,13 @@
       <c r="AW21" s="34"/>
       <c r="AX21" s="3"/>
       <c r="AY21" s="3"/>
-      <c r="AZ21" s="84" t="s">
+      <c r="AZ21" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="BA21" s="84"/>
-      <c r="BB21" s="86"/>
-      <c r="BC21" s="86"/>
-      <c r="BD21" s="86"/>
+      <c r="BA21" s="127"/>
+      <c r="BB21" s="118"/>
+      <c r="BC21" s="118"/>
+      <c r="BD21" s="118"/>
       <c r="BG21" s="6"/>
       <c r="BH21" s="7">
         <v>150</v>
@@ -3097,66 +3097,66 @@
       <c r="BR21" s="6"/>
     </row>
     <row r="22" spans="1:71" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="91" t="s">
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="91"/>
-      <c r="S22" s="91"/>
-      <c r="T22" s="91"/>
-      <c r="U22" s="91"/>
-      <c r="V22" s="91"/>
-      <c r="W22" s="91"/>
-      <c r="X22" s="91"/>
-      <c r="Y22" s="91"/>
-      <c r="Z22" s="91"/>
-      <c r="AA22" s="91"/>
-      <c r="AB22" s="91"/>
-      <c r="AC22" s="91"/>
-      <c r="AD22" s="91"/>
-      <c r="AE22" s="91"/>
-      <c r="AF22" s="91"/>
-      <c r="AG22" s="91"/>
-      <c r="AH22" s="91"/>
-      <c r="AI22" s="91"/>
-      <c r="AJ22" s="91"/>
-      <c r="AK22" s="91"/>
-      <c r="AL22" s="91"/>
-      <c r="AM22" s="91"/>
-      <c r="AN22" s="91"/>
-      <c r="AO22" s="91"/>
-      <c r="AP22" s="91"/>
-      <c r="AQ22" s="91"/>
-      <c r="AR22" s="91"/>
-      <c r="AS22" s="91"/>
-      <c r="AT22" s="91"/>
-      <c r="AU22" s="91"/>
-      <c r="AV22" s="91"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="128"/>
+      <c r="P22" s="128"/>
+      <c r="Q22" s="128"/>
+      <c r="R22" s="128"/>
+      <c r="S22" s="128"/>
+      <c r="T22" s="128"/>
+      <c r="U22" s="128"/>
+      <c r="V22" s="128"/>
+      <c r="W22" s="128"/>
+      <c r="X22" s="128"/>
+      <c r="Y22" s="128"/>
+      <c r="Z22" s="128"/>
+      <c r="AA22" s="128"/>
+      <c r="AB22" s="128"/>
+      <c r="AC22" s="128"/>
+      <c r="AD22" s="128"/>
+      <c r="AE22" s="128"/>
+      <c r="AF22" s="128"/>
+      <c r="AG22" s="128"/>
+      <c r="AH22" s="128"/>
+      <c r="AI22" s="128"/>
+      <c r="AJ22" s="128"/>
+      <c r="AK22" s="128"/>
+      <c r="AL22" s="128"/>
+      <c r="AM22" s="128"/>
+      <c r="AN22" s="128"/>
+      <c r="AO22" s="128"/>
+      <c r="AP22" s="128"/>
+      <c r="AQ22" s="128"/>
+      <c r="AR22" s="128"/>
+      <c r="AS22" s="128"/>
+      <c r="AT22" s="128"/>
+      <c r="AU22" s="128"/>
+      <c r="AV22" s="128"/>
       <c r="AW22" s="12"/>
       <c r="AX22" s="3"/>
       <c r="AY22" s="34"/>
-      <c r="AZ22" s="84"/>
-      <c r="BA22" s="84"/>
-      <c r="BB22" s="86"/>
-      <c r="BC22" s="86"/>
-      <c r="BD22" s="86"/>
+      <c r="AZ22" s="127"/>
+      <c r="BA22" s="127"/>
+      <c r="BB22" s="118"/>
+      <c r="BC22" s="118"/>
+      <c r="BD22" s="118"/>
       <c r="BG22" s="6"/>
       <c r="BH22" s="7">
         <v>195</v>
@@ -3174,45 +3174,45 @@
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="89" t="s">
+      <c r="H23" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="89"/>
-      <c r="Q23" s="89"/>
-      <c r="R23" s="89"/>
-      <c r="S23" s="89"/>
-      <c r="T23" s="89"/>
-      <c r="U23" s="89"/>
-      <c r="V23" s="89"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="89"/>
-      <c r="Z23" s="89"/>
-      <c r="AA23" s="89"/>
-      <c r="AB23" s="89"/>
-      <c r="AC23" s="89"/>
-      <c r="AD23" s="89"/>
-      <c r="AE23" s="89"/>
-      <c r="AF23" s="89"/>
-      <c r="AG23" s="89"/>
-      <c r="AH23" s="89"/>
-      <c r="AI23" s="89"/>
-      <c r="AJ23" s="89"/>
-      <c r="AK23" s="89"/>
-      <c r="AL23" s="89"/>
-      <c r="AM23" s="89"/>
-      <c r="AN23" s="89"/>
-      <c r="AO23" s="89"/>
-      <c r="AP23" s="89"/>
-      <c r="AQ23" s="89"/>
-      <c r="AR23" s="89"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="124"/>
+      <c r="N23" s="124"/>
+      <c r="O23" s="124"/>
+      <c r="P23" s="124"/>
+      <c r="Q23" s="124"/>
+      <c r="R23" s="124"/>
+      <c r="S23" s="124"/>
+      <c r="T23" s="124"/>
+      <c r="U23" s="124"/>
+      <c r="V23" s="124"/>
+      <c r="W23" s="124"/>
+      <c r="X23" s="124"/>
+      <c r="Y23" s="124"/>
+      <c r="Z23" s="124"/>
+      <c r="AA23" s="124"/>
+      <c r="AB23" s="124"/>
+      <c r="AC23" s="124"/>
+      <c r="AD23" s="124"/>
+      <c r="AE23" s="124"/>
+      <c r="AF23" s="124"/>
+      <c r="AG23" s="124"/>
+      <c r="AH23" s="124"/>
+      <c r="AI23" s="124"/>
+      <c r="AJ23" s="124"/>
+      <c r="AK23" s="124"/>
+      <c r="AL23" s="124"/>
+      <c r="AM23" s="124"/>
+      <c r="AN23" s="124"/>
+      <c r="AO23" s="124"/>
+      <c r="AP23" s="124"/>
+      <c r="AQ23" s="124"/>
+      <c r="AR23" s="124"/>
       <c r="AS23" s="3"/>
       <c r="AT23" s="34"/>
       <c r="AU23" s="3"/>
@@ -3220,13 +3220,13 @@
       <c r="AW23" s="34"/>
       <c r="AX23" s="3"/>
       <c r="AY23" s="3"/>
-      <c r="AZ23" s="84" t="s">
+      <c r="AZ23" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="BA23" s="84"/>
-      <c r="BB23" s="92"/>
-      <c r="BC23" s="92"/>
-      <c r="BD23" s="92"/>
+      <c r="BA23" s="127"/>
+      <c r="BB23" s="129"/>
+      <c r="BC23" s="129"/>
+      <c r="BD23" s="129"/>
       <c r="BG23" s="6"/>
       <c r="BH23" s="7">
         <v>195</v>
@@ -3280,23 +3280,23 @@
       <c r="AO24" s="15"/>
       <c r="AP24" s="15"/>
       <c r="AQ24" s="15"/>
-      <c r="AR24" s="83" t="s">
+      <c r="AR24" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="AS24" s="83"/>
-      <c r="AT24" s="83"/>
-      <c r="AU24" s="83"/>
-      <c r="AV24" s="83"/>
-      <c r="AW24" s="83"/>
-      <c r="AX24" s="83"/>
+      <c r="AS24" s="131"/>
+      <c r="AT24" s="131"/>
+      <c r="AU24" s="131"/>
+      <c r="AV24" s="131"/>
+      <c r="AW24" s="131"/>
+      <c r="AX24" s="131"/>
       <c r="AY24" s="3"/>
-      <c r="AZ24" s="84" t="s">
+      <c r="AZ24" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="BA24" s="84"/>
-      <c r="BB24" s="85"/>
-      <c r="BC24" s="85"/>
-      <c r="BD24" s="85"/>
+      <c r="BA24" s="127"/>
+      <c r="BB24" s="125"/>
+      <c r="BC24" s="125"/>
+      <c r="BD24" s="125"/>
       <c r="BG24" s="6"/>
       <c r="BH24" s="7">
         <v>195</v>
@@ -3358,13 +3358,13 @@
       <c r="AW25" s="34"/>
       <c r="AX25" s="3"/>
       <c r="AY25" s="3"/>
-      <c r="AZ25" s="84" t="s">
+      <c r="AZ25" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="BA25" s="84"/>
-      <c r="BB25" s="86"/>
-      <c r="BC25" s="86"/>
-      <c r="BD25" s="86"/>
+      <c r="BA25" s="127"/>
+      <c r="BB25" s="118"/>
+      <c r="BC25" s="118"/>
+      <c r="BD25" s="118"/>
       <c r="BG25" s="6"/>
       <c r="BH25" s="7">
         <v>195</v>
@@ -3397,21 +3397,21 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="87" t="s">
+      <c r="W26" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="87"/>
-      <c r="AA26" s="87"/>
-      <c r="AB26" s="87"/>
-      <c r="AC26" s="87" t="s">
+      <c r="X26" s="132"/>
+      <c r="Y26" s="132"/>
+      <c r="Z26" s="132"/>
+      <c r="AA26" s="132"/>
+      <c r="AB26" s="132"/>
+      <c r="AC26" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="AD26" s="87"/>
-      <c r="AE26" s="87"/>
-      <c r="AF26" s="87"/>
-      <c r="AG26" s="87"/>
+      <c r="AD26" s="132"/>
+      <c r="AE26" s="132"/>
+      <c r="AF26" s="132"/>
+      <c r="AG26" s="132"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
@@ -3434,9 +3434,9 @@
       <c r="BA26" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="BB26" s="88"/>
-      <c r="BC26" s="88"/>
-      <c r="BD26" s="88"/>
+      <c r="BB26" s="133"/>
+      <c r="BC26" s="133"/>
+      <c r="BD26" s="133"/>
       <c r="BG26" s="6"/>
       <c r="BH26" s="7">
         <v>195</v>
@@ -3458,34 +3458,34 @@
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
       <c r="K27" s="39"/>
-      <c r="L27" s="78" t="s">
+      <c r="L27" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="79" t="s">
+      <c r="M27" s="134"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="134"/>
+      <c r="P27" s="134"/>
+      <c r="Q27" s="134"/>
+      <c r="R27" s="134"/>
+      <c r="S27" s="134"/>
+      <c r="T27" s="134"/>
+      <c r="U27" s="134"/>
+      <c r="V27" s="134"/>
+      <c r="W27" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="79"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="80" t="s">
+      <c r="X27" s="135"/>
+      <c r="Y27" s="135"/>
+      <c r="Z27" s="135"/>
+      <c r="AA27" s="135"/>
+      <c r="AB27" s="135"/>
+      <c r="AC27" s="136" t="s">
         <v>89</v>
       </c>
-      <c r="AD27" s="80"/>
-      <c r="AE27" s="80"/>
-      <c r="AF27" s="80"/>
-      <c r="AG27" s="80"/>
+      <c r="AD27" s="136"/>
+      <c r="AE27" s="136"/>
+      <c r="AF27" s="136"/>
+      <c r="AG27" s="136"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
@@ -3587,84 +3587,84 @@
       <c r="BR28" s="6"/>
     </row>
     <row r="29" spans="1:71" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="81" t="s">
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="81"/>
-      <c r="T29" s="82" t="s">
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="137"/>
+      <c r="N29" s="137"/>
+      <c r="O29" s="137"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="137"/>
+      <c r="R29" s="137"/>
+      <c r="S29" s="137"/>
+      <c r="T29" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="U29" s="82"/>
-      <c r="V29" s="82"/>
-      <c r="W29" s="82"/>
-      <c r="X29" s="82"/>
-      <c r="Y29" s="82"/>
-      <c r="Z29" s="77" t="s">
+      <c r="U29" s="138"/>
+      <c r="V29" s="138"/>
+      <c r="W29" s="138"/>
+      <c r="X29" s="138"/>
+      <c r="Y29" s="138"/>
+      <c r="Z29" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="AA29" s="77"/>
-      <c r="AB29" s="77"/>
-      <c r="AC29" s="81" t="s">
+      <c r="AA29" s="130"/>
+      <c r="AB29" s="130"/>
+      <c r="AC29" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="AD29" s="81"/>
-      <c r="AE29" s="81"/>
-      <c r="AF29" s="81"/>
-      <c r="AG29" s="81"/>
-      <c r="AH29" s="77" t="s">
+      <c r="AD29" s="137"/>
+      <c r="AE29" s="137"/>
+      <c r="AF29" s="137"/>
+      <c r="AG29" s="137"/>
+      <c r="AH29" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="AI29" s="77"/>
-      <c r="AJ29" s="77"/>
-      <c r="AK29" s="77" t="s">
+      <c r="AI29" s="130"/>
+      <c r="AJ29" s="130"/>
+      <c r="AK29" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="AL29" s="77"/>
-      <c r="AM29" s="77"/>
-      <c r="AN29" s="77" t="s">
+      <c r="AL29" s="130"/>
+      <c r="AM29" s="130"/>
+      <c r="AN29" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="AO29" s="77"/>
-      <c r="AP29" s="77"/>
-      <c r="AQ29" s="77" t="s">
+      <c r="AO29" s="130"/>
+      <c r="AP29" s="130"/>
+      <c r="AQ29" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="AR29" s="77"/>
-      <c r="AS29" s="77"/>
-      <c r="AT29" s="77" t="s">
+      <c r="AR29" s="130"/>
+      <c r="AS29" s="130"/>
+      <c r="AT29" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="AU29" s="77"/>
-      <c r="AV29" s="77"/>
-      <c r="AW29" s="77"/>
-      <c r="AX29" s="77"/>
-      <c r="AY29" s="77"/>
-      <c r="AZ29" s="77"/>
-      <c r="BA29" s="77" t="s">
+      <c r="AU29" s="130"/>
+      <c r="AV29" s="130"/>
+      <c r="AW29" s="130"/>
+      <c r="AX29" s="130"/>
+      <c r="AY29" s="130"/>
+      <c r="AZ29" s="130"/>
+      <c r="BA29" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="BB29" s="77"/>
-      <c r="BC29" s="77"/>
-      <c r="BD29" s="77"/>
+      <c r="BB29" s="130"/>
+      <c r="BC29" s="130"/>
+      <c r="BD29" s="130"/>
       <c r="BG29" s="6"/>
       <c r="BH29" s="7">
         <v>195</v>
@@ -3675,78 +3675,78 @@
       <c r="BR29" s="6"/>
     </row>
     <row r="30" spans="1:71" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="77"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77" t="s">
+      <c r="A30" s="130"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77" t="s">
+      <c r="E30" s="130"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="130"/>
+      <c r="L30" s="130"/>
+      <c r="M30" s="130"/>
+      <c r="N30" s="130"/>
+      <c r="O30" s="130"/>
+      <c r="P30" s="130"/>
+      <c r="Q30" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="R30" s="77"/>
-      <c r="S30" s="77"/>
-      <c r="T30" s="77" t="s">
+      <c r="R30" s="130"/>
+      <c r="S30" s="130"/>
+      <c r="T30" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="U30" s="77"/>
-      <c r="V30" s="77"/>
-      <c r="W30" s="77" t="s">
+      <c r="U30" s="130"/>
+      <c r="V30" s="130"/>
+      <c r="W30" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="X30" s="77"/>
-      <c r="Y30" s="77"/>
-      <c r="Z30" s="77"/>
-      <c r="AA30" s="77"/>
-      <c r="AB30" s="77"/>
-      <c r="AC30" s="77" t="s">
+      <c r="X30" s="130"/>
+      <c r="Y30" s="130"/>
+      <c r="Z30" s="130"/>
+      <c r="AA30" s="130"/>
+      <c r="AB30" s="130"/>
+      <c r="AC30" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="AD30" s="77"/>
-      <c r="AE30" s="77"/>
-      <c r="AF30" s="77" t="s">
+      <c r="AD30" s="130"/>
+      <c r="AE30" s="130"/>
+      <c r="AF30" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="AG30" s="77"/>
-      <c r="AH30" s="77"/>
-      <c r="AI30" s="77"/>
-      <c r="AJ30" s="77"/>
-      <c r="AK30" s="77"/>
-      <c r="AL30" s="77"/>
-      <c r="AM30" s="77"/>
-      <c r="AN30" s="77"/>
-      <c r="AO30" s="77"/>
-      <c r="AP30" s="77"/>
-      <c r="AQ30" s="77"/>
-      <c r="AR30" s="77"/>
-      <c r="AS30" s="77"/>
-      <c r="AT30" s="77" t="s">
+      <c r="AG30" s="130"/>
+      <c r="AH30" s="130"/>
+      <c r="AI30" s="130"/>
+      <c r="AJ30" s="130"/>
+      <c r="AK30" s="130"/>
+      <c r="AL30" s="130"/>
+      <c r="AM30" s="130"/>
+      <c r="AN30" s="130"/>
+      <c r="AO30" s="130"/>
+      <c r="AP30" s="130"/>
+      <c r="AQ30" s="130"/>
+      <c r="AR30" s="130"/>
+      <c r="AS30" s="130"/>
+      <c r="AT30" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="AU30" s="77"/>
-      <c r="AV30" s="77"/>
-      <c r="AW30" s="77" t="s">
+      <c r="AU30" s="130"/>
+      <c r="AV30" s="130"/>
+      <c r="AW30" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="AX30" s="77"/>
-      <c r="AY30" s="77"/>
-      <c r="AZ30" s="77"/>
-      <c r="BA30" s="77"/>
-      <c r="BB30" s="77"/>
-      <c r="BC30" s="77"/>
-      <c r="BD30" s="77"/>
+      <c r="AX30" s="130"/>
+      <c r="AY30" s="130"/>
+      <c r="AZ30" s="130"/>
+      <c r="BA30" s="130"/>
+      <c r="BB30" s="130"/>
+      <c r="BC30" s="130"/>
+      <c r="BD30" s="130"/>
       <c r="BG30" s="6"/>
       <c r="BH30" s="7">
         <v>365</v>
@@ -3757,62 +3757,62 @@
       <c r="BR30" s="6"/>
     </row>
     <row r="31" spans="1:71" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="77"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="77"/>
-      <c r="S31" s="77"/>
-      <c r="T31" s="77"/>
-      <c r="U31" s="77"/>
-      <c r="V31" s="77"/>
-      <c r="W31" s="77"/>
-      <c r="X31" s="77"/>
-      <c r="Y31" s="77"/>
-      <c r="Z31" s="77"/>
-      <c r="AA31" s="77"/>
-      <c r="AB31" s="77"/>
-      <c r="AC31" s="77"/>
-      <c r="AD31" s="77"/>
-      <c r="AE31" s="77"/>
-      <c r="AF31" s="77"/>
-      <c r="AG31" s="77"/>
-      <c r="AH31" s="77"/>
-      <c r="AI31" s="77"/>
-      <c r="AJ31" s="77"/>
-      <c r="AK31" s="77"/>
-      <c r="AL31" s="77"/>
-      <c r="AM31" s="77"/>
-      <c r="AN31" s="77"/>
-      <c r="AO31" s="77"/>
-      <c r="AP31" s="77"/>
-      <c r="AQ31" s="77"/>
-      <c r="AR31" s="77"/>
-      <c r="AS31" s="77"/>
-      <c r="AT31" s="77"/>
-      <c r="AU31" s="77"/>
-      <c r="AV31" s="77"/>
-      <c r="AW31" s="77"/>
-      <c r="AX31" s="77"/>
-      <c r="AY31" s="77"/>
-      <c r="AZ31" s="77"/>
-      <c r="BA31" s="77"/>
-      <c r="BB31" s="77"/>
-      <c r="BC31" s="77"/>
-      <c r="BD31" s="77"/>
+      <c r="A31" s="130"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="130"/>
+      <c r="L31" s="130"/>
+      <c r="M31" s="130"/>
+      <c r="N31" s="130"/>
+      <c r="O31" s="130"/>
+      <c r="P31" s="130"/>
+      <c r="Q31" s="130"/>
+      <c r="R31" s="130"/>
+      <c r="S31" s="130"/>
+      <c r="T31" s="130"/>
+      <c r="U31" s="130"/>
+      <c r="V31" s="130"/>
+      <c r="W31" s="130"/>
+      <c r="X31" s="130"/>
+      <c r="Y31" s="130"/>
+      <c r="Z31" s="130"/>
+      <c r="AA31" s="130"/>
+      <c r="AB31" s="130"/>
+      <c r="AC31" s="130"/>
+      <c r="AD31" s="130"/>
+      <c r="AE31" s="130"/>
+      <c r="AF31" s="130"/>
+      <c r="AG31" s="130"/>
+      <c r="AH31" s="130"/>
+      <c r="AI31" s="130"/>
+      <c r="AJ31" s="130"/>
+      <c r="AK31" s="130"/>
+      <c r="AL31" s="130"/>
+      <c r="AM31" s="130"/>
+      <c r="AN31" s="130"/>
+      <c r="AO31" s="130"/>
+      <c r="AP31" s="130"/>
+      <c r="AQ31" s="130"/>
+      <c r="AR31" s="130"/>
+      <c r="AS31" s="130"/>
+      <c r="AT31" s="130"/>
+      <c r="AU31" s="130"/>
+      <c r="AV31" s="130"/>
+      <c r="AW31" s="130"/>
+      <c r="AX31" s="130"/>
+      <c r="AY31" s="130"/>
+      <c r="AZ31" s="130"/>
+      <c r="BA31" s="130"/>
+      <c r="BB31" s="130"/>
+      <c r="BC31" s="130"/>
+      <c r="BD31" s="130"/>
       <c r="BG31" s="6"/>
       <c r="BH31" s="7">
         <v>90</v>
@@ -3823,92 +3823,92 @@
       <c r="BR31" s="6"/>
     </row>
     <row r="32" spans="1:71" s="46" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="74">
+      <c r="A32" s="139">
         <v>1</v>
       </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="76">
+      <c r="B32" s="139"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="140">
         <v>2</v>
       </c>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="75">
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="140"/>
+      <c r="M32" s="140"/>
+      <c r="N32" s="140"/>
+      <c r="O32" s="140"/>
+      <c r="P32" s="140"/>
+      <c r="Q32" s="141">
         <v>3</v>
       </c>
-      <c r="R32" s="75"/>
-      <c r="S32" s="75"/>
-      <c r="T32" s="74">
+      <c r="R32" s="141"/>
+      <c r="S32" s="141"/>
+      <c r="T32" s="139">
         <v>4</v>
       </c>
-      <c r="U32" s="74"/>
-      <c r="V32" s="74"/>
-      <c r="W32" s="75">
+      <c r="U32" s="139"/>
+      <c r="V32" s="139"/>
+      <c r="W32" s="141">
         <v>5</v>
       </c>
-      <c r="X32" s="75"/>
-      <c r="Y32" s="75"/>
-      <c r="Z32" s="75">
+      <c r="X32" s="141"/>
+      <c r="Y32" s="141"/>
+      <c r="Z32" s="141">
         <v>6</v>
       </c>
-      <c r="AA32" s="75"/>
-      <c r="AB32" s="75"/>
-      <c r="AC32" s="75">
+      <c r="AA32" s="141"/>
+      <c r="AB32" s="141"/>
+      <c r="AC32" s="141">
         <v>7</v>
       </c>
-      <c r="AD32" s="75"/>
-      <c r="AE32" s="75"/>
-      <c r="AF32" s="75">
+      <c r="AD32" s="141"/>
+      <c r="AE32" s="141"/>
+      <c r="AF32" s="141">
         <v>8</v>
       </c>
-      <c r="AG32" s="75"/>
-      <c r="AH32" s="75">
+      <c r="AG32" s="141"/>
+      <c r="AH32" s="141">
         <v>9</v>
       </c>
-      <c r="AI32" s="75"/>
-      <c r="AJ32" s="75"/>
-      <c r="AK32" s="75">
+      <c r="AI32" s="141"/>
+      <c r="AJ32" s="141"/>
+      <c r="AK32" s="141">
         <v>10</v>
       </c>
-      <c r="AL32" s="75"/>
-      <c r="AM32" s="75"/>
-      <c r="AN32" s="75">
+      <c r="AL32" s="141"/>
+      <c r="AM32" s="141"/>
+      <c r="AN32" s="141">
         <v>11</v>
       </c>
-      <c r="AO32" s="75"/>
-      <c r="AP32" s="75"/>
-      <c r="AQ32" s="75">
+      <c r="AO32" s="141"/>
+      <c r="AP32" s="141"/>
+      <c r="AQ32" s="141">
         <v>12</v>
       </c>
-      <c r="AR32" s="75"/>
-      <c r="AS32" s="75"/>
-      <c r="AT32" s="74">
+      <c r="AR32" s="141"/>
+      <c r="AS32" s="141"/>
+      <c r="AT32" s="139">
         <v>13</v>
       </c>
-      <c r="AU32" s="74"/>
-      <c r="AV32" s="74"/>
-      <c r="AW32" s="75">
+      <c r="AU32" s="139"/>
+      <c r="AV32" s="139"/>
+      <c r="AW32" s="141">
         <v>14</v>
       </c>
-      <c r="AX32" s="75"/>
-      <c r="AY32" s="75"/>
-      <c r="AZ32" s="75"/>
-      <c r="BA32" s="75">
+      <c r="AX32" s="141"/>
+      <c r="AY32" s="141"/>
+      <c r="AZ32" s="141"/>
+      <c r="BA32" s="141">
         <v>15</v>
       </c>
-      <c r="BB32" s="75"/>
-      <c r="BC32" s="75"/>
-      <c r="BD32" s="75"/>
+      <c r="BB32" s="141"/>
+      <c r="BC32" s="141"/>
+      <c r="BD32" s="141"/>
       <c r="BE32" s="1"/>
       <c r="BF32" s="23">
         <v>0</v>
@@ -3924,84 +3924,84 @@
       <c r="BS32" s="1"/>
     </row>
     <row r="33" spans="1:70" ht="29.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="115">
+      <c r="A33" s="98">
         <v>1</v>
       </c>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="116" t="s">
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="116"/>
-      <c r="P33" s="116"/>
-      <c r="Q33" s="106" t="s">
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="R33" s="106"/>
-      <c r="S33" s="106"/>
-      <c r="T33" s="107" t="s">
+      <c r="R33" s="103"/>
+      <c r="S33" s="103"/>
+      <c r="T33" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="U33" s="107"/>
-      <c r="V33" s="107"/>
-      <c r="W33" s="108" t="s">
+      <c r="U33" s="104"/>
+      <c r="V33" s="104"/>
+      <c r="W33" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="X33" s="108"/>
-      <c r="Y33" s="108"/>
-      <c r="Z33" s="109"/>
-      <c r="AA33" s="109"/>
-      <c r="AB33" s="109"/>
-      <c r="AC33" s="114"/>
-      <c r="AD33" s="114"/>
-      <c r="AE33" s="114"/>
-      <c r="AF33" s="111"/>
-      <c r="AG33" s="111"/>
-      <c r="AH33" s="109"/>
-      <c r="AI33" s="109"/>
-      <c r="AJ33" s="109"/>
-      <c r="AK33" s="112" t="s">
+      <c r="X33" s="105"/>
+      <c r="Y33" s="105"/>
+      <c r="Z33" s="106"/>
+      <c r="AA33" s="106"/>
+      <c r="AB33" s="106"/>
+      <c r="AC33" s="97"/>
+      <c r="AD33" s="97"/>
+      <c r="AE33" s="97"/>
+      <c r="AF33" s="109"/>
+      <c r="AG33" s="109"/>
+      <c r="AH33" s="106"/>
+      <c r="AI33" s="106"/>
+      <c r="AJ33" s="106"/>
+      <c r="AK33" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="AL33" s="112"/>
-      <c r="AM33" s="112"/>
-      <c r="AN33" s="113" t="s">
+      <c r="AL33" s="110"/>
+      <c r="AM33" s="110"/>
+      <c r="AN33" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="AO33" s="113"/>
-      <c r="AP33" s="113"/>
-      <c r="AQ33" s="98" t="s">
+      <c r="AO33" s="111"/>
+      <c r="AP33" s="111"/>
+      <c r="AQ33" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="AR33" s="98"/>
-      <c r="AS33" s="98"/>
-      <c r="AT33" s="99">
+      <c r="AR33" s="108"/>
+      <c r="AS33" s="108"/>
+      <c r="AT33" s="112">
         <v>0.2</v>
       </c>
-      <c r="AU33" s="100"/>
-      <c r="AV33" s="100"/>
-      <c r="AW33" s="110" t="s">
+      <c r="AU33" s="113"/>
+      <c r="AV33" s="113"/>
+      <c r="AW33" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="AX33" s="110"/>
-      <c r="AY33" s="110"/>
-      <c r="AZ33" s="110"/>
-      <c r="BA33" s="98" t="s">
+      <c r="AX33" s="107"/>
+      <c r="AY33" s="107"/>
+      <c r="AZ33" s="107"/>
+      <c r="BA33" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="BB33" s="98"/>
-      <c r="BC33" s="98"/>
-      <c r="BD33" s="98"/>
+      <c r="BB33" s="108"/>
+      <c r="BC33" s="108"/>
+      <c r="BD33" s="108"/>
       <c r="BE33" s="23"/>
       <c r="BF33" s="1">
         <v>5373</v>
@@ -4054,50 +4054,50 @@
       <c r="AE34" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AF34" s="117">
+      <c r="AF34" s="100">
         <f>SUM(AF33)</f>
         <v>0</v>
       </c>
-      <c r="AG34" s="117"/>
-      <c r="AH34" s="118"/>
-      <c r="AI34" s="118"/>
-      <c r="AJ34" s="118"/>
-      <c r="AK34" s="119">
+      <c r="AG34" s="100"/>
+      <c r="AH34" s="101"/>
+      <c r="AI34" s="101"/>
+      <c r="AJ34" s="101"/>
+      <c r="AK34" s="102">
         <f>SUM(AK33)</f>
         <v>0</v>
       </c>
-      <c r="AL34" s="119"/>
-      <c r="AM34" s="119"/>
-      <c r="AN34" s="120" t="s">
+      <c r="AL34" s="102"/>
+      <c r="AM34" s="102"/>
+      <c r="AN34" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="AO34" s="120"/>
-      <c r="AP34" s="120"/>
-      <c r="AQ34" s="121">
+      <c r="AO34" s="93"/>
+      <c r="AP34" s="93"/>
+      <c r="AQ34" s="94">
         <f>SUM(AQ33)</f>
         <v>0</v>
       </c>
-      <c r="AR34" s="121"/>
-      <c r="AS34" s="121"/>
-      <c r="AT34" s="120" t="s">
+      <c r="AR34" s="94"/>
+      <c r="AS34" s="94"/>
+      <c r="AT34" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="AU34" s="120"/>
-      <c r="AV34" s="120"/>
-      <c r="AW34" s="122">
+      <c r="AU34" s="93"/>
+      <c r="AV34" s="93"/>
+      <c r="AW34" s="95">
         <f>SUM(AW33)</f>
         <v>0</v>
       </c>
-      <c r="AX34" s="122"/>
-      <c r="AY34" s="122"/>
-      <c r="AZ34" s="122"/>
-      <c r="BA34" s="122">
+      <c r="AX34" s="95"/>
+      <c r="AY34" s="95"/>
+      <c r="AZ34" s="95"/>
+      <c r="BA34" s="95">
         <f>SUM(BA33)</f>
         <v>0</v>
       </c>
-      <c r="BB34" s="122"/>
-      <c r="BC34" s="122"/>
-      <c r="BD34" s="122"/>
+      <c r="BB34" s="95"/>
+      <c r="BC34" s="95"/>
+      <c r="BD34" s="95"/>
       <c r="BF34" s="49"/>
       <c r="BG34" s="6"/>
       <c r="BH34" s="7"/>
@@ -4131,27 +4131,27 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="139"/>
-      <c r="R35" s="139"/>
-      <c r="S35" s="139"/>
-      <c r="T35" s="139"/>
-      <c r="U35" s="139"/>
-      <c r="V35" s="139"/>
-      <c r="W35" s="139"/>
-      <c r="X35" s="139"/>
-      <c r="Y35" s="139"/>
-      <c r="Z35" s="139"/>
-      <c r="AA35" s="139"/>
-      <c r="AB35" s="139"/>
-      <c r="AC35" s="139"/>
-      <c r="AD35" s="139"/>
-      <c r="AE35" s="139"/>
-      <c r="AF35" s="139"/>
-      <c r="AG35" s="139"/>
-      <c r="AH35" s="139"/>
-      <c r="AI35" s="139"/>
-      <c r="AJ35" s="139"/>
-      <c r="AK35" s="139"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="74"/>
+      <c r="S35" s="74"/>
+      <c r="T35" s="74"/>
+      <c r="U35" s="74"/>
+      <c r="V35" s="74"/>
+      <c r="W35" s="74"/>
+      <c r="X35" s="74"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="74"/>
+      <c r="AA35" s="74"/>
+      <c r="AB35" s="74"/>
+      <c r="AC35" s="74"/>
+      <c r="AD35" s="74"/>
+      <c r="AE35" s="74"/>
+      <c r="AF35" s="74"/>
+      <c r="AG35" s="74"/>
+      <c r="AH35" s="74"/>
+      <c r="AI35" s="74"/>
+      <c r="AJ35" s="74"/>
+      <c r="AK35" s="74"/>
       <c r="AL35" s="2" t="s">
         <v>45</v>
       </c>
@@ -4197,40 +4197,40 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="139" t="s">
+      <c r="F36" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="G36" s="139"/>
-      <c r="H36" s="139"/>
-      <c r="I36" s="139"/>
-      <c r="J36" s="139"/>
-      <c r="K36" s="139"/>
-      <c r="L36" s="139"/>
-      <c r="M36" s="139"/>
-      <c r="N36" s="139"/>
-      <c r="O36" s="139"/>
-      <c r="P36" s="139"/>
-      <c r="Q36" s="139"/>
-      <c r="R36" s="139"/>
-      <c r="S36" s="139"/>
-      <c r="T36" s="139"/>
-      <c r="U36" s="139"/>
-      <c r="V36" s="139"/>
-      <c r="W36" s="139"/>
-      <c r="X36" s="139"/>
-      <c r="Y36" s="139"/>
-      <c r="Z36" s="139"/>
-      <c r="AA36" s="139"/>
-      <c r="AB36" s="139"/>
-      <c r="AC36" s="139"/>
-      <c r="AD36" s="139"/>
-      <c r="AE36" s="139"/>
-      <c r="AF36" s="139"/>
-      <c r="AG36" s="139"/>
-      <c r="AH36" s="139"/>
-      <c r="AI36" s="139"/>
-      <c r="AJ36" s="139"/>
-      <c r="AK36" s="139"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="74"/>
+      <c r="R36" s="74"/>
+      <c r="S36" s="74"/>
+      <c r="T36" s="74"/>
+      <c r="U36" s="74"/>
+      <c r="V36" s="74"/>
+      <c r="W36" s="74"/>
+      <c r="X36" s="74"/>
+      <c r="Y36" s="74"/>
+      <c r="Z36" s="74"/>
+      <c r="AA36" s="74"/>
+      <c r="AB36" s="74"/>
+      <c r="AC36" s="74"/>
+      <c r="AD36" s="74"/>
+      <c r="AE36" s="74"/>
+      <c r="AF36" s="74"/>
+      <c r="AG36" s="74"/>
+      <c r="AH36" s="74"/>
+      <c r="AI36" s="74"/>
+      <c r="AJ36" s="74"/>
+      <c r="AK36" s="74"/>
       <c r="AL36" s="2" t="s">
         <v>47</v>
       </c>
@@ -4273,58 +4273,58 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="135" t="s">
+      <c r="F37" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="G37" s="135"/>
-      <c r="H37" s="135"/>
-      <c r="I37" s="135"/>
-      <c r="J37" s="135"/>
-      <c r="K37" s="135"/>
-      <c r="L37" s="135"/>
-      <c r="M37" s="135"/>
-      <c r="N37" s="135"/>
-      <c r="O37" s="135"/>
-      <c r="P37" s="135"/>
-      <c r="Q37" s="135"/>
-      <c r="R37" s="135"/>
-      <c r="S37" s="135"/>
-      <c r="T37" s="135"/>
-      <c r="U37" s="135"/>
-      <c r="V37" s="135"/>
-      <c r="W37" s="135"/>
-      <c r="X37" s="135"/>
-      <c r="Y37" s="135"/>
-      <c r="Z37" s="135"/>
-      <c r="AA37" s="135"/>
-      <c r="AB37" s="135"/>
-      <c r="AC37" s="135"/>
-      <c r="AD37" s="135"/>
-      <c r="AE37" s="135"/>
-      <c r="AF37" s="135"/>
-      <c r="AG37" s="135"/>
-      <c r="AH37" s="135"/>
-      <c r="AI37" s="135"/>
-      <c r="AJ37" s="135"/>
-      <c r="AK37" s="135"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="75"/>
+      <c r="R37" s="75"/>
+      <c r="S37" s="75"/>
+      <c r="T37" s="75"/>
+      <c r="U37" s="75"/>
+      <c r="V37" s="75"/>
+      <c r="W37" s="75"/>
+      <c r="X37" s="75"/>
+      <c r="Y37" s="75"/>
+      <c r="Z37" s="75"/>
+      <c r="AA37" s="75"/>
+      <c r="AB37" s="75"/>
+      <c r="AC37" s="75"/>
+      <c r="AD37" s="75"/>
+      <c r="AE37" s="75"/>
+      <c r="AF37" s="75"/>
+      <c r="AG37" s="75"/>
+      <c r="AH37" s="75"/>
+      <c r="AI37" s="75"/>
+      <c r="AJ37" s="75"/>
+      <c r="AK37" s="75"/>
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
-      <c r="AP37" s="140"/>
-      <c r="AQ37" s="140"/>
-      <c r="AR37" s="140"/>
-      <c r="AS37" s="140"/>
-      <c r="AT37" s="140"/>
-      <c r="AU37" s="140"/>
-      <c r="AV37" s="140"/>
-      <c r="AW37" s="140"/>
-      <c r="AX37" s="140"/>
-      <c r="AY37" s="140"/>
-      <c r="AZ37" s="140"/>
-      <c r="BA37" s="140"/>
-      <c r="BB37" s="140"/>
-      <c r="BC37" s="140"/>
+      <c r="AP37" s="76"/>
+      <c r="AQ37" s="76"/>
+      <c r="AR37" s="76"/>
+      <c r="AS37" s="76"/>
+      <c r="AT37" s="76"/>
+      <c r="AU37" s="76"/>
+      <c r="AV37" s="76"/>
+      <c r="AW37" s="76"/>
+      <c r="AX37" s="76"/>
+      <c r="AY37" s="76"/>
+      <c r="AZ37" s="76"/>
+      <c r="BA37" s="76"/>
+      <c r="BB37" s="76"/>
+      <c r="BC37" s="76"/>
       <c r="BD37" s="2"/>
       <c r="BE37" s="23"/>
       <c r="BF37" s="1">
@@ -4363,45 +4363,45 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="141" t="s">
+      <c r="S38" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="T38" s="141"/>
-      <c r="U38" s="141"/>
-      <c r="V38" s="141"/>
-      <c r="W38" s="141"/>
-      <c r="X38" s="141"/>
-      <c r="Y38" s="124"/>
-      <c r="Z38" s="124"/>
-      <c r="AA38" s="124"/>
-      <c r="AB38" s="124"/>
-      <c r="AC38" s="124"/>
-      <c r="AD38" s="124"/>
-      <c r="AE38" s="124"/>
-      <c r="AF38" s="124"/>
-      <c r="AG38" s="124"/>
-      <c r="AH38" s="124"/>
-      <c r="AI38" s="124"/>
-      <c r="AJ38" s="124"/>
-      <c r="AK38" s="124"/>
-      <c r="AL38" s="124"/>
-      <c r="AM38" s="124"/>
-      <c r="AN38" s="124"/>
+      <c r="T38" s="77"/>
+      <c r="U38" s="77"/>
+      <c r="V38" s="77"/>
+      <c r="W38" s="77"/>
+      <c r="X38" s="77"/>
+      <c r="Y38" s="78"/>
+      <c r="Z38" s="78"/>
+      <c r="AA38" s="78"/>
+      <c r="AB38" s="78"/>
+      <c r="AC38" s="78"/>
+      <c r="AD38" s="78"/>
+      <c r="AE38" s="78"/>
+      <c r="AF38" s="78"/>
+      <c r="AG38" s="78"/>
+      <c r="AH38" s="78"/>
+      <c r="AI38" s="78"/>
+      <c r="AJ38" s="78"/>
+      <c r="AK38" s="78"/>
+      <c r="AL38" s="78"/>
+      <c r="AM38" s="78"/>
+      <c r="AN38" s="78"/>
       <c r="AO38" s="2"/>
-      <c r="AP38" s="140"/>
-      <c r="AQ38" s="140"/>
-      <c r="AR38" s="140"/>
-      <c r="AS38" s="140"/>
-      <c r="AT38" s="140"/>
-      <c r="AU38" s="140"/>
-      <c r="AV38" s="140"/>
-      <c r="AW38" s="140"/>
-      <c r="AX38" s="140"/>
-      <c r="AY38" s="140"/>
-      <c r="AZ38" s="140"/>
-      <c r="BA38" s="140"/>
-      <c r="BB38" s="140"/>
-      <c r="BC38" s="140"/>
+      <c r="AP38" s="76"/>
+      <c r="AQ38" s="76"/>
+      <c r="AR38" s="76"/>
+      <c r="AS38" s="76"/>
+      <c r="AT38" s="76"/>
+      <c r="AU38" s="76"/>
+      <c r="AV38" s="76"/>
+      <c r="AW38" s="76"/>
+      <c r="AX38" s="76"/>
+      <c r="AY38" s="76"/>
+      <c r="AZ38" s="76"/>
+      <c r="BA38" s="76"/>
+      <c r="BB38" s="76"/>
+      <c r="BC38" s="76"/>
       <c r="BD38" s="2"/>
       <c r="BE38" s="23"/>
       <c r="BF38" s="1">
@@ -4446,39 +4446,39 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="22"/>
-      <c r="Y39" s="126" t="s">
+      <c r="Y39" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="Z39" s="126"/>
-      <c r="AA39" s="126"/>
-      <c r="AB39" s="126"/>
-      <c r="AC39" s="126"/>
-      <c r="AD39" s="126"/>
-      <c r="AE39" s="126"/>
-      <c r="AF39" s="126"/>
-      <c r="AG39" s="126"/>
-      <c r="AH39" s="126"/>
-      <c r="AI39" s="126"/>
-      <c r="AJ39" s="126"/>
-      <c r="AK39" s="126"/>
-      <c r="AL39" s="126"/>
-      <c r="AM39" s="126"/>
-      <c r="AN39" s="126"/>
+      <c r="Z39" s="79"/>
+      <c r="AA39" s="79"/>
+      <c r="AB39" s="79"/>
+      <c r="AC39" s="79"/>
+      <c r="AD39" s="79"/>
+      <c r="AE39" s="79"/>
+      <c r="AF39" s="79"/>
+      <c r="AG39" s="79"/>
+      <c r="AH39" s="79"/>
+      <c r="AI39" s="79"/>
+      <c r="AJ39" s="79"/>
+      <c r="AK39" s="79"/>
+      <c r="AL39" s="79"/>
+      <c r="AM39" s="79"/>
+      <c r="AN39" s="79"/>
       <c r="AO39" s="2"/>
-      <c r="AP39" s="137"/>
-      <c r="AQ39" s="137"/>
-      <c r="AR39" s="137"/>
-      <c r="AS39" s="137"/>
-      <c r="AT39" s="137"/>
-      <c r="AU39" s="137"/>
-      <c r="AV39" s="137"/>
-      <c r="AW39" s="137"/>
-      <c r="AX39" s="137"/>
-      <c r="AY39" s="137"/>
-      <c r="AZ39" s="137"/>
-      <c r="BA39" s="137"/>
-      <c r="BB39" s="137"/>
-      <c r="BC39" s="137"/>
+      <c r="AP39" s="80"/>
+      <c r="AQ39" s="80"/>
+      <c r="AR39" s="80"/>
+      <c r="AS39" s="80"/>
+      <c r="AT39" s="80"/>
+      <c r="AU39" s="80"/>
+      <c r="AV39" s="80"/>
+      <c r="AW39" s="80"/>
+      <c r="AX39" s="80"/>
+      <c r="AY39" s="80"/>
+      <c r="AZ39" s="80"/>
+      <c r="BA39" s="80"/>
+      <c r="BB39" s="80"/>
+      <c r="BC39" s="80"/>
       <c r="BD39" s="2"/>
       <c r="BG39" s="6"/>
       <c r="BH39" s="52">
@@ -4502,58 +4502,58 @@
       <c r="E40" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
-      <c r="M40" s="124"/>
-      <c r="N40" s="124"/>
-      <c r="O40" s="124"/>
-      <c r="P40" s="124"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="78"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="138" t="s">
+      <c r="R40" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="S40" s="138"/>
-      <c r="T40" s="138"/>
-      <c r="U40" s="138"/>
-      <c r="V40" s="138"/>
-      <c r="W40" s="138"/>
-      <c r="X40" s="138"/>
-      <c r="Y40" s="124"/>
-      <c r="Z40" s="124"/>
-      <c r="AA40" s="124"/>
-      <c r="AB40" s="124"/>
-      <c r="AC40" s="124"/>
-      <c r="AD40" s="124"/>
-      <c r="AE40" s="124"/>
-      <c r="AF40" s="124"/>
-      <c r="AG40" s="124"/>
-      <c r="AH40" s="124"/>
-      <c r="AI40" s="124"/>
-      <c r="AJ40" s="124"/>
-      <c r="AK40" s="124"/>
-      <c r="AL40" s="124"/>
-      <c r="AM40" s="124"/>
-      <c r="AN40" s="124"/>
+      <c r="S40" s="81"/>
+      <c r="T40" s="81"/>
+      <c r="U40" s="81"/>
+      <c r="V40" s="81"/>
+      <c r="W40" s="81"/>
+      <c r="X40" s="81"/>
+      <c r="Y40" s="78"/>
+      <c r="Z40" s="78"/>
+      <c r="AA40" s="78"/>
+      <c r="AB40" s="78"/>
+      <c r="AC40" s="78"/>
+      <c r="AD40" s="78"/>
+      <c r="AE40" s="78"/>
+      <c r="AF40" s="78"/>
+      <c r="AG40" s="78"/>
+      <c r="AH40" s="78"/>
+      <c r="AI40" s="78"/>
+      <c r="AJ40" s="78"/>
+      <c r="AK40" s="78"/>
+      <c r="AL40" s="78"/>
+      <c r="AM40" s="78"/>
+      <c r="AN40" s="78"/>
       <c r="AO40" s="2"/>
-      <c r="AP40" s="137"/>
-      <c r="AQ40" s="137"/>
-      <c r="AR40" s="137"/>
-      <c r="AS40" s="137"/>
-      <c r="AT40" s="137"/>
-      <c r="AU40" s="137"/>
-      <c r="AV40" s="137"/>
-      <c r="AW40" s="137"/>
-      <c r="AX40" s="137"/>
-      <c r="AY40" s="137"/>
-      <c r="AZ40" s="137"/>
-      <c r="BA40" s="137"/>
-      <c r="BB40" s="137"/>
-      <c r="BC40" s="137"/>
+      <c r="AP40" s="80"/>
+      <c r="AQ40" s="80"/>
+      <c r="AR40" s="80"/>
+      <c r="AS40" s="80"/>
+      <c r="AT40" s="80"/>
+      <c r="AU40" s="80"/>
+      <c r="AV40" s="80"/>
+      <c r="AW40" s="80"/>
+      <c r="AX40" s="80"/>
+      <c r="AY40" s="80"/>
+      <c r="AZ40" s="80"/>
+      <c r="BA40" s="80"/>
+      <c r="BB40" s="80"/>
+      <c r="BC40" s="80"/>
       <c r="BD40" s="2"/>
       <c r="BG40" s="6"/>
       <c r="BH40" s="52">
@@ -4575,19 +4575,19 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="126" t="s">
+      <c r="F41" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="126"/>
-      <c r="K41" s="126"/>
-      <c r="L41" s="126"/>
-      <c r="M41" s="126"/>
-      <c r="N41" s="126"/>
-      <c r="O41" s="126"/>
-      <c r="P41" s="126"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="79"/>
+      <c r="P41" s="79"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
@@ -4596,24 +4596,24 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
-      <c r="Y41" s="126" t="s">
+      <c r="Y41" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="Z41" s="126"/>
-      <c r="AA41" s="126"/>
-      <c r="AB41" s="126"/>
-      <c r="AC41" s="126"/>
-      <c r="AD41" s="126"/>
-      <c r="AE41" s="126"/>
-      <c r="AF41" s="126"/>
-      <c r="AG41" s="126"/>
-      <c r="AH41" s="126"/>
-      <c r="AI41" s="126"/>
-      <c r="AJ41" s="126"/>
-      <c r="AK41" s="126"/>
-      <c r="AL41" s="126"/>
-      <c r="AM41" s="126"/>
-      <c r="AN41" s="126"/>
+      <c r="Z41" s="79"/>
+      <c r="AA41" s="79"/>
+      <c r="AB41" s="79"/>
+      <c r="AC41" s="79"/>
+      <c r="AD41" s="79"/>
+      <c r="AE41" s="79"/>
+      <c r="AF41" s="79"/>
+      <c r="AG41" s="79"/>
+      <c r="AH41" s="79"/>
+      <c r="AI41" s="79"/>
+      <c r="AJ41" s="79"/>
+      <c r="AK41" s="79"/>
+      <c r="AL41" s="79"/>
+      <c r="AM41" s="79"/>
+      <c r="AN41" s="79"/>
       <c r="AO41" s="2"/>
       <c r="AP41" s="53"/>
       <c r="AQ41" s="53"/>
@@ -4750,27 +4750,27 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
       <c r="AJ43" s="2"/>
-      <c r="AK43" s="124"/>
-      <c r="AL43" s="124"/>
-      <c r="AM43" s="124"/>
-      <c r="AN43" s="124"/>
-      <c r="AO43" s="124"/>
-      <c r="AP43" s="124"/>
+      <c r="AK43" s="78"/>
+      <c r="AL43" s="78"/>
+      <c r="AM43" s="78"/>
+      <c r="AN43" s="78"/>
+      <c r="AO43" s="78"/>
+      <c r="AP43" s="78"/>
       <c r="AQ43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AR43" s="124"/>
-      <c r="AS43" s="124"/>
-      <c r="AT43" s="124"/>
-      <c r="AU43" s="124"/>
-      <c r="AV43" s="124"/>
-      <c r="AW43" s="124"/>
-      <c r="AX43" s="124"/>
-      <c r="AY43" s="124"/>
-      <c r="AZ43" s="124"/>
-      <c r="BA43" s="124"/>
-      <c r="BB43" s="124"/>
-      <c r="BC43" s="124"/>
+      <c r="AR43" s="78"/>
+      <c r="AS43" s="78"/>
+      <c r="AT43" s="78"/>
+      <c r="AU43" s="78"/>
+      <c r="AV43" s="78"/>
+      <c r="AW43" s="78"/>
+      <c r="AX43" s="78"/>
+      <c r="AY43" s="78"/>
+      <c r="AZ43" s="78"/>
+      <c r="BA43" s="78"/>
+      <c r="BB43" s="78"/>
+      <c r="BC43" s="78"/>
       <c r="BD43" s="2"/>
       <c r="BE43" s="46"/>
       <c r="BF43" s="6"/>
@@ -4800,17 +4800,17 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
-      <c r="R44" s="135" t="s">
+      <c r="R44" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="S44" s="135"/>
-      <c r="T44" s="135"/>
-      <c r="U44" s="135"/>
-      <c r="V44" s="135"/>
-      <c r="W44" s="135"/>
-      <c r="X44" s="135"/>
-      <c r="Y44" s="135"/>
-      <c r="Z44" s="135"/>
+      <c r="S44" s="75"/>
+      <c r="T44" s="75"/>
+      <c r="U44" s="75"/>
+      <c r="V44" s="75"/>
+      <c r="W44" s="75"/>
+      <c r="X44" s="75"/>
+      <c r="Y44" s="75"/>
+      <c r="Z44" s="75"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="55"/>
@@ -4820,28 +4820,28 @@
       </c>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
-      <c r="AH44" s="124"/>
-      <c r="AI44" s="124"/>
-      <c r="AJ44" s="124"/>
-      <c r="AK44" s="124"/>
-      <c r="AL44" s="124"/>
-      <c r="AM44" s="124"/>
-      <c r="AN44" s="124"/>
-      <c r="AO44" s="124"/>
-      <c r="AP44" s="124"/>
-      <c r="AQ44" s="124"/>
-      <c r="AR44" s="124"/>
-      <c r="AS44" s="124"/>
-      <c r="AT44" s="124"/>
-      <c r="AU44" s="124"/>
-      <c r="AV44" s="124"/>
-      <c r="AW44" s="124"/>
-      <c r="AX44" s="124"/>
-      <c r="AY44" s="124"/>
-      <c r="AZ44" s="124"/>
-      <c r="BA44" s="124"/>
-      <c r="BB44" s="124"/>
-      <c r="BC44" s="124"/>
+      <c r="AH44" s="78"/>
+      <c r="AI44" s="78"/>
+      <c r="AJ44" s="78"/>
+      <c r="AK44" s="78"/>
+      <c r="AL44" s="78"/>
+      <c r="AM44" s="78"/>
+      <c r="AN44" s="78"/>
+      <c r="AO44" s="78"/>
+      <c r="AP44" s="78"/>
+      <c r="AQ44" s="78"/>
+      <c r="AR44" s="78"/>
+      <c r="AS44" s="78"/>
+      <c r="AT44" s="78"/>
+      <c r="AU44" s="78"/>
+      <c r="AV44" s="78"/>
+      <c r="AW44" s="78"/>
+      <c r="AX44" s="78"/>
+      <c r="AY44" s="78"/>
+      <c r="AZ44" s="78"/>
+      <c r="BA44" s="78"/>
+      <c r="BB44" s="78"/>
+      <c r="BC44" s="78"/>
       <c r="BD44" s="2"/>
       <c r="BE44" s="46"/>
       <c r="BF44" s="6"/>
@@ -4854,65 +4854,65 @@
       <c r="BR44" s="6"/>
     </row>
     <row r="45" spans="1:70" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="136" t="s">
+      <c r="A45" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="136"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="136"/>
-      <c r="K45" s="136"/>
-      <c r="L45" s="136"/>
-      <c r="M45" s="136"/>
-      <c r="N45" s="136"/>
-      <c r="O45" s="136"/>
-      <c r="P45" s="136"/>
-      <c r="Q45" s="136"/>
-      <c r="R45" s="136"/>
-      <c r="S45" s="136"/>
-      <c r="T45" s="136"/>
-      <c r="U45" s="136"/>
-      <c r="V45" s="136"/>
-      <c r="W45" s="136"/>
-      <c r="X45" s="136"/>
-      <c r="Y45" s="136"/>
-      <c r="Z45" s="136"/>
-      <c r="AA45" s="136"/>
-      <c r="AB45" s="136"/>
-      <c r="AC45" s="136"/>
-      <c r="AD45" s="136"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="82"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="82"/>
+      <c r="Q45" s="82"/>
+      <c r="R45" s="82"/>
+      <c r="S45" s="82"/>
+      <c r="T45" s="82"/>
+      <c r="U45" s="82"/>
+      <c r="V45" s="82"/>
+      <c r="W45" s="82"/>
+      <c r="X45" s="82"/>
+      <c r="Y45" s="82"/>
+      <c r="Z45" s="82"/>
+      <c r="AA45" s="82"/>
+      <c r="AB45" s="82"/>
+      <c r="AC45" s="82"/>
+      <c r="AD45" s="82"/>
       <c r="AE45" s="55"/>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
-      <c r="AI45" s="125" t="s">
+      <c r="AI45" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="AJ45" s="125"/>
-      <c r="AK45" s="125"/>
-      <c r="AL45" s="125"/>
-      <c r="AM45" s="125"/>
-      <c r="AN45" s="125"/>
-      <c r="AO45" s="125"/>
-      <c r="AP45" s="125"/>
-      <c r="AQ45" s="125"/>
-      <c r="AR45" s="125"/>
-      <c r="AS45" s="125"/>
-      <c r="AT45" s="125"/>
-      <c r="AU45" s="125"/>
-      <c r="AV45" s="125"/>
-      <c r="AW45" s="125"/>
-      <c r="AX45" s="125"/>
-      <c r="AY45" s="125"/>
-      <c r="AZ45" s="125"/>
-      <c r="BA45" s="125"/>
-      <c r="BB45" s="125"/>
-      <c r="BC45" s="125"/>
+      <c r="AJ45" s="83"/>
+      <c r="AK45" s="83"/>
+      <c r="AL45" s="83"/>
+      <c r="AM45" s="83"/>
+      <c r="AN45" s="83"/>
+      <c r="AO45" s="83"/>
+      <c r="AP45" s="83"/>
+      <c r="AQ45" s="83"/>
+      <c r="AR45" s="83"/>
+      <c r="AS45" s="83"/>
+      <c r="AT45" s="83"/>
+      <c r="AU45" s="83"/>
+      <c r="AV45" s="83"/>
+      <c r="AW45" s="83"/>
+      <c r="AX45" s="83"/>
+      <c r="AY45" s="83"/>
+      <c r="AZ45" s="83"/>
+      <c r="BA45" s="83"/>
+      <c r="BB45" s="83"/>
+      <c r="BC45" s="83"/>
       <c r="BD45" s="2"/>
       <c r="BE45" s="52">
         <v>150</v>
@@ -4927,35 +4927,35 @@
       <c r="BR45" s="6"/>
     </row>
     <row r="46" spans="1:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="130" t="s">
+      <c r="A46" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="130"/>
-      <c r="C46" s="130"/>
-      <c r="D46" s="130"/>
-      <c r="E46" s="130"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="130"/>
-      <c r="H46" s="130"/>
-      <c r="I46" s="130"/>
-      <c r="J46" s="130"/>
-      <c r="K46" s="130"/>
-      <c r="L46" s="130"/>
-      <c r="M46" s="130"/>
-      <c r="N46" s="130"/>
-      <c r="O46" s="130"/>
-      <c r="P46" s="130"/>
-      <c r="Q46" s="130"/>
-      <c r="R46" s="130"/>
-      <c r="S46" s="130"/>
-      <c r="T46" s="130"/>
-      <c r="U46" s="130"/>
-      <c r="V46" s="130"/>
-      <c r="W46" s="130"/>
-      <c r="X46" s="130"/>
-      <c r="Y46" s="130"/>
-      <c r="Z46" s="130"/>
-      <c r="AA46" s="130"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="84"/>
+      <c r="M46" s="84"/>
+      <c r="N46" s="84"/>
+      <c r="O46" s="84"/>
+      <c r="P46" s="84"/>
+      <c r="Q46" s="84"/>
+      <c r="R46" s="84"/>
+      <c r="S46" s="84"/>
+      <c r="T46" s="84"/>
+      <c r="U46" s="84"/>
+      <c r="V46" s="84"/>
+      <c r="W46" s="84"/>
+      <c r="X46" s="84"/>
+      <c r="Y46" s="84"/>
+      <c r="Z46" s="84"/>
+      <c r="AA46" s="84"/>
       <c r="AB46" s="58"/>
       <c r="AC46" s="58"/>
       <c r="AD46" s="57"/>
@@ -5033,28 +5033,28 @@
       <c r="AE47" s="8"/>
       <c r="AF47" s="59"/>
       <c r="AG47" s="59"/>
-      <c r="AH47" s="131"/>
-      <c r="AI47" s="131"/>
-      <c r="AJ47" s="131"/>
-      <c r="AK47" s="131"/>
-      <c r="AL47" s="131"/>
-      <c r="AM47" s="131"/>
-      <c r="AN47" s="131"/>
-      <c r="AO47" s="131"/>
-      <c r="AP47" s="131"/>
-      <c r="AQ47" s="131"/>
-      <c r="AR47" s="131"/>
-      <c r="AS47" s="131"/>
-      <c r="AT47" s="131"/>
-      <c r="AU47" s="131"/>
-      <c r="AV47" s="131"/>
-      <c r="AW47" s="131"/>
-      <c r="AX47" s="131"/>
-      <c r="AY47" s="131"/>
-      <c r="AZ47" s="131"/>
-      <c r="BA47" s="131"/>
-      <c r="BB47" s="131"/>
-      <c r="BC47" s="131"/>
+      <c r="AH47" s="85"/>
+      <c r="AI47" s="85"/>
+      <c r="AJ47" s="85"/>
+      <c r="AK47" s="85"/>
+      <c r="AL47" s="85"/>
+      <c r="AM47" s="85"/>
+      <c r="AN47" s="85"/>
+      <c r="AO47" s="85"/>
+      <c r="AP47" s="85"/>
+      <c r="AQ47" s="85"/>
+      <c r="AR47" s="85"/>
+      <c r="AS47" s="85"/>
+      <c r="AT47" s="85"/>
+      <c r="AU47" s="85"/>
+      <c r="AV47" s="85"/>
+      <c r="AW47" s="85"/>
+      <c r="AX47" s="85"/>
+      <c r="AY47" s="85"/>
+      <c r="AZ47" s="85"/>
+      <c r="BA47" s="85"/>
+      <c r="BB47" s="85"/>
+      <c r="BC47" s="85"/>
       <c r="BD47" s="2"/>
       <c r="BE47" s="52">
         <v>150</v>
@@ -5089,49 +5089,49 @@
       <c r="N48" s="65"/>
       <c r="O48" s="65"/>
       <c r="P48" s="2"/>
-      <c r="Q48" s="132"/>
-      <c r="R48" s="132"/>
-      <c r="S48" s="132"/>
-      <c r="T48" s="132"/>
-      <c r="U48" s="132"/>
-      <c r="V48" s="133" t="s">
+      <c r="Q48" s="86"/>
+      <c r="R48" s="86"/>
+      <c r="S48" s="86"/>
+      <c r="T48" s="86"/>
+      <c r="U48" s="86"/>
+      <c r="V48" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="W48" s="133"/>
-      <c r="X48" s="133"/>
-      <c r="Y48" s="133"/>
-      <c r="Z48" s="133"/>
-      <c r="AA48" s="133"/>
-      <c r="AB48" s="133"/>
-      <c r="AC48" s="133"/>
-      <c r="AD48" s="133"/>
+      <c r="W48" s="87"/>
+      <c r="X48" s="87"/>
+      <c r="Y48" s="87"/>
+      <c r="Z48" s="87"/>
+      <c r="AA48" s="87"/>
+      <c r="AB48" s="87"/>
+      <c r="AC48" s="87"/>
+      <c r="AD48" s="87"/>
       <c r="AE48" s="59" t="s">
         <v>59</v>
       </c>
       <c r="AF48" s="59"/>
       <c r="AG48" s="59"/>
       <c r="AH48" s="59"/>
-      <c r="AI48" s="134"/>
-      <c r="AJ48" s="134"/>
-      <c r="AK48" s="134"/>
-      <c r="AL48" s="134"/>
-      <c r="AM48" s="134"/>
-      <c r="AN48" s="134"/>
-      <c r="AO48" s="134"/>
-      <c r="AP48" s="134"/>
+      <c r="AI48" s="88"/>
+      <c r="AJ48" s="88"/>
+      <c r="AK48" s="88"/>
+      <c r="AL48" s="88"/>
+      <c r="AM48" s="88"/>
+      <c r="AN48" s="88"/>
+      <c r="AO48" s="88"/>
+      <c r="AP48" s="88"/>
       <c r="AQ48" s="8"/>
-      <c r="AR48" s="134"/>
-      <c r="AS48" s="134"/>
-      <c r="AT48" s="134"/>
-      <c r="AU48" s="134"/>
-      <c r="AV48" s="134"/>
+      <c r="AR48" s="88"/>
+      <c r="AS48" s="88"/>
+      <c r="AT48" s="88"/>
+      <c r="AU48" s="88"/>
+      <c r="AV48" s="88"/>
       <c r="AW48" s="8"/>
-      <c r="AX48" s="134"/>
-      <c r="AY48" s="134"/>
-      <c r="AZ48" s="134"/>
-      <c r="BA48" s="134"/>
-      <c r="BB48" s="134"/>
-      <c r="BC48" s="134"/>
+      <c r="AX48" s="88"/>
+      <c r="AY48" s="88"/>
+      <c r="AZ48" s="88"/>
+      <c r="BA48" s="88"/>
+      <c r="BB48" s="88"/>
+      <c r="BC48" s="88"/>
       <c r="BD48" s="2"/>
       <c r="BE48" s="52">
         <v>15</v>
@@ -5153,64 +5153,64 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="94" t="s">
+      <c r="H49" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="I49" s="94"/>
-      <c r="J49" s="94"/>
-      <c r="K49" s="94"/>
-      <c r="L49" s="94"/>
-      <c r="M49" s="94"/>
-      <c r="N49" s="94"/>
-      <c r="O49" s="94"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="89"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="89"/>
       <c r="P49" s="2"/>
-      <c r="Q49" s="129"/>
-      <c r="R49" s="129"/>
-      <c r="S49" s="129"/>
-      <c r="T49" s="129"/>
-      <c r="U49" s="129"/>
+      <c r="Q49" s="90"/>
+      <c r="R49" s="90"/>
+      <c r="S49" s="90"/>
+      <c r="T49" s="90"/>
+      <c r="U49" s="90"/>
       <c r="V49" s="2"/>
-      <c r="W49" s="126" t="s">
+      <c r="W49" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="X49" s="126"/>
-      <c r="Y49" s="126"/>
-      <c r="Z49" s="126"/>
-      <c r="AA49" s="126"/>
-      <c r="AB49" s="126"/>
-      <c r="AC49" s="126"/>
+      <c r="X49" s="79"/>
+      <c r="Y49" s="79"/>
+      <c r="Z49" s="79"/>
+      <c r="AA49" s="79"/>
+      <c r="AB49" s="79"/>
+      <c r="AC49" s="79"/>
       <c r="AD49" s="56"/>
       <c r="AE49" s="8"/>
       <c r="AF49" s="59"/>
       <c r="AG49" s="59"/>
       <c r="AH49" s="59"/>
       <c r="AI49" s="59"/>
-      <c r="AJ49" s="94" t="s">
+      <c r="AJ49" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="AK49" s="94"/>
-      <c r="AL49" s="94"/>
-      <c r="AM49" s="94"/>
-      <c r="AN49" s="94"/>
-      <c r="AO49" s="94"/>
-      <c r="AP49" s="94"/>
+      <c r="AK49" s="89"/>
+      <c r="AL49" s="89"/>
+      <c r="AM49" s="89"/>
+      <c r="AN49" s="89"/>
+      <c r="AO49" s="89"/>
+      <c r="AP49" s="89"/>
       <c r="AQ49" s="8"/>
-      <c r="AR49" s="94" t="s">
+      <c r="AR49" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="AS49" s="94"/>
-      <c r="AT49" s="94"/>
-      <c r="AU49" s="94"/>
-      <c r="AV49" s="94"/>
+      <c r="AS49" s="89"/>
+      <c r="AT49" s="89"/>
+      <c r="AU49" s="89"/>
+      <c r="AV49" s="89"/>
       <c r="AW49" s="8"/>
-      <c r="AX49" s="94" t="s">
+      <c r="AX49" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="AY49" s="94"/>
-      <c r="AZ49" s="94"/>
-      <c r="BA49" s="94"/>
-      <c r="BB49" s="94"/>
-      <c r="BC49" s="94"/>
+      <c r="AY49" s="89"/>
+      <c r="AZ49" s="89"/>
+      <c r="BA49" s="89"/>
+      <c r="BB49" s="89"/>
+      <c r="BC49" s="89"/>
       <c r="BD49" s="2"/>
       <c r="BE49" s="52">
         <v>225</v>
@@ -5243,49 +5243,49 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
-      <c r="Q50" s="124"/>
-      <c r="R50" s="124"/>
-      <c r="S50" s="124"/>
-      <c r="T50" s="124"/>
-      <c r="U50" s="124"/>
-      <c r="V50" s="127" t="s">
+      <c r="Q50" s="78"/>
+      <c r="R50" s="78"/>
+      <c r="S50" s="78"/>
+      <c r="T50" s="78"/>
+      <c r="U50" s="78"/>
+      <c r="V50" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="W50" s="127"/>
-      <c r="X50" s="127"/>
-      <c r="Y50" s="127"/>
-      <c r="Z50" s="127"/>
-      <c r="AA50" s="127"/>
-      <c r="AB50" s="127"/>
-      <c r="AC50" s="127"/>
-      <c r="AD50" s="127"/>
+      <c r="W50" s="92"/>
+      <c r="X50" s="92"/>
+      <c r="Y50" s="92"/>
+      <c r="Z50" s="92"/>
+      <c r="AA50" s="92"/>
+      <c r="AB50" s="92"/>
+      <c r="AC50" s="92"/>
+      <c r="AD50" s="92"/>
       <c r="AE50" s="59" t="s">
         <v>66</v>
       </c>
       <c r="AF50" s="59"/>
       <c r="AG50" s="59"/>
       <c r="AH50" s="59"/>
-      <c r="AI50" s="128"/>
-      <c r="AJ50" s="128"/>
-      <c r="AK50" s="128"/>
-      <c r="AL50" s="128"/>
-      <c r="AM50" s="128"/>
-      <c r="AN50" s="128"/>
-      <c r="AO50" s="128"/>
-      <c r="AP50" s="128"/>
+      <c r="AI50" s="91"/>
+      <c r="AJ50" s="91"/>
+      <c r="AK50" s="91"/>
+      <c r="AL50" s="91"/>
+      <c r="AM50" s="91"/>
+      <c r="AN50" s="91"/>
+      <c r="AO50" s="91"/>
+      <c r="AP50" s="91"/>
       <c r="AQ50" s="59"/>
-      <c r="AR50" s="128"/>
-      <c r="AS50" s="128"/>
-      <c r="AT50" s="128"/>
-      <c r="AU50" s="128"/>
-      <c r="AV50" s="128"/>
+      <c r="AR50" s="91"/>
+      <c r="AS50" s="91"/>
+      <c r="AT50" s="91"/>
+      <c r="AU50" s="91"/>
+      <c r="AV50" s="91"/>
       <c r="AW50" s="59"/>
-      <c r="AX50" s="128"/>
-      <c r="AY50" s="128"/>
-      <c r="AZ50" s="128"/>
-      <c r="BA50" s="128"/>
-      <c r="BB50" s="128"/>
-      <c r="BC50" s="128"/>
+      <c r="AX50" s="91"/>
+      <c r="AY50" s="91"/>
+      <c r="AZ50" s="91"/>
+      <c r="BA50" s="91"/>
+      <c r="BB50" s="91"/>
+      <c r="BC50" s="91"/>
       <c r="BD50" s="2"/>
       <c r="BE50" s="52">
         <v>225</v>
@@ -5316,21 +5316,21 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
-      <c r="Q51" s="125"/>
-      <c r="R51" s="125"/>
-      <c r="S51" s="125"/>
-      <c r="T51" s="125"/>
-      <c r="U51" s="125"/>
+      <c r="Q51" s="83"/>
+      <c r="R51" s="83"/>
+      <c r="S51" s="83"/>
+      <c r="T51" s="83"/>
+      <c r="U51" s="83"/>
       <c r="V51" s="2"/>
-      <c r="W51" s="126" t="s">
+      <c r="W51" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="X51" s="126"/>
-      <c r="Y51" s="126"/>
-      <c r="Z51" s="126"/>
-      <c r="AA51" s="126"/>
-      <c r="AB51" s="126"/>
-      <c r="AC51" s="126"/>
+      <c r="X51" s="79"/>
+      <c r="Y51" s="79"/>
+      <c r="Z51" s="79"/>
+      <c r="AA51" s="79"/>
+      <c r="AB51" s="79"/>
+      <c r="AC51" s="79"/>
       <c r="AD51" s="56"/>
       <c r="AE51" s="67" t="s">
         <v>67</v>
@@ -5339,32 +5339,32 @@
       <c r="AG51" s="59"/>
       <c r="AH51" s="59"/>
       <c r="AI51" s="11"/>
-      <c r="AJ51" s="94" t="s">
+      <c r="AJ51" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="AK51" s="94"/>
-      <c r="AL51" s="94"/>
-      <c r="AM51" s="94"/>
-      <c r="AN51" s="94"/>
-      <c r="AO51" s="94"/>
-      <c r="AP51" s="94"/>
+      <c r="AK51" s="89"/>
+      <c r="AL51" s="89"/>
+      <c r="AM51" s="89"/>
+      <c r="AN51" s="89"/>
+      <c r="AO51" s="89"/>
+      <c r="AP51" s="89"/>
       <c r="AQ51" s="59"/>
-      <c r="AR51" s="126" t="s">
+      <c r="AR51" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="AS51" s="126"/>
-      <c r="AT51" s="126"/>
-      <c r="AU51" s="126"/>
-      <c r="AV51" s="126"/>
+      <c r="AS51" s="79"/>
+      <c r="AT51" s="79"/>
+      <c r="AU51" s="79"/>
+      <c r="AV51" s="79"/>
       <c r="AW51" s="59"/>
-      <c r="AX51" s="126" t="s">
+      <c r="AX51" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="AY51" s="126"/>
-      <c r="AZ51" s="126"/>
-      <c r="BA51" s="126"/>
-      <c r="BB51" s="126"/>
-      <c r="BC51" s="126"/>
+      <c r="AY51" s="79"/>
+      <c r="AZ51" s="79"/>
+      <c r="BA51" s="79"/>
+      <c r="BB51" s="79"/>
+      <c r="BC51" s="79"/>
       <c r="BD51" s="2"/>
       <c r="BE51" s="52">
         <v>225</v>
@@ -5389,27 +5389,27 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="34"/>
-      <c r="I52" s="124"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="124"/>
-      <c r="L52" s="124"/>
-      <c r="M52" s="124"/>
-      <c r="N52" s="124"/>
-      <c r="O52" s="124"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="78"/>
+      <c r="K52" s="78"/>
+      <c r="L52" s="78"/>
+      <c r="M52" s="78"/>
+      <c r="N52" s="78"/>
+      <c r="O52" s="78"/>
       <c r="P52" s="2"/>
-      <c r="Q52" s="124"/>
-      <c r="R52" s="124"/>
-      <c r="S52" s="124"/>
-      <c r="T52" s="124"/>
-      <c r="U52" s="124"/>
+      <c r="Q52" s="78"/>
+      <c r="R52" s="78"/>
+      <c r="S52" s="78"/>
+      <c r="T52" s="78"/>
+      <c r="U52" s="78"/>
       <c r="V52" s="2"/>
-      <c r="W52" s="124"/>
-      <c r="X52" s="124"/>
-      <c r="Y52" s="124"/>
-      <c r="Z52" s="124"/>
-      <c r="AA52" s="124"/>
-      <c r="AB52" s="124"/>
-      <c r="AC52" s="124"/>
+      <c r="W52" s="78"/>
+      <c r="X52" s="78"/>
+      <c r="Y52" s="78"/>
+      <c r="Z52" s="78"/>
+      <c r="AA52" s="78"/>
+      <c r="AB52" s="78"/>
+      <c r="AC52" s="78"/>
       <c r="AD52" s="56"/>
       <c r="AE52" s="8"/>
       <c r="AF52" s="59"/>
@@ -5455,31 +5455,31 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="94" t="s">
+      <c r="I53" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="J53" s="94"/>
-      <c r="K53" s="94"/>
-      <c r="L53" s="94"/>
-      <c r="M53" s="94"/>
-      <c r="N53" s="94"/>
-      <c r="O53" s="94"/>
+      <c r="J53" s="89"/>
+      <c r="K53" s="89"/>
+      <c r="L53" s="89"/>
+      <c r="M53" s="89"/>
+      <c r="N53" s="89"/>
+      <c r="O53" s="89"/>
       <c r="P53" s="2"/>
-      <c r="Q53" s="125"/>
-      <c r="R53" s="125"/>
-      <c r="S53" s="125"/>
-      <c r="T53" s="125"/>
-      <c r="U53" s="125"/>
+      <c r="Q53" s="83"/>
+      <c r="R53" s="83"/>
+      <c r="S53" s="83"/>
+      <c r="T53" s="83"/>
+      <c r="U53" s="83"/>
       <c r="V53" s="2"/>
-      <c r="W53" s="126" t="s">
+      <c r="W53" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="X53" s="126"/>
-      <c r="Y53" s="126"/>
-      <c r="Z53" s="126"/>
-      <c r="AA53" s="126"/>
-      <c r="AB53" s="126"/>
-      <c r="AC53" s="126"/>
+      <c r="X53" s="79"/>
+      <c r="Y53" s="79"/>
+      <c r="Z53" s="79"/>
+      <c r="AA53" s="79"/>
+      <c r="AB53" s="79"/>
+      <c r="AC53" s="79"/>
       <c r="AD53" s="56"/>
       <c r="AE53" s="8"/>
       <c r="AF53" s="59"/>
@@ -5526,16 +5526,16 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="123" t="s">
+      <c r="H54" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="I54" s="123"/>
-      <c r="J54" s="123"/>
-      <c r="K54" s="123"/>
-      <c r="L54" s="123"/>
-      <c r="M54" s="123"/>
-      <c r="N54" s="123"/>
-      <c r="O54" s="123"/>
+      <c r="I54" s="96"/>
+      <c r="J54" s="96"/>
+      <c r="K54" s="96"/>
+      <c r="L54" s="96"/>
+      <c r="M54" s="96"/>
+      <c r="N54" s="96"/>
+      <c r="O54" s="96"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
@@ -5751,70 +5751,65 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="147">
-    <mergeCell ref="Q35:AK35"/>
-    <mergeCell ref="F36:AK36"/>
-    <mergeCell ref="F37:AK37"/>
-    <mergeCell ref="AP37:BC38"/>
-    <mergeCell ref="S38:X38"/>
-    <mergeCell ref="Y38:AN38"/>
-    <mergeCell ref="Y39:AN39"/>
-    <mergeCell ref="AP39:BC40"/>
-    <mergeCell ref="F40:P40"/>
-    <mergeCell ref="R40:X40"/>
-    <mergeCell ref="Y40:AN40"/>
-    <mergeCell ref="F41:P41"/>
-    <mergeCell ref="Y41:AN41"/>
-    <mergeCell ref="AK43:AP43"/>
-    <mergeCell ref="AR43:BC43"/>
-    <mergeCell ref="R44:Z44"/>
-    <mergeCell ref="AH44:BC44"/>
-    <mergeCell ref="A45:AD45"/>
-    <mergeCell ref="AI45:BC45"/>
-    <mergeCell ref="A46:AA46"/>
-    <mergeCell ref="AH47:BC47"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="V48:AD48"/>
-    <mergeCell ref="AI48:AP48"/>
-    <mergeCell ref="AR48:AV48"/>
-    <mergeCell ref="AX48:BC48"/>
-    <mergeCell ref="H49:O49"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="W49:AC49"/>
-    <mergeCell ref="AJ49:AP49"/>
-    <mergeCell ref="AR49:AV49"/>
-    <mergeCell ref="AX49:BC49"/>
-    <mergeCell ref="AX50:BC50"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="W51:AC51"/>
-    <mergeCell ref="AJ51:AP51"/>
-    <mergeCell ref="AR51:AV51"/>
-    <mergeCell ref="AX51:BC51"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="W53:AC53"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="V50:AD50"/>
-    <mergeCell ref="AI50:AP50"/>
-    <mergeCell ref="AR50:AV50"/>
-    <mergeCell ref="AN34:AP34"/>
-    <mergeCell ref="AQ34:AS34"/>
-    <mergeCell ref="AT34:AV34"/>
-    <mergeCell ref="AW34:AZ34"/>
-    <mergeCell ref="BA34:BD34"/>
-    <mergeCell ref="H54:O54"/>
-    <mergeCell ref="I52:O52"/>
-    <mergeCell ref="Q52:U52"/>
-    <mergeCell ref="W52:AC52"/>
-    <mergeCell ref="I53:O53"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AH34:AJ34"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AT32:AV32"/>
+    <mergeCell ref="AW32:AZ32"/>
+    <mergeCell ref="BA32:BD32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="AK32:AM32"/>
+    <mergeCell ref="AN32:AP32"/>
+    <mergeCell ref="AQ32:AS32"/>
+    <mergeCell ref="A29:C31"/>
+    <mergeCell ref="D29:S29"/>
+    <mergeCell ref="T29:Y29"/>
+    <mergeCell ref="Z29:AB31"/>
+    <mergeCell ref="AC29:AG29"/>
+    <mergeCell ref="T30:V31"/>
+    <mergeCell ref="W30:Y31"/>
+    <mergeCell ref="AC30:AE31"/>
+    <mergeCell ref="AF30:AG31"/>
+    <mergeCell ref="H23:AR23"/>
+    <mergeCell ref="AZ23:BA23"/>
+    <mergeCell ref="BB23:BD23"/>
+    <mergeCell ref="D30:P31"/>
+    <mergeCell ref="Q30:S31"/>
+    <mergeCell ref="AR24:AX24"/>
+    <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="BB24:BD24"/>
+    <mergeCell ref="AZ25:BA25"/>
+    <mergeCell ref="BB25:BD25"/>
+    <mergeCell ref="W26:AB26"/>
+    <mergeCell ref="AC26:AG26"/>
+    <mergeCell ref="BB26:BD26"/>
+    <mergeCell ref="AT29:AZ29"/>
+    <mergeCell ref="BA29:BD31"/>
+    <mergeCell ref="L27:V27"/>
+    <mergeCell ref="W27:AB27"/>
+    <mergeCell ref="AC27:AG27"/>
+    <mergeCell ref="AT30:AV31"/>
+    <mergeCell ref="AW30:AZ31"/>
+    <mergeCell ref="AH29:AJ31"/>
+    <mergeCell ref="AK29:AM31"/>
+    <mergeCell ref="AN29:AP31"/>
+    <mergeCell ref="AQ29:AS31"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="H16:AV16"/>
+    <mergeCell ref="H18:AR18"/>
+    <mergeCell ref="BB18:BD19"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="H19:AV19"/>
+    <mergeCell ref="H21:AR21"/>
+    <mergeCell ref="AZ21:BA22"/>
+    <mergeCell ref="BB21:BD22"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="H22:AV22"/>
     <mergeCell ref="AW33:AZ33"/>
     <mergeCell ref="BA33:BD33"/>
     <mergeCell ref="AF33:AG33"/>
@@ -5839,65 +5834,70 @@
     <mergeCell ref="BB13:BD13"/>
     <mergeCell ref="H15:AR15"/>
     <mergeCell ref="BB15:BD16"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="H16:AV16"/>
-    <mergeCell ref="H18:AR18"/>
-    <mergeCell ref="BB18:BD19"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="H19:AV19"/>
-    <mergeCell ref="H21:AR21"/>
-    <mergeCell ref="AZ21:BA22"/>
-    <mergeCell ref="BB21:BD22"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="H22:AV22"/>
-    <mergeCell ref="H23:AR23"/>
-    <mergeCell ref="AZ23:BA23"/>
-    <mergeCell ref="BB23:BD23"/>
-    <mergeCell ref="D30:P31"/>
-    <mergeCell ref="Q30:S31"/>
-    <mergeCell ref="AR24:AX24"/>
-    <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="BB24:BD24"/>
-    <mergeCell ref="AZ25:BA25"/>
-    <mergeCell ref="BB25:BD25"/>
-    <mergeCell ref="W26:AB26"/>
-    <mergeCell ref="AC26:AG26"/>
-    <mergeCell ref="BB26:BD26"/>
-    <mergeCell ref="AT29:AZ29"/>
-    <mergeCell ref="BA29:BD31"/>
-    <mergeCell ref="L27:V27"/>
-    <mergeCell ref="W27:AB27"/>
-    <mergeCell ref="AC27:AG27"/>
-    <mergeCell ref="A29:C31"/>
-    <mergeCell ref="D29:S29"/>
-    <mergeCell ref="T29:Y29"/>
-    <mergeCell ref="Z29:AB31"/>
-    <mergeCell ref="AC29:AG29"/>
-    <mergeCell ref="T30:V31"/>
-    <mergeCell ref="W30:Y31"/>
-    <mergeCell ref="AC30:AE31"/>
-    <mergeCell ref="AF30:AG31"/>
-    <mergeCell ref="AT30:AV31"/>
-    <mergeCell ref="AW30:AZ31"/>
-    <mergeCell ref="AH29:AJ31"/>
-    <mergeCell ref="AK29:AM31"/>
-    <mergeCell ref="AN29:AP31"/>
-    <mergeCell ref="AQ29:AS31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AT32:AV32"/>
-    <mergeCell ref="AW32:AZ32"/>
-    <mergeCell ref="BA32:BD32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="AK32:AM32"/>
-    <mergeCell ref="AN32:AP32"/>
-    <mergeCell ref="AQ32:AS32"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AH34:AJ34"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AN34:AP34"/>
+    <mergeCell ref="AQ34:AS34"/>
+    <mergeCell ref="AT34:AV34"/>
+    <mergeCell ref="AW34:AZ34"/>
+    <mergeCell ref="BA34:BD34"/>
+    <mergeCell ref="H54:O54"/>
+    <mergeCell ref="I52:O52"/>
+    <mergeCell ref="Q52:U52"/>
+    <mergeCell ref="W52:AC52"/>
+    <mergeCell ref="I53:O53"/>
+    <mergeCell ref="AX50:BC50"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="W51:AC51"/>
+    <mergeCell ref="AJ51:AP51"/>
+    <mergeCell ref="AR51:AV51"/>
+    <mergeCell ref="AX51:BC51"/>
+    <mergeCell ref="Q53:U53"/>
+    <mergeCell ref="W53:AC53"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="V50:AD50"/>
+    <mergeCell ref="AI50:AP50"/>
+    <mergeCell ref="AR50:AV50"/>
+    <mergeCell ref="AH47:BC47"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="V48:AD48"/>
+    <mergeCell ref="AI48:AP48"/>
+    <mergeCell ref="AR48:AV48"/>
+    <mergeCell ref="AX48:BC48"/>
+    <mergeCell ref="H49:O49"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="W49:AC49"/>
+    <mergeCell ref="AJ49:AP49"/>
+    <mergeCell ref="AR49:AV49"/>
+    <mergeCell ref="AX49:BC49"/>
+    <mergeCell ref="F41:P41"/>
+    <mergeCell ref="Y41:AN41"/>
+    <mergeCell ref="AK43:AP43"/>
+    <mergeCell ref="AR43:BC43"/>
+    <mergeCell ref="R44:Z44"/>
+    <mergeCell ref="AH44:BC44"/>
+    <mergeCell ref="A45:AD45"/>
+    <mergeCell ref="AI45:BC45"/>
+    <mergeCell ref="A46:AA46"/>
+    <mergeCell ref="Q35:AK35"/>
+    <mergeCell ref="F36:AK36"/>
+    <mergeCell ref="F37:AK37"/>
+    <mergeCell ref="AP37:BC38"/>
+    <mergeCell ref="S38:X38"/>
+    <mergeCell ref="Y38:AN38"/>
+    <mergeCell ref="Y39:AN39"/>
+    <mergeCell ref="AP39:BC40"/>
+    <mergeCell ref="F40:P40"/>
+    <mergeCell ref="R40:X40"/>
+    <mergeCell ref="Y40:AN40"/>
   </mergeCells>
   <pageMargins left="0.35416666666666669" right="0.2361111111111111" top="0.39374999999999999" bottom="0.35416666666666669" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="96" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="PageCount">'Товарная накладная'!$C$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Товарная накладная'!$A$1:$BD$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Товарная накладная'!$A$1:$BD$55</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -914,209 +914,209 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1590,7 +1590,7 @@
   </sheetPr>
   <dimension ref="A1:BS123"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A42" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A36" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H22" sqref="H22:AV22"/>
     </sheetView>
   </sheetViews>
@@ -1985,11 +1985,11 @@
       <c r="AY5" s="8"/>
       <c r="AZ5" s="9"/>
       <c r="BA5" s="8"/>
-      <c r="BB5" s="114" t="s">
+      <c r="BB5" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="BC5" s="114"/>
-      <c r="BD5" s="114"/>
+      <c r="BC5" s="102"/>
+      <c r="BD5" s="102"/>
       <c r="BG5" s="6"/>
       <c r="BH5" s="7">
         <v>180</v>
@@ -2055,11 +2055,11 @@
       <c r="BA6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="BB6" s="115" t="s">
+      <c r="BB6" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="BC6" s="115"/>
-      <c r="BD6" s="115"/>
+      <c r="BC6" s="103"/>
+      <c r="BD6" s="103"/>
       <c r="BG6" s="6"/>
       <c r="BH6" s="7">
         <v>210</v>
@@ -2070,66 +2070,66 @@
       <c r="BR6" s="6"/>
     </row>
     <row r="7" spans="1:71" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="116"/>
-      <c r="S7" s="116"/>
-      <c r="T7" s="116"/>
-      <c r="U7" s="116"/>
-      <c r="V7" s="116"/>
-      <c r="W7" s="116"/>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="116"/>
-      <c r="Z7" s="116"/>
-      <c r="AA7" s="116"/>
-      <c r="AB7" s="116"/>
-      <c r="AC7" s="116"/>
-      <c r="AD7" s="116"/>
-      <c r="AE7" s="116"/>
-      <c r="AF7" s="116"/>
-      <c r="AG7" s="116"/>
-      <c r="AH7" s="116"/>
-      <c r="AI7" s="116"/>
-      <c r="AJ7" s="116"/>
-      <c r="AK7" s="116"/>
-      <c r="AL7" s="116"/>
-      <c r="AM7" s="116"/>
-      <c r="AN7" s="116"/>
-      <c r="AO7" s="116"/>
-      <c r="AP7" s="116"/>
-      <c r="AQ7" s="116"/>
-      <c r="AR7" s="116"/>
-      <c r="AS7" s="116"/>
-      <c r="AT7" s="116"/>
-      <c r="AU7" s="116"/>
-      <c r="AV7" s="116"/>
-      <c r="AW7" s="116"/>
-      <c r="AX7" s="116"/>
-      <c r="AY7" s="117" t="s">
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
+      <c r="S7" s="104"/>
+      <c r="T7" s="104"/>
+      <c r="U7" s="104"/>
+      <c r="V7" s="104"/>
+      <c r="W7" s="104"/>
+      <c r="X7" s="104"/>
+      <c r="Y7" s="104"/>
+      <c r="Z7" s="104"/>
+      <c r="AA7" s="104"/>
+      <c r="AB7" s="104"/>
+      <c r="AC7" s="104"/>
+      <c r="AD7" s="104"/>
+      <c r="AE7" s="104"/>
+      <c r="AF7" s="104"/>
+      <c r="AG7" s="104"/>
+      <c r="AH7" s="104"/>
+      <c r="AI7" s="104"/>
+      <c r="AJ7" s="104"/>
+      <c r="AK7" s="104"/>
+      <c r="AL7" s="104"/>
+      <c r="AM7" s="104"/>
+      <c r="AN7" s="104"/>
+      <c r="AO7" s="104"/>
+      <c r="AP7" s="104"/>
+      <c r="AQ7" s="104"/>
+      <c r="AR7" s="104"/>
+      <c r="AS7" s="104"/>
+      <c r="AT7" s="104"/>
+      <c r="AU7" s="104"/>
+      <c r="AV7" s="104"/>
+      <c r="AW7" s="104"/>
+      <c r="AX7" s="104"/>
+      <c r="AY7" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="AZ7" s="117"/>
-      <c r="BA7" s="117"/>
-      <c r="BB7" s="118"/>
-      <c r="BC7" s="118"/>
-      <c r="BD7" s="118"/>
+      <c r="AZ7" s="105"/>
+      <c r="BA7" s="105"/>
+      <c r="BB7" s="85"/>
+      <c r="BC7" s="85"/>
+      <c r="BD7" s="85"/>
       <c r="BG7" s="6"/>
       <c r="BH7" s="7">
         <v>412</v>
@@ -2140,62 +2140,62 @@
       <c r="BR7" s="6"/>
     </row>
     <row r="8" spans="1:71" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="116"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="116"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="116"/>
-      <c r="Z8" s="116"/>
-      <c r="AA8" s="116"/>
-      <c r="AB8" s="116"/>
-      <c r="AC8" s="116"/>
-      <c r="AD8" s="116"/>
-      <c r="AE8" s="116"/>
-      <c r="AF8" s="116"/>
-      <c r="AG8" s="116"/>
-      <c r="AH8" s="116"/>
-      <c r="AI8" s="116"/>
-      <c r="AJ8" s="116"/>
-      <c r="AK8" s="116"/>
-      <c r="AL8" s="116"/>
-      <c r="AM8" s="116"/>
-      <c r="AN8" s="116"/>
-      <c r="AO8" s="116"/>
-      <c r="AP8" s="116"/>
-      <c r="AQ8" s="116"/>
-      <c r="AR8" s="116"/>
-      <c r="AS8" s="116"/>
-      <c r="AT8" s="116"/>
-      <c r="AU8" s="116"/>
-      <c r="AV8" s="116"/>
-      <c r="AW8" s="116"/>
-      <c r="AX8" s="116"/>
-      <c r="AY8" s="117"/>
-      <c r="AZ8" s="117"/>
-      <c r="BA8" s="117"/>
-      <c r="BB8" s="118"/>
-      <c r="BC8" s="118"/>
-      <c r="BD8" s="118"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="104"/>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="104"/>
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="104"/>
+      <c r="AC8" s="104"/>
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="104"/>
+      <c r="AF8" s="104"/>
+      <c r="AG8" s="104"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="104"/>
+      <c r="AJ8" s="104"/>
+      <c r="AK8" s="104"/>
+      <c r="AL8" s="104"/>
+      <c r="AM8" s="104"/>
+      <c r="AN8" s="104"/>
+      <c r="AO8" s="104"/>
+      <c r="AP8" s="104"/>
+      <c r="AQ8" s="104"/>
+      <c r="AR8" s="104"/>
+      <c r="AS8" s="104"/>
+      <c r="AT8" s="104"/>
+      <c r="AU8" s="104"/>
+      <c r="AV8" s="104"/>
+      <c r="AW8" s="104"/>
+      <c r="AX8" s="104"/>
+      <c r="AY8" s="105"/>
+      <c r="AZ8" s="105"/>
+      <c r="BA8" s="105"/>
+      <c r="BB8" s="85"/>
+      <c r="BC8" s="85"/>
+      <c r="BD8" s="85"/>
       <c r="BG8" s="6"/>
       <c r="BH8" s="7">
         <v>75</v>
@@ -2206,52 +2206,52 @@
       <c r="BR8" s="6"/>
     </row>
     <row r="9" spans="1:71" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="89"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="89"/>
-      <c r="AC9" s="89"/>
-      <c r="AD9" s="89"/>
-      <c r="AE9" s="89"/>
-      <c r="AF9" s="89"/>
-      <c r="AG9" s="89"/>
-      <c r="AH9" s="89"/>
-      <c r="AI9" s="89"/>
-      <c r="AJ9" s="89"/>
-      <c r="AK9" s="89"/>
-      <c r="AL9" s="89"/>
-      <c r="AM9" s="89"/>
-      <c r="AN9" s="89"/>
-      <c r="AO9" s="89"/>
-      <c r="AP9" s="89"/>
-      <c r="AQ9" s="89"/>
-      <c r="AR9" s="89"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="106"/>
+      <c r="Y9" s="106"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="106"/>
+      <c r="AD9" s="106"/>
+      <c r="AE9" s="106"/>
+      <c r="AF9" s="106"/>
+      <c r="AG9" s="106"/>
+      <c r="AH9" s="106"/>
+      <c r="AI9" s="106"/>
+      <c r="AJ9" s="106"/>
+      <c r="AK9" s="106"/>
+      <c r="AL9" s="106"/>
+      <c r="AM9" s="106"/>
+      <c r="AN9" s="106"/>
+      <c r="AO9" s="106"/>
+      <c r="AP9" s="106"/>
+      <c r="AQ9" s="106"/>
+      <c r="AR9" s="106"/>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
@@ -2261,9 +2261,9 @@
       <c r="AY9" s="3"/>
       <c r="AZ9" s="3"/>
       <c r="BA9" s="12"/>
-      <c r="BB9" s="118"/>
-      <c r="BC9" s="118"/>
-      <c r="BD9" s="118"/>
+      <c r="BB9" s="85"/>
+      <c r="BC9" s="85"/>
+      <c r="BD9" s="85"/>
       <c r="BG9" s="6"/>
       <c r="BH9" s="7">
         <v>135</v>
@@ -2274,62 +2274,62 @@
       <c r="BR9" s="6"/>
     </row>
     <row r="10" spans="1:71" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="119"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="119"/>
-      <c r="R10" s="119"/>
-      <c r="S10" s="119"/>
-      <c r="T10" s="119"/>
-      <c r="U10" s="119"/>
-      <c r="V10" s="119"/>
-      <c r="W10" s="119"/>
-      <c r="X10" s="119"/>
-      <c r="Y10" s="119"/>
-      <c r="Z10" s="119"/>
-      <c r="AA10" s="119"/>
-      <c r="AB10" s="119"/>
-      <c r="AC10" s="119"/>
-      <c r="AD10" s="119"/>
-      <c r="AE10" s="119"/>
-      <c r="AF10" s="119"/>
-      <c r="AG10" s="119"/>
-      <c r="AH10" s="119"/>
-      <c r="AI10" s="119"/>
-      <c r="AJ10" s="119"/>
-      <c r="AK10" s="119"/>
-      <c r="AL10" s="119"/>
-      <c r="AM10" s="119"/>
-      <c r="AN10" s="119"/>
-      <c r="AO10" s="119"/>
-      <c r="AP10" s="119"/>
-      <c r="AQ10" s="119"/>
-      <c r="AR10" s="119"/>
-      <c r="AS10" s="119"/>
-      <c r="AT10" s="119"/>
-      <c r="AU10" s="119"/>
-      <c r="AV10" s="119"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="107"/>
+      <c r="AB10" s="107"/>
+      <c r="AC10" s="107"/>
+      <c r="AD10" s="107"/>
+      <c r="AE10" s="107"/>
+      <c r="AF10" s="107"/>
+      <c r="AG10" s="107"/>
+      <c r="AH10" s="107"/>
+      <c r="AI10" s="107"/>
+      <c r="AJ10" s="107"/>
+      <c r="AK10" s="107"/>
+      <c r="AL10" s="107"/>
+      <c r="AM10" s="107"/>
+      <c r="AN10" s="107"/>
+      <c r="AO10" s="107"/>
+      <c r="AP10" s="107"/>
+      <c r="AQ10" s="107"/>
+      <c r="AR10" s="107"/>
+      <c r="AS10" s="107"/>
+      <c r="AT10" s="107"/>
+      <c r="AU10" s="107"/>
+      <c r="AV10" s="107"/>
       <c r="AW10" s="13"/>
       <c r="AX10" s="13"/>
       <c r="AY10" s="14"/>
       <c r="AZ10" s="3"/>
       <c r="BA10" s="12"/>
-      <c r="BB10" s="118"/>
-      <c r="BC10" s="118"/>
-      <c r="BD10" s="118"/>
+      <c r="BB10" s="85"/>
+      <c r="BC10" s="85"/>
+      <c r="BD10" s="85"/>
       <c r="BG10" s="6"/>
       <c r="BH10" s="7">
         <v>162</v>
@@ -2340,52 +2340,52 @@
       <c r="BR10" s="6"/>
     </row>
     <row r="11" spans="1:71" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="89"/>
-      <c r="S11" s="89"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="89"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="89"/>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="89"/>
-      <c r="AE11" s="89"/>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="89"/>
-      <c r="AH11" s="89"/>
-      <c r="AI11" s="89"/>
-      <c r="AJ11" s="89"/>
-      <c r="AK11" s="89"/>
-      <c r="AL11" s="89"/>
-      <c r="AM11" s="89"/>
-      <c r="AN11" s="89"/>
-      <c r="AO11" s="89"/>
-      <c r="AP11" s="89"/>
-      <c r="AQ11" s="89"/>
-      <c r="AR11" s="89"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="106"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="106"/>
+      <c r="AD11" s="106"/>
+      <c r="AE11" s="106"/>
+      <c r="AF11" s="106"/>
+      <c r="AG11" s="106"/>
+      <c r="AH11" s="106"/>
+      <c r="AI11" s="106"/>
+      <c r="AJ11" s="106"/>
+      <c r="AK11" s="106"/>
+      <c r="AL11" s="106"/>
+      <c r="AM11" s="106"/>
+      <c r="AN11" s="106"/>
+      <c r="AO11" s="106"/>
+      <c r="AP11" s="106"/>
+      <c r="AQ11" s="106"/>
+      <c r="AR11" s="106"/>
       <c r="AS11" s="15"/>
       <c r="AT11" s="15"/>
       <c r="AU11" s="15"/>
@@ -2395,9 +2395,9 @@
       <c r="AY11" s="3"/>
       <c r="AZ11" s="3"/>
       <c r="BA11" s="12"/>
-      <c r="BB11" s="118"/>
-      <c r="BC11" s="118"/>
-      <c r="BD11" s="118"/>
+      <c r="BB11" s="85"/>
+      <c r="BC11" s="85"/>
+      <c r="BD11" s="85"/>
       <c r="BG11" s="6"/>
       <c r="BH11" s="7">
         <v>150</v>
@@ -2408,41 +2408,41 @@
       <c r="BR11" s="6"/>
     </row>
     <row r="12" spans="1:71" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="120"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="120"/>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="120"/>
-      <c r="S12" s="120"/>
-      <c r="T12" s="120"/>
-      <c r="U12" s="120"/>
-      <c r="V12" s="120"/>
-      <c r="W12" s="120"/>
-      <c r="X12" s="120"/>
-      <c r="Y12" s="120"/>
-      <c r="Z12" s="120"/>
-      <c r="AA12" s="120"/>
-      <c r="AB12" s="120"/>
-      <c r="AC12" s="120"/>
-      <c r="AD12" s="120"/>
-      <c r="AE12" s="120"/>
-      <c r="AF12" s="120"/>
-      <c r="AG12" s="120"/>
-      <c r="AH12" s="120"/>
-      <c r="AI12" s="120"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="108"/>
+      <c r="R12" s="108"/>
+      <c r="S12" s="108"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="108"/>
+      <c r="X12" s="108"/>
+      <c r="Y12" s="108"/>
+      <c r="Z12" s="108"/>
+      <c r="AA12" s="108"/>
+      <c r="AB12" s="108"/>
+      <c r="AC12" s="108"/>
+      <c r="AD12" s="108"/>
+      <c r="AE12" s="108"/>
+      <c r="AF12" s="108"/>
+      <c r="AG12" s="108"/>
+      <c r="AH12" s="108"/>
+      <c r="AI12" s="108"/>
       <c r="AJ12" s="17"/>
       <c r="AK12" s="17"/>
       <c r="AL12" s="17"/>
@@ -2463,9 +2463,9 @@
       <c r="BA12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="BB12" s="118"/>
-      <c r="BC12" s="118"/>
-      <c r="BD12" s="118"/>
+      <c r="BB12" s="85"/>
+      <c r="BC12" s="85"/>
+      <c r="BD12" s="85"/>
       <c r="BG12" s="6"/>
       <c r="BH12" s="7">
         <v>195</v>
@@ -2476,58 +2476,58 @@
       <c r="BR12" s="6"/>
     </row>
     <row r="13" spans="1:71" s="23" customFormat="1" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122" t="s">
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="122"/>
-      <c r="T13" s="122"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="122"/>
-      <c r="Y13" s="122"/>
-      <c r="Z13" s="122"/>
-      <c r="AA13" s="122"/>
-      <c r="AB13" s="122"/>
-      <c r="AC13" s="122"/>
-      <c r="AD13" s="122"/>
-      <c r="AE13" s="122"/>
-      <c r="AF13" s="122"/>
-      <c r="AG13" s="122"/>
-      <c r="AH13" s="122"/>
-      <c r="AI13" s="122"/>
-      <c r="AJ13" s="122"/>
-      <c r="AK13" s="122"/>
-      <c r="AL13" s="122"/>
-      <c r="AM13" s="122"/>
-      <c r="AN13" s="122"/>
-      <c r="AO13" s="122"/>
-      <c r="AP13" s="122"/>
-      <c r="AQ13" s="122"/>
-      <c r="AR13" s="122"/>
-      <c r="AS13" s="122"/>
-      <c r="AT13" s="122"/>
-      <c r="AU13" s="122"/>
-      <c r="AV13" s="122"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="109"/>
+      <c r="U13" s="109"/>
+      <c r="V13" s="109"/>
+      <c r="W13" s="109"/>
+      <c r="X13" s="109"/>
+      <c r="Y13" s="109"/>
+      <c r="Z13" s="109"/>
+      <c r="AA13" s="109"/>
+      <c r="AB13" s="109"/>
+      <c r="AC13" s="109"/>
+      <c r="AD13" s="109"/>
+      <c r="AE13" s="109"/>
+      <c r="AF13" s="109"/>
+      <c r="AG13" s="109"/>
+      <c r="AH13" s="109"/>
+      <c r="AI13" s="109"/>
+      <c r="AJ13" s="109"/>
+      <c r="AK13" s="109"/>
+      <c r="AL13" s="109"/>
+      <c r="AM13" s="109"/>
+      <c r="AN13" s="109"/>
+      <c r="AO13" s="109"/>
+      <c r="AP13" s="109"/>
+      <c r="AQ13" s="109"/>
+      <c r="AR13" s="109"/>
+      <c r="AS13" s="109"/>
+      <c r="AT13" s="109"/>
+      <c r="AU13" s="109"/>
+      <c r="AV13" s="109"/>
       <c r="AW13" s="19"/>
       <c r="AX13" s="20"/>
       <c r="AY13" s="21"/>
@@ -2535,9 +2535,9 @@
       <c r="BA13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BB13" s="123"/>
-      <c r="BC13" s="123"/>
-      <c r="BD13" s="123"/>
+      <c r="BB13" s="110"/>
+      <c r="BC13" s="110"/>
+      <c r="BD13" s="110"/>
       <c r="BE13" s="1"/>
       <c r="BG13" s="6"/>
       <c r="BH13" s="7">
@@ -2623,45 +2623,45 @@
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="124" t="s">
+      <c r="H15" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="124"/>
-      <c r="O15" s="124"/>
-      <c r="P15" s="124"/>
-      <c r="Q15" s="124"/>
-      <c r="R15" s="124"/>
-      <c r="S15" s="124"/>
-      <c r="T15" s="124"/>
-      <c r="U15" s="124"/>
-      <c r="V15" s="124"/>
-      <c r="W15" s="124"/>
-      <c r="X15" s="124"/>
-      <c r="Y15" s="124"/>
-      <c r="Z15" s="124"/>
-      <c r="AA15" s="124"/>
-      <c r="AB15" s="124"/>
-      <c r="AC15" s="124"/>
-      <c r="AD15" s="124"/>
-      <c r="AE15" s="124"/>
-      <c r="AF15" s="124"/>
-      <c r="AG15" s="124"/>
-      <c r="AH15" s="124"/>
-      <c r="AI15" s="124"/>
-      <c r="AJ15" s="124"/>
-      <c r="AK15" s="124"/>
-      <c r="AL15" s="124"/>
-      <c r="AM15" s="124"/>
-      <c r="AN15" s="124"/>
-      <c r="AO15" s="124"/>
-      <c r="AP15" s="124"/>
-      <c r="AQ15" s="124"/>
-      <c r="AR15" s="124"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="80"/>
+      <c r="AA15" s="80"/>
+      <c r="AB15" s="80"/>
+      <c r="AC15" s="80"/>
+      <c r="AD15" s="80"/>
+      <c r="AE15" s="80"/>
+      <c r="AF15" s="80"/>
+      <c r="AG15" s="80"/>
+      <c r="AH15" s="80"/>
+      <c r="AI15" s="80"/>
+      <c r="AJ15" s="80"/>
+      <c r="AK15" s="80"/>
+      <c r="AL15" s="80"/>
+      <c r="AM15" s="80"/>
+      <c r="AN15" s="80"/>
+      <c r="AO15" s="80"/>
+      <c r="AP15" s="80"/>
+      <c r="AQ15" s="80"/>
+      <c r="AR15" s="80"/>
       <c r="AS15" s="17"/>
       <c r="AT15" s="17"/>
       <c r="AU15" s="17"/>
@@ -2671,9 +2671,9 @@
       <c r="AY15" s="3"/>
       <c r="AZ15" s="3"/>
       <c r="BA15" s="20"/>
-      <c r="BB15" s="125"/>
-      <c r="BC15" s="125"/>
-      <c r="BD15" s="125"/>
+      <c r="BB15" s="84"/>
+      <c r="BC15" s="84"/>
+      <c r="BD15" s="84"/>
       <c r="BE15" s="1" t="s">
         <v>11</v>
       </c>
@@ -2687,58 +2687,58 @@
       <c r="BR15" s="6"/>
     </row>
     <row r="16" spans="1:71" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="121" t="s">
+      <c r="A16" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="126" t="s">
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="126"/>
-      <c r="N16" s="126"/>
-      <c r="O16" s="126"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="126"/>
-      <c r="S16" s="126"/>
-      <c r="T16" s="126"/>
-      <c r="U16" s="126"/>
-      <c r="V16" s="126"/>
-      <c r="W16" s="126"/>
-      <c r="X16" s="126"/>
-      <c r="Y16" s="126"/>
-      <c r="Z16" s="126"/>
-      <c r="AA16" s="126"/>
-      <c r="AB16" s="126"/>
-      <c r="AC16" s="126"/>
-      <c r="AD16" s="126"/>
-      <c r="AE16" s="126"/>
-      <c r="AF16" s="126"/>
-      <c r="AG16" s="126"/>
-      <c r="AH16" s="126"/>
-      <c r="AI16" s="126"/>
-      <c r="AJ16" s="126"/>
-      <c r="AK16" s="126"/>
-      <c r="AL16" s="126"/>
-      <c r="AM16" s="126"/>
-      <c r="AN16" s="126"/>
-      <c r="AO16" s="126"/>
-      <c r="AP16" s="126"/>
-      <c r="AQ16" s="126"/>
-      <c r="AR16" s="126"/>
-      <c r="AS16" s="126"/>
-      <c r="AT16" s="126"/>
-      <c r="AU16" s="126"/>
-      <c r="AV16" s="126"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="92"/>
+      <c r="AD16" s="92"/>
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="92"/>
+      <c r="AJ16" s="92"/>
+      <c r="AK16" s="92"/>
+      <c r="AL16" s="92"/>
+      <c r="AM16" s="92"/>
+      <c r="AN16" s="92"/>
+      <c r="AO16" s="92"/>
+      <c r="AP16" s="92"/>
+      <c r="AQ16" s="92"/>
+      <c r="AR16" s="92"/>
+      <c r="AS16" s="92"/>
+      <c r="AT16" s="92"/>
+      <c r="AU16" s="92"/>
+      <c r="AV16" s="92"/>
       <c r="AW16" s="20"/>
       <c r="AX16" s="20"/>
       <c r="AY16" s="3"/>
@@ -2746,9 +2746,9 @@
       <c r="BA16" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BB16" s="125"/>
-      <c r="BC16" s="125"/>
-      <c r="BD16" s="125"/>
+      <c r="BB16" s="84"/>
+      <c r="BC16" s="84"/>
+      <c r="BD16" s="84"/>
       <c r="BG16" s="6"/>
       <c r="BH16" s="7">
         <v>412</v>
@@ -2830,45 +2830,45 @@
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="124" t="s">
+      <c r="H18" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="124"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="124"/>
-      <c r="P18" s="124"/>
-      <c r="Q18" s="124"/>
-      <c r="R18" s="124"/>
-      <c r="S18" s="124"/>
-      <c r="T18" s="124"/>
-      <c r="U18" s="124"/>
-      <c r="V18" s="124"/>
-      <c r="W18" s="124"/>
-      <c r="X18" s="124"/>
-      <c r="Y18" s="124"/>
-      <c r="Z18" s="124"/>
-      <c r="AA18" s="124"/>
-      <c r="AB18" s="124"/>
-      <c r="AC18" s="124"/>
-      <c r="AD18" s="124"/>
-      <c r="AE18" s="124"/>
-      <c r="AF18" s="124"/>
-      <c r="AG18" s="124"/>
-      <c r="AH18" s="124"/>
-      <c r="AI18" s="124"/>
-      <c r="AJ18" s="124"/>
-      <c r="AK18" s="124"/>
-      <c r="AL18" s="124"/>
-      <c r="AM18" s="124"/>
-      <c r="AN18" s="124"/>
-      <c r="AO18" s="124"/>
-      <c r="AP18" s="124"/>
-      <c r="AQ18" s="124"/>
-      <c r="AR18" s="124"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="80"/>
+      <c r="AA18" s="80"/>
+      <c r="AB18" s="80"/>
+      <c r="AC18" s="80"/>
+      <c r="AD18" s="80"/>
+      <c r="AE18" s="80"/>
+      <c r="AF18" s="80"/>
+      <c r="AG18" s="80"/>
+      <c r="AH18" s="80"/>
+      <c r="AI18" s="80"/>
+      <c r="AJ18" s="80"/>
+      <c r="AK18" s="80"/>
+      <c r="AL18" s="80"/>
+      <c r="AM18" s="80"/>
+      <c r="AN18" s="80"/>
+      <c r="AO18" s="80"/>
+      <c r="AP18" s="80"/>
+      <c r="AQ18" s="80"/>
+      <c r="AR18" s="80"/>
       <c r="AS18" s="17"/>
       <c r="AT18" s="17"/>
       <c r="AU18" s="17"/>
@@ -2878,9 +2878,9 @@
       <c r="AY18" s="3"/>
       <c r="AZ18" s="3"/>
       <c r="BA18" s="20"/>
-      <c r="BB18" s="125"/>
-      <c r="BC18" s="125"/>
-      <c r="BD18" s="125"/>
+      <c r="BB18" s="84"/>
+      <c r="BC18" s="84"/>
+      <c r="BD18" s="84"/>
       <c r="BG18" s="6"/>
       <c r="BH18" s="7">
         <v>150</v>
@@ -2891,58 +2891,58 @@
       <c r="BR18" s="6"/>
     </row>
     <row r="19" spans="1:71" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="121" t="s">
+      <c r="A19" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="121"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="126" t="s">
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="126"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="126"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="126"/>
-      <c r="S19" s="126"/>
-      <c r="T19" s="126"/>
-      <c r="U19" s="126"/>
-      <c r="V19" s="126"/>
-      <c r="W19" s="126"/>
-      <c r="X19" s="126"/>
-      <c r="Y19" s="126"/>
-      <c r="Z19" s="126"/>
-      <c r="AA19" s="126"/>
-      <c r="AB19" s="126"/>
-      <c r="AC19" s="126"/>
-      <c r="AD19" s="126"/>
-      <c r="AE19" s="126"/>
-      <c r="AF19" s="126"/>
-      <c r="AG19" s="126"/>
-      <c r="AH19" s="126"/>
-      <c r="AI19" s="126"/>
-      <c r="AJ19" s="126"/>
-      <c r="AK19" s="126"/>
-      <c r="AL19" s="126"/>
-      <c r="AM19" s="126"/>
-      <c r="AN19" s="126"/>
-      <c r="AO19" s="126"/>
-      <c r="AP19" s="126"/>
-      <c r="AQ19" s="126"/>
-      <c r="AR19" s="126"/>
-      <c r="AS19" s="126"/>
-      <c r="AT19" s="126"/>
-      <c r="AU19" s="126"/>
-      <c r="AV19" s="126"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="92"/>
+      <c r="W19" s="92"/>
+      <c r="X19" s="92"/>
+      <c r="Y19" s="92"/>
+      <c r="Z19" s="92"/>
+      <c r="AA19" s="92"/>
+      <c r="AB19" s="92"/>
+      <c r="AC19" s="92"/>
+      <c r="AD19" s="92"/>
+      <c r="AE19" s="92"/>
+      <c r="AF19" s="92"/>
+      <c r="AG19" s="92"/>
+      <c r="AH19" s="92"/>
+      <c r="AI19" s="92"/>
+      <c r="AJ19" s="92"/>
+      <c r="AK19" s="92"/>
+      <c r="AL19" s="92"/>
+      <c r="AM19" s="92"/>
+      <c r="AN19" s="92"/>
+      <c r="AO19" s="92"/>
+      <c r="AP19" s="92"/>
+      <c r="AQ19" s="92"/>
+      <c r="AR19" s="92"/>
+      <c r="AS19" s="92"/>
+      <c r="AT19" s="92"/>
+      <c r="AU19" s="92"/>
+      <c r="AV19" s="92"/>
       <c r="AW19" s="20"/>
       <c r="AX19" s="20"/>
       <c r="AY19" s="3"/>
@@ -2950,9 +2950,9 @@
       <c r="BA19" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BB19" s="125"/>
-      <c r="BC19" s="125"/>
-      <c r="BD19" s="125"/>
+      <c r="BB19" s="84"/>
+      <c r="BC19" s="84"/>
+      <c r="BD19" s="84"/>
       <c r="BG19" s="6"/>
       <c r="BH19" s="7">
         <v>412</v>
@@ -3034,45 +3034,45 @@
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="124" t="s">
+      <c r="H21" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="124"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="124"/>
-      <c r="N21" s="124"/>
-      <c r="O21" s="124"/>
-      <c r="P21" s="124"/>
-      <c r="Q21" s="124"/>
-      <c r="R21" s="124"/>
-      <c r="S21" s="124"/>
-      <c r="T21" s="124"/>
-      <c r="U21" s="124"/>
-      <c r="V21" s="124"/>
-      <c r="W21" s="124"/>
-      <c r="X21" s="124"/>
-      <c r="Y21" s="124"/>
-      <c r="Z21" s="124"/>
-      <c r="AA21" s="124"/>
-      <c r="AB21" s="124"/>
-      <c r="AC21" s="124"/>
-      <c r="AD21" s="124"/>
-      <c r="AE21" s="124"/>
-      <c r="AF21" s="124"/>
-      <c r="AG21" s="124"/>
-      <c r="AH21" s="124"/>
-      <c r="AI21" s="124"/>
-      <c r="AJ21" s="124"/>
-      <c r="AK21" s="124"/>
-      <c r="AL21" s="124"/>
-      <c r="AM21" s="124"/>
-      <c r="AN21" s="124"/>
-      <c r="AO21" s="124"/>
-      <c r="AP21" s="124"/>
-      <c r="AQ21" s="124"/>
-      <c r="AR21" s="124"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="80"/>
+      <c r="AB21" s="80"/>
+      <c r="AC21" s="80"/>
+      <c r="AD21" s="80"/>
+      <c r="AE21" s="80"/>
+      <c r="AF21" s="80"/>
+      <c r="AG21" s="80"/>
+      <c r="AH21" s="80"/>
+      <c r="AI21" s="80"/>
+      <c r="AJ21" s="80"/>
+      <c r="AK21" s="80"/>
+      <c r="AL21" s="80"/>
+      <c r="AM21" s="80"/>
+      <c r="AN21" s="80"/>
+      <c r="AO21" s="80"/>
+      <c r="AP21" s="80"/>
+      <c r="AQ21" s="80"/>
+      <c r="AR21" s="80"/>
       <c r="AS21" s="3"/>
       <c r="AT21" s="34"/>
       <c r="AU21" s="3"/>
@@ -3080,13 +3080,13 @@
       <c r="AW21" s="34"/>
       <c r="AX21" s="3"/>
       <c r="AY21" s="3"/>
-      <c r="AZ21" s="127" t="s">
+      <c r="AZ21" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="BA21" s="127"/>
-      <c r="BB21" s="118"/>
-      <c r="BC21" s="118"/>
-      <c r="BD21" s="118"/>
+      <c r="BA21" s="81"/>
+      <c r="BB21" s="85"/>
+      <c r="BC21" s="85"/>
+      <c r="BD21" s="85"/>
       <c r="BG21" s="6"/>
       <c r="BH21" s="7">
         <v>150</v>
@@ -3097,66 +3097,66 @@
       <c r="BR21" s="6"/>
     </row>
     <row r="22" spans="1:71" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="121" t="s">
+      <c r="A22" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="128" t="s">
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="128"/>
-      <c r="O22" s="128"/>
-      <c r="P22" s="128"/>
-      <c r="Q22" s="128"/>
-      <c r="R22" s="128"/>
-      <c r="S22" s="128"/>
-      <c r="T22" s="128"/>
-      <c r="U22" s="128"/>
-      <c r="V22" s="128"/>
-      <c r="W22" s="128"/>
-      <c r="X22" s="128"/>
-      <c r="Y22" s="128"/>
-      <c r="Z22" s="128"/>
-      <c r="AA22" s="128"/>
-      <c r="AB22" s="128"/>
-      <c r="AC22" s="128"/>
-      <c r="AD22" s="128"/>
-      <c r="AE22" s="128"/>
-      <c r="AF22" s="128"/>
-      <c r="AG22" s="128"/>
-      <c r="AH22" s="128"/>
-      <c r="AI22" s="128"/>
-      <c r="AJ22" s="128"/>
-      <c r="AK22" s="128"/>
-      <c r="AL22" s="128"/>
-      <c r="AM22" s="128"/>
-      <c r="AN22" s="128"/>
-      <c r="AO22" s="128"/>
-      <c r="AP22" s="128"/>
-      <c r="AQ22" s="128"/>
-      <c r="AR22" s="128"/>
-      <c r="AS22" s="128"/>
-      <c r="AT22" s="128"/>
-      <c r="AU22" s="128"/>
-      <c r="AV22" s="128"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="93"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="93"/>
+      <c r="AB22" s="93"/>
+      <c r="AC22" s="93"/>
+      <c r="AD22" s="93"/>
+      <c r="AE22" s="93"/>
+      <c r="AF22" s="93"/>
+      <c r="AG22" s="93"/>
+      <c r="AH22" s="93"/>
+      <c r="AI22" s="93"/>
+      <c r="AJ22" s="93"/>
+      <c r="AK22" s="93"/>
+      <c r="AL22" s="93"/>
+      <c r="AM22" s="93"/>
+      <c r="AN22" s="93"/>
+      <c r="AO22" s="93"/>
+      <c r="AP22" s="93"/>
+      <c r="AQ22" s="93"/>
+      <c r="AR22" s="93"/>
+      <c r="AS22" s="93"/>
+      <c r="AT22" s="93"/>
+      <c r="AU22" s="93"/>
+      <c r="AV22" s="93"/>
       <c r="AW22" s="12"/>
       <c r="AX22" s="3"/>
       <c r="AY22" s="34"/>
-      <c r="AZ22" s="127"/>
-      <c r="BA22" s="127"/>
-      <c r="BB22" s="118"/>
-      <c r="BC22" s="118"/>
-      <c r="BD22" s="118"/>
+      <c r="AZ22" s="81"/>
+      <c r="BA22" s="81"/>
+      <c r="BB22" s="85"/>
+      <c r="BC22" s="85"/>
+      <c r="BD22" s="85"/>
       <c r="BG22" s="6"/>
       <c r="BH22" s="7">
         <v>195</v>
@@ -3174,45 +3174,45 @@
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="124" t="s">
+      <c r="H23" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="124"/>
-      <c r="M23" s="124"/>
-      <c r="N23" s="124"/>
-      <c r="O23" s="124"/>
-      <c r="P23" s="124"/>
-      <c r="Q23" s="124"/>
-      <c r="R23" s="124"/>
-      <c r="S23" s="124"/>
-      <c r="T23" s="124"/>
-      <c r="U23" s="124"/>
-      <c r="V23" s="124"/>
-      <c r="W23" s="124"/>
-      <c r="X23" s="124"/>
-      <c r="Y23" s="124"/>
-      <c r="Z23" s="124"/>
-      <c r="AA23" s="124"/>
-      <c r="AB23" s="124"/>
-      <c r="AC23" s="124"/>
-      <c r="AD23" s="124"/>
-      <c r="AE23" s="124"/>
-      <c r="AF23" s="124"/>
-      <c r="AG23" s="124"/>
-      <c r="AH23" s="124"/>
-      <c r="AI23" s="124"/>
-      <c r="AJ23" s="124"/>
-      <c r="AK23" s="124"/>
-      <c r="AL23" s="124"/>
-      <c r="AM23" s="124"/>
-      <c r="AN23" s="124"/>
-      <c r="AO23" s="124"/>
-      <c r="AP23" s="124"/>
-      <c r="AQ23" s="124"/>
-      <c r="AR23" s="124"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="80"/>
+      <c r="Y23" s="80"/>
+      <c r="Z23" s="80"/>
+      <c r="AA23" s="80"/>
+      <c r="AB23" s="80"/>
+      <c r="AC23" s="80"/>
+      <c r="AD23" s="80"/>
+      <c r="AE23" s="80"/>
+      <c r="AF23" s="80"/>
+      <c r="AG23" s="80"/>
+      <c r="AH23" s="80"/>
+      <c r="AI23" s="80"/>
+      <c r="AJ23" s="80"/>
+      <c r="AK23" s="80"/>
+      <c r="AL23" s="80"/>
+      <c r="AM23" s="80"/>
+      <c r="AN23" s="80"/>
+      <c r="AO23" s="80"/>
+      <c r="AP23" s="80"/>
+      <c r="AQ23" s="80"/>
+      <c r="AR23" s="80"/>
       <c r="AS23" s="3"/>
       <c r="AT23" s="34"/>
       <c r="AU23" s="3"/>
@@ -3220,13 +3220,13 @@
       <c r="AW23" s="34"/>
       <c r="AX23" s="3"/>
       <c r="AY23" s="3"/>
-      <c r="AZ23" s="127" t="s">
+      <c r="AZ23" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="BA23" s="127"/>
-      <c r="BB23" s="129"/>
-      <c r="BC23" s="129"/>
-      <c r="BD23" s="129"/>
+      <c r="BA23" s="81"/>
+      <c r="BB23" s="82"/>
+      <c r="BC23" s="82"/>
+      <c r="BD23" s="82"/>
       <c r="BG23" s="6"/>
       <c r="BH23" s="7">
         <v>195</v>
@@ -3280,23 +3280,23 @@
       <c r="AO24" s="15"/>
       <c r="AP24" s="15"/>
       <c r="AQ24" s="15"/>
-      <c r="AR24" s="131" t="s">
+      <c r="AR24" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="AS24" s="131"/>
-      <c r="AT24" s="131"/>
-      <c r="AU24" s="131"/>
-      <c r="AV24" s="131"/>
-      <c r="AW24" s="131"/>
-      <c r="AX24" s="131"/>
+      <c r="AS24" s="83"/>
+      <c r="AT24" s="83"/>
+      <c r="AU24" s="83"/>
+      <c r="AV24" s="83"/>
+      <c r="AW24" s="83"/>
+      <c r="AX24" s="83"/>
       <c r="AY24" s="3"/>
-      <c r="AZ24" s="127" t="s">
+      <c r="AZ24" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="BA24" s="127"/>
-      <c r="BB24" s="125"/>
-      <c r="BC24" s="125"/>
-      <c r="BD24" s="125"/>
+      <c r="BA24" s="81"/>
+      <c r="BB24" s="84"/>
+      <c r="BC24" s="84"/>
+      <c r="BD24" s="84"/>
       <c r="BG24" s="6"/>
       <c r="BH24" s="7">
         <v>195</v>
@@ -3358,13 +3358,13 @@
       <c r="AW25" s="34"/>
       <c r="AX25" s="3"/>
       <c r="AY25" s="3"/>
-      <c r="AZ25" s="127" t="s">
+      <c r="AZ25" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="BA25" s="127"/>
-      <c r="BB25" s="118"/>
-      <c r="BC25" s="118"/>
-      <c r="BD25" s="118"/>
+      <c r="BA25" s="81"/>
+      <c r="BB25" s="85"/>
+      <c r="BC25" s="85"/>
+      <c r="BD25" s="85"/>
       <c r="BG25" s="6"/>
       <c r="BH25" s="7">
         <v>195</v>
@@ -3397,21 +3397,21 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="132" t="s">
+      <c r="W26" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="X26" s="132"/>
-      <c r="Y26" s="132"/>
-      <c r="Z26" s="132"/>
-      <c r="AA26" s="132"/>
-      <c r="AB26" s="132"/>
-      <c r="AC26" s="132" t="s">
+      <c r="X26" s="86"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="86"/>
+      <c r="AA26" s="86"/>
+      <c r="AB26" s="86"/>
+      <c r="AC26" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="AD26" s="132"/>
-      <c r="AE26" s="132"/>
-      <c r="AF26" s="132"/>
-      <c r="AG26" s="132"/>
+      <c r="AD26" s="86"/>
+      <c r="AE26" s="86"/>
+      <c r="AF26" s="86"/>
+      <c r="AG26" s="86"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
@@ -3434,9 +3434,9 @@
       <c r="BA26" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="BB26" s="133"/>
-      <c r="BC26" s="133"/>
-      <c r="BD26" s="133"/>
+      <c r="BB26" s="87"/>
+      <c r="BC26" s="87"/>
+      <c r="BD26" s="87"/>
       <c r="BG26" s="6"/>
       <c r="BH26" s="7">
         <v>195</v>
@@ -3458,34 +3458,34 @@
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
       <c r="K27" s="39"/>
-      <c r="L27" s="134" t="s">
+      <c r="L27" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="134"/>
-      <c r="N27" s="134"/>
-      <c r="O27" s="134"/>
-      <c r="P27" s="134"/>
-      <c r="Q27" s="134"/>
-      <c r="R27" s="134"/>
-      <c r="S27" s="134"/>
-      <c r="T27" s="134"/>
-      <c r="U27" s="134"/>
-      <c r="V27" s="134"/>
-      <c r="W27" s="135" t="s">
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="88"/>
+      <c r="W27" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="X27" s="135"/>
-      <c r="Y27" s="135"/>
-      <c r="Z27" s="135"/>
-      <c r="AA27" s="135"/>
-      <c r="AB27" s="135"/>
-      <c r="AC27" s="136" t="s">
+      <c r="X27" s="89"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="89"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="89"/>
+      <c r="AC27" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="AD27" s="136"/>
-      <c r="AE27" s="136"/>
-      <c r="AF27" s="136"/>
-      <c r="AG27" s="136"/>
+      <c r="AD27" s="90"/>
+      <c r="AE27" s="90"/>
+      <c r="AF27" s="90"/>
+      <c r="AG27" s="90"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
@@ -3587,84 +3587,84 @@
       <c r="BR28" s="6"/>
     </row>
     <row r="29" spans="1:71" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="130" t="s">
+      <c r="A29" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="137" t="s">
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="137"/>
-      <c r="L29" s="137"/>
-      <c r="M29" s="137"/>
-      <c r="N29" s="137"/>
-      <c r="O29" s="137"/>
-      <c r="P29" s="137"/>
-      <c r="Q29" s="137"/>
-      <c r="R29" s="137"/>
-      <c r="S29" s="137"/>
-      <c r="T29" s="138" t="s">
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="U29" s="138"/>
-      <c r="V29" s="138"/>
-      <c r="W29" s="138"/>
-      <c r="X29" s="138"/>
-      <c r="Y29" s="138"/>
-      <c r="Z29" s="130" t="s">
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="AA29" s="130"/>
-      <c r="AB29" s="130"/>
-      <c r="AC29" s="137" t="s">
+      <c r="AA29" s="77"/>
+      <c r="AB29" s="77"/>
+      <c r="AC29" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="AD29" s="137"/>
-      <c r="AE29" s="137"/>
-      <c r="AF29" s="137"/>
-      <c r="AG29" s="137"/>
-      <c r="AH29" s="130" t="s">
+      <c r="AD29" s="78"/>
+      <c r="AE29" s="78"/>
+      <c r="AF29" s="78"/>
+      <c r="AG29" s="78"/>
+      <c r="AH29" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="AI29" s="130"/>
-      <c r="AJ29" s="130"/>
-      <c r="AK29" s="130" t="s">
+      <c r="AI29" s="77"/>
+      <c r="AJ29" s="77"/>
+      <c r="AK29" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="AL29" s="130"/>
-      <c r="AM29" s="130"/>
-      <c r="AN29" s="130" t="s">
+      <c r="AL29" s="77"/>
+      <c r="AM29" s="77"/>
+      <c r="AN29" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AO29" s="130"/>
-      <c r="AP29" s="130"/>
-      <c r="AQ29" s="130" t="s">
+      <c r="AO29" s="77"/>
+      <c r="AP29" s="77"/>
+      <c r="AQ29" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="AR29" s="130"/>
-      <c r="AS29" s="130"/>
-      <c r="AT29" s="130" t="s">
+      <c r="AR29" s="77"/>
+      <c r="AS29" s="77"/>
+      <c r="AT29" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="AU29" s="130"/>
-      <c r="AV29" s="130"/>
-      <c r="AW29" s="130"/>
-      <c r="AX29" s="130"/>
-      <c r="AY29" s="130"/>
-      <c r="AZ29" s="130"/>
-      <c r="BA29" s="130" t="s">
+      <c r="AU29" s="77"/>
+      <c r="AV29" s="77"/>
+      <c r="AW29" s="77"/>
+      <c r="AX29" s="77"/>
+      <c r="AY29" s="77"/>
+      <c r="AZ29" s="77"/>
+      <c r="BA29" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="BB29" s="130"/>
-      <c r="BC29" s="130"/>
-      <c r="BD29" s="130"/>
+      <c r="BB29" s="77"/>
+      <c r="BC29" s="77"/>
+      <c r="BD29" s="77"/>
       <c r="BG29" s="6"/>
       <c r="BH29" s="7">
         <v>195</v>
@@ -3675,78 +3675,78 @@
       <c r="BR29" s="6"/>
     </row>
     <row r="30" spans="1:71" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="130"/>
-      <c r="B30" s="130"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130" t="s">
+      <c r="A30" s="77"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="130"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="130"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="130"/>
-      <c r="O30" s="130"/>
-      <c r="P30" s="130"/>
-      <c r="Q30" s="130" t="s">
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="R30" s="130"/>
-      <c r="S30" s="130"/>
-      <c r="T30" s="130" t="s">
+      <c r="R30" s="77"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="U30" s="130"/>
-      <c r="V30" s="130"/>
-      <c r="W30" s="130" t="s">
+      <c r="U30" s="77"/>
+      <c r="V30" s="77"/>
+      <c r="W30" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="X30" s="130"/>
-      <c r="Y30" s="130"/>
-      <c r="Z30" s="130"/>
-      <c r="AA30" s="130"/>
-      <c r="AB30" s="130"/>
-      <c r="AC30" s="130" t="s">
+      <c r="X30" s="77"/>
+      <c r="Y30" s="77"/>
+      <c r="Z30" s="77"/>
+      <c r="AA30" s="77"/>
+      <c r="AB30" s="77"/>
+      <c r="AC30" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="AD30" s="130"/>
-      <c r="AE30" s="130"/>
-      <c r="AF30" s="130" t="s">
+      <c r="AD30" s="77"/>
+      <c r="AE30" s="77"/>
+      <c r="AF30" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="AG30" s="130"/>
-      <c r="AH30" s="130"/>
-      <c r="AI30" s="130"/>
-      <c r="AJ30" s="130"/>
-      <c r="AK30" s="130"/>
-      <c r="AL30" s="130"/>
-      <c r="AM30" s="130"/>
-      <c r="AN30" s="130"/>
-      <c r="AO30" s="130"/>
-      <c r="AP30" s="130"/>
-      <c r="AQ30" s="130"/>
-      <c r="AR30" s="130"/>
-      <c r="AS30" s="130"/>
-      <c r="AT30" s="130" t="s">
+      <c r="AG30" s="77"/>
+      <c r="AH30" s="77"/>
+      <c r="AI30" s="77"/>
+      <c r="AJ30" s="77"/>
+      <c r="AK30" s="77"/>
+      <c r="AL30" s="77"/>
+      <c r="AM30" s="77"/>
+      <c r="AN30" s="77"/>
+      <c r="AO30" s="77"/>
+      <c r="AP30" s="77"/>
+      <c r="AQ30" s="77"/>
+      <c r="AR30" s="77"/>
+      <c r="AS30" s="77"/>
+      <c r="AT30" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="AU30" s="130"/>
-      <c r="AV30" s="130"/>
-      <c r="AW30" s="130" t="s">
+      <c r="AU30" s="77"/>
+      <c r="AV30" s="77"/>
+      <c r="AW30" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="AX30" s="130"/>
-      <c r="AY30" s="130"/>
-      <c r="AZ30" s="130"/>
-      <c r="BA30" s="130"/>
-      <c r="BB30" s="130"/>
-      <c r="BC30" s="130"/>
-      <c r="BD30" s="130"/>
+      <c r="AX30" s="77"/>
+      <c r="AY30" s="77"/>
+      <c r="AZ30" s="77"/>
+      <c r="BA30" s="77"/>
+      <c r="BB30" s="77"/>
+      <c r="BC30" s="77"/>
+      <c r="BD30" s="77"/>
       <c r="BG30" s="6"/>
       <c r="BH30" s="7">
         <v>365</v>
@@ -3757,62 +3757,62 @@
       <c r="BR30" s="6"/>
     </row>
     <row r="31" spans="1:71" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="130"/>
-      <c r="B31" s="130"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="130"/>
-      <c r="L31" s="130"/>
-      <c r="M31" s="130"/>
-      <c r="N31" s="130"/>
-      <c r="O31" s="130"/>
-      <c r="P31" s="130"/>
-      <c r="Q31" s="130"/>
-      <c r="R31" s="130"/>
-      <c r="S31" s="130"/>
-      <c r="T31" s="130"/>
-      <c r="U31" s="130"/>
-      <c r="V31" s="130"/>
-      <c r="W31" s="130"/>
-      <c r="X31" s="130"/>
-      <c r="Y31" s="130"/>
-      <c r="Z31" s="130"/>
-      <c r="AA31" s="130"/>
-      <c r="AB31" s="130"/>
-      <c r="AC31" s="130"/>
-      <c r="AD31" s="130"/>
-      <c r="AE31" s="130"/>
-      <c r="AF31" s="130"/>
-      <c r="AG31" s="130"/>
-      <c r="AH31" s="130"/>
-      <c r="AI31" s="130"/>
-      <c r="AJ31" s="130"/>
-      <c r="AK31" s="130"/>
-      <c r="AL31" s="130"/>
-      <c r="AM31" s="130"/>
-      <c r="AN31" s="130"/>
-      <c r="AO31" s="130"/>
-      <c r="AP31" s="130"/>
-      <c r="AQ31" s="130"/>
-      <c r="AR31" s="130"/>
-      <c r="AS31" s="130"/>
-      <c r="AT31" s="130"/>
-      <c r="AU31" s="130"/>
-      <c r="AV31" s="130"/>
-      <c r="AW31" s="130"/>
-      <c r="AX31" s="130"/>
-      <c r="AY31" s="130"/>
-      <c r="AZ31" s="130"/>
-      <c r="BA31" s="130"/>
-      <c r="BB31" s="130"/>
-      <c r="BC31" s="130"/>
-      <c r="BD31" s="130"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="77"/>
+      <c r="U31" s="77"/>
+      <c r="V31" s="77"/>
+      <c r="W31" s="77"/>
+      <c r="X31" s="77"/>
+      <c r="Y31" s="77"/>
+      <c r="Z31" s="77"/>
+      <c r="AA31" s="77"/>
+      <c r="AB31" s="77"/>
+      <c r="AC31" s="77"/>
+      <c r="AD31" s="77"/>
+      <c r="AE31" s="77"/>
+      <c r="AF31" s="77"/>
+      <c r="AG31" s="77"/>
+      <c r="AH31" s="77"/>
+      <c r="AI31" s="77"/>
+      <c r="AJ31" s="77"/>
+      <c r="AK31" s="77"/>
+      <c r="AL31" s="77"/>
+      <c r="AM31" s="77"/>
+      <c r="AN31" s="77"/>
+      <c r="AO31" s="77"/>
+      <c r="AP31" s="77"/>
+      <c r="AQ31" s="77"/>
+      <c r="AR31" s="77"/>
+      <c r="AS31" s="77"/>
+      <c r="AT31" s="77"/>
+      <c r="AU31" s="77"/>
+      <c r="AV31" s="77"/>
+      <c r="AW31" s="77"/>
+      <c r="AX31" s="77"/>
+      <c r="AY31" s="77"/>
+      <c r="AZ31" s="77"/>
+      <c r="BA31" s="77"/>
+      <c r="BB31" s="77"/>
+      <c r="BC31" s="77"/>
+      <c r="BD31" s="77"/>
       <c r="BG31" s="6"/>
       <c r="BH31" s="7">
         <v>90</v>
@@ -3823,92 +3823,92 @@
       <c r="BR31" s="6"/>
     </row>
     <row r="32" spans="1:71" s="46" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="139">
+      <c r="A32" s="74">
         <v>1</v>
       </c>
-      <c r="B32" s="139"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="140">
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="75">
         <v>2</v>
       </c>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="140"/>
-      <c r="L32" s="140"/>
-      <c r="M32" s="140"/>
-      <c r="N32" s="140"/>
-      <c r="O32" s="140"/>
-      <c r="P32" s="140"/>
-      <c r="Q32" s="141">
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="76">
         <v>3</v>
       </c>
-      <c r="R32" s="141"/>
-      <c r="S32" s="141"/>
-      <c r="T32" s="139">
+      <c r="R32" s="76"/>
+      <c r="S32" s="76"/>
+      <c r="T32" s="74">
         <v>4</v>
       </c>
-      <c r="U32" s="139"/>
-      <c r="V32" s="139"/>
-      <c r="W32" s="141">
+      <c r="U32" s="74"/>
+      <c r="V32" s="74"/>
+      <c r="W32" s="76">
         <v>5</v>
       </c>
-      <c r="X32" s="141"/>
-      <c r="Y32" s="141"/>
-      <c r="Z32" s="141">
+      <c r="X32" s="76"/>
+      <c r="Y32" s="76"/>
+      <c r="Z32" s="76">
         <v>6</v>
       </c>
-      <c r="AA32" s="141"/>
-      <c r="AB32" s="141"/>
-      <c r="AC32" s="141">
+      <c r="AA32" s="76"/>
+      <c r="AB32" s="76"/>
+      <c r="AC32" s="76">
         <v>7</v>
       </c>
-      <c r="AD32" s="141"/>
-      <c r="AE32" s="141"/>
-      <c r="AF32" s="141">
+      <c r="AD32" s="76"/>
+      <c r="AE32" s="76"/>
+      <c r="AF32" s="76">
         <v>8</v>
       </c>
-      <c r="AG32" s="141"/>
-      <c r="AH32" s="141">
+      <c r="AG32" s="76"/>
+      <c r="AH32" s="76">
         <v>9</v>
       </c>
-      <c r="AI32" s="141"/>
-      <c r="AJ32" s="141"/>
-      <c r="AK32" s="141">
+      <c r="AI32" s="76"/>
+      <c r="AJ32" s="76"/>
+      <c r="AK32" s="76">
         <v>10</v>
       </c>
-      <c r="AL32" s="141"/>
-      <c r="AM32" s="141"/>
-      <c r="AN32" s="141">
+      <c r="AL32" s="76"/>
+      <c r="AM32" s="76"/>
+      <c r="AN32" s="76">
         <v>11</v>
       </c>
-      <c r="AO32" s="141"/>
-      <c r="AP32" s="141"/>
-      <c r="AQ32" s="141">
+      <c r="AO32" s="76"/>
+      <c r="AP32" s="76"/>
+      <c r="AQ32" s="76">
         <v>12</v>
       </c>
-      <c r="AR32" s="141"/>
-      <c r="AS32" s="141"/>
-      <c r="AT32" s="139">
+      <c r="AR32" s="76"/>
+      <c r="AS32" s="76"/>
+      <c r="AT32" s="74">
         <v>13</v>
       </c>
-      <c r="AU32" s="139"/>
-      <c r="AV32" s="139"/>
-      <c r="AW32" s="141">
+      <c r="AU32" s="74"/>
+      <c r="AV32" s="74"/>
+      <c r="AW32" s="76">
         <v>14</v>
       </c>
-      <c r="AX32" s="141"/>
-      <c r="AY32" s="141"/>
-      <c r="AZ32" s="141"/>
-      <c r="BA32" s="141">
+      <c r="AX32" s="76"/>
+      <c r="AY32" s="76"/>
+      <c r="AZ32" s="76"/>
+      <c r="BA32" s="76">
         <v>15</v>
       </c>
-      <c r="BB32" s="141"/>
-      <c r="BC32" s="141"/>
-      <c r="BD32" s="141"/>
+      <c r="BB32" s="76"/>
+      <c r="BC32" s="76"/>
+      <c r="BD32" s="76"/>
       <c r="BE32" s="1"/>
       <c r="BF32" s="23">
         <v>0</v>
@@ -3924,84 +3924,84 @@
       <c r="BS32" s="1"/>
     </row>
     <row r="33" spans="1:70" ht="29.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="98">
+      <c r="A33" s="112">
         <v>1</v>
       </c>
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="99" t="s">
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="103" t="s">
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="113"/>
+      <c r="P33" s="113"/>
+      <c r="Q33" s="117" t="s">
         <v>82</v>
       </c>
-      <c r="R33" s="103"/>
-      <c r="S33" s="103"/>
-      <c r="T33" s="104" t="s">
+      <c r="R33" s="117"/>
+      <c r="S33" s="117"/>
+      <c r="T33" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="U33" s="104"/>
-      <c r="V33" s="104"/>
-      <c r="W33" s="105" t="s">
+      <c r="U33" s="118"/>
+      <c r="V33" s="118"/>
+      <c r="W33" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="X33" s="105"/>
-      <c r="Y33" s="105"/>
-      <c r="Z33" s="106"/>
-      <c r="AA33" s="106"/>
-      <c r="AB33" s="106"/>
-      <c r="AC33" s="97"/>
-      <c r="AD33" s="97"/>
-      <c r="AE33" s="97"/>
-      <c r="AF33" s="109"/>
-      <c r="AG33" s="109"/>
-      <c r="AH33" s="106"/>
-      <c r="AI33" s="106"/>
-      <c r="AJ33" s="106"/>
-      <c r="AK33" s="110" t="s">
+      <c r="X33" s="119"/>
+      <c r="Y33" s="119"/>
+      <c r="Z33" s="97"/>
+      <c r="AA33" s="97"/>
+      <c r="AB33" s="97"/>
+      <c r="AC33" s="111"/>
+      <c r="AD33" s="111"/>
+      <c r="AE33" s="111"/>
+      <c r="AF33" s="96"/>
+      <c r="AG33" s="96"/>
+      <c r="AH33" s="97"/>
+      <c r="AI33" s="97"/>
+      <c r="AJ33" s="97"/>
+      <c r="AK33" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="AL33" s="110"/>
-      <c r="AM33" s="110"/>
-      <c r="AN33" s="111" t="s">
+      <c r="AL33" s="98"/>
+      <c r="AM33" s="98"/>
+      <c r="AN33" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="AO33" s="111"/>
-      <c r="AP33" s="111"/>
-      <c r="AQ33" s="108" t="s">
+      <c r="AO33" s="99"/>
+      <c r="AP33" s="99"/>
+      <c r="AQ33" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="AR33" s="108"/>
-      <c r="AS33" s="108"/>
-      <c r="AT33" s="112">
+      <c r="AR33" s="95"/>
+      <c r="AS33" s="95"/>
+      <c r="AT33" s="100">
         <v>0.2</v>
       </c>
-      <c r="AU33" s="113"/>
-      <c r="AV33" s="113"/>
-      <c r="AW33" s="107" t="s">
+      <c r="AU33" s="101"/>
+      <c r="AV33" s="101"/>
+      <c r="AW33" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="AX33" s="107"/>
-      <c r="AY33" s="107"/>
-      <c r="AZ33" s="107"/>
-      <c r="BA33" s="108" t="s">
+      <c r="AX33" s="94"/>
+      <c r="AY33" s="94"/>
+      <c r="AZ33" s="94"/>
+      <c r="BA33" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="BB33" s="108"/>
-      <c r="BC33" s="108"/>
-      <c r="BD33" s="108"/>
+      <c r="BB33" s="95"/>
+      <c r="BC33" s="95"/>
+      <c r="BD33" s="95"/>
       <c r="BE33" s="23"/>
       <c r="BF33" s="1">
         <v>5373</v>
@@ -4054,50 +4054,50 @@
       <c r="AE34" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AF34" s="100">
+      <c r="AF34" s="114">
         <f>SUM(AF33)</f>
         <v>0</v>
       </c>
-      <c r="AG34" s="100"/>
-      <c r="AH34" s="101"/>
-      <c r="AI34" s="101"/>
-      <c r="AJ34" s="101"/>
-      <c r="AK34" s="102">
+      <c r="AG34" s="114"/>
+      <c r="AH34" s="115"/>
+      <c r="AI34" s="115"/>
+      <c r="AJ34" s="115"/>
+      <c r="AK34" s="116">
         <f>SUM(AK33)</f>
         <v>0</v>
       </c>
-      <c r="AL34" s="102"/>
-      <c r="AM34" s="102"/>
-      <c r="AN34" s="93" t="s">
+      <c r="AL34" s="116"/>
+      <c r="AM34" s="116"/>
+      <c r="AN34" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="AO34" s="93"/>
-      <c r="AP34" s="93"/>
-      <c r="AQ34" s="94">
+      <c r="AO34" s="120"/>
+      <c r="AP34" s="120"/>
+      <c r="AQ34" s="121">
         <f>SUM(AQ33)</f>
         <v>0</v>
       </c>
-      <c r="AR34" s="94"/>
-      <c r="AS34" s="94"/>
-      <c r="AT34" s="93" t="s">
+      <c r="AR34" s="121"/>
+      <c r="AS34" s="121"/>
+      <c r="AT34" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="AU34" s="93"/>
-      <c r="AV34" s="93"/>
-      <c r="AW34" s="95">
+      <c r="AU34" s="120"/>
+      <c r="AV34" s="120"/>
+      <c r="AW34" s="122">
         <f>SUM(AW33)</f>
         <v>0</v>
       </c>
-      <c r="AX34" s="95"/>
-      <c r="AY34" s="95"/>
-      <c r="AZ34" s="95"/>
-      <c r="BA34" s="95">
+      <c r="AX34" s="122"/>
+      <c r="AY34" s="122"/>
+      <c r="AZ34" s="122"/>
+      <c r="BA34" s="122">
         <f>SUM(BA33)</f>
         <v>0</v>
       </c>
-      <c r="BB34" s="95"/>
-      <c r="BC34" s="95"/>
-      <c r="BD34" s="95"/>
+      <c r="BB34" s="122"/>
+      <c r="BC34" s="122"/>
+      <c r="BD34" s="122"/>
       <c r="BF34" s="49"/>
       <c r="BG34" s="6"/>
       <c r="BH34" s="7"/>
@@ -4131,27 +4131,27 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
-      <c r="S35" s="74"/>
-      <c r="T35" s="74"/>
-      <c r="U35" s="74"/>
-      <c r="V35" s="74"/>
-      <c r="W35" s="74"/>
-      <c r="X35" s="74"/>
-      <c r="Y35" s="74"/>
-      <c r="Z35" s="74"/>
-      <c r="AA35" s="74"/>
-      <c r="AB35" s="74"/>
-      <c r="AC35" s="74"/>
-      <c r="AD35" s="74"/>
-      <c r="AE35" s="74"/>
-      <c r="AF35" s="74"/>
-      <c r="AG35" s="74"/>
-      <c r="AH35" s="74"/>
-      <c r="AI35" s="74"/>
-      <c r="AJ35" s="74"/>
-      <c r="AK35" s="74"/>
+      <c r="Q35" s="137"/>
+      <c r="R35" s="137"/>
+      <c r="S35" s="137"/>
+      <c r="T35" s="137"/>
+      <c r="U35" s="137"/>
+      <c r="V35" s="137"/>
+      <c r="W35" s="137"/>
+      <c r="X35" s="137"/>
+      <c r="Y35" s="137"/>
+      <c r="Z35" s="137"/>
+      <c r="AA35" s="137"/>
+      <c r="AB35" s="137"/>
+      <c r="AC35" s="137"/>
+      <c r="AD35" s="137"/>
+      <c r="AE35" s="137"/>
+      <c r="AF35" s="137"/>
+      <c r="AG35" s="137"/>
+      <c r="AH35" s="137"/>
+      <c r="AI35" s="137"/>
+      <c r="AJ35" s="137"/>
+      <c r="AK35" s="137"/>
       <c r="AL35" s="2" t="s">
         <v>45</v>
       </c>
@@ -4197,40 +4197,40 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="74" t="s">
+      <c r="F36" s="137" t="s">
         <v>75</v>
       </c>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="74"/>
-      <c r="S36" s="74"/>
-      <c r="T36" s="74"/>
-      <c r="U36" s="74"/>
-      <c r="V36" s="74"/>
-      <c r="W36" s="74"/>
-      <c r="X36" s="74"/>
-      <c r="Y36" s="74"/>
-      <c r="Z36" s="74"/>
-      <c r="AA36" s="74"/>
-      <c r="AB36" s="74"/>
-      <c r="AC36" s="74"/>
-      <c r="AD36" s="74"/>
-      <c r="AE36" s="74"/>
-      <c r="AF36" s="74"/>
-      <c r="AG36" s="74"/>
-      <c r="AH36" s="74"/>
-      <c r="AI36" s="74"/>
-      <c r="AJ36" s="74"/>
-      <c r="AK36" s="74"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="137"/>
+      <c r="K36" s="137"/>
+      <c r="L36" s="137"/>
+      <c r="M36" s="137"/>
+      <c r="N36" s="137"/>
+      <c r="O36" s="137"/>
+      <c r="P36" s="137"/>
+      <c r="Q36" s="137"/>
+      <c r="R36" s="137"/>
+      <c r="S36" s="137"/>
+      <c r="T36" s="137"/>
+      <c r="U36" s="137"/>
+      <c r="V36" s="137"/>
+      <c r="W36" s="137"/>
+      <c r="X36" s="137"/>
+      <c r="Y36" s="137"/>
+      <c r="Z36" s="137"/>
+      <c r="AA36" s="137"/>
+      <c r="AB36" s="137"/>
+      <c r="AC36" s="137"/>
+      <c r="AD36" s="137"/>
+      <c r="AE36" s="137"/>
+      <c r="AF36" s="137"/>
+      <c r="AG36" s="137"/>
+      <c r="AH36" s="137"/>
+      <c r="AI36" s="137"/>
+      <c r="AJ36" s="137"/>
+      <c r="AK36" s="137"/>
       <c r="AL36" s="2" t="s">
         <v>47</v>
       </c>
@@ -4273,58 +4273,58 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="75" t="s">
+      <c r="F37" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="75"/>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="75"/>
-      <c r="R37" s="75"/>
-      <c r="S37" s="75"/>
-      <c r="T37" s="75"/>
-      <c r="U37" s="75"/>
-      <c r="V37" s="75"/>
-      <c r="W37" s="75"/>
-      <c r="X37" s="75"/>
-      <c r="Y37" s="75"/>
-      <c r="Z37" s="75"/>
-      <c r="AA37" s="75"/>
-      <c r="AB37" s="75"/>
-      <c r="AC37" s="75"/>
-      <c r="AD37" s="75"/>
-      <c r="AE37" s="75"/>
-      <c r="AF37" s="75"/>
-      <c r="AG37" s="75"/>
-      <c r="AH37" s="75"/>
-      <c r="AI37" s="75"/>
-      <c r="AJ37" s="75"/>
-      <c r="AK37" s="75"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="134"/>
+      <c r="I37" s="134"/>
+      <c r="J37" s="134"/>
+      <c r="K37" s="134"/>
+      <c r="L37" s="134"/>
+      <c r="M37" s="134"/>
+      <c r="N37" s="134"/>
+      <c r="O37" s="134"/>
+      <c r="P37" s="134"/>
+      <c r="Q37" s="134"/>
+      <c r="R37" s="134"/>
+      <c r="S37" s="134"/>
+      <c r="T37" s="134"/>
+      <c r="U37" s="134"/>
+      <c r="V37" s="134"/>
+      <c r="W37" s="134"/>
+      <c r="X37" s="134"/>
+      <c r="Y37" s="134"/>
+      <c r="Z37" s="134"/>
+      <c r="AA37" s="134"/>
+      <c r="AB37" s="134"/>
+      <c r="AC37" s="134"/>
+      <c r="AD37" s="134"/>
+      <c r="AE37" s="134"/>
+      <c r="AF37" s="134"/>
+      <c r="AG37" s="134"/>
+      <c r="AH37" s="134"/>
+      <c r="AI37" s="134"/>
+      <c r="AJ37" s="134"/>
+      <c r="AK37" s="134"/>
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
-      <c r="AP37" s="76"/>
-      <c r="AQ37" s="76"/>
-      <c r="AR37" s="76"/>
-      <c r="AS37" s="76"/>
-      <c r="AT37" s="76"/>
-      <c r="AU37" s="76"/>
-      <c r="AV37" s="76"/>
-      <c r="AW37" s="76"/>
-      <c r="AX37" s="76"/>
-      <c r="AY37" s="76"/>
-      <c r="AZ37" s="76"/>
-      <c r="BA37" s="76"/>
-      <c r="BB37" s="76"/>
-      <c r="BC37" s="76"/>
+      <c r="AP37" s="138"/>
+      <c r="AQ37" s="138"/>
+      <c r="AR37" s="138"/>
+      <c r="AS37" s="138"/>
+      <c r="AT37" s="138"/>
+      <c r="AU37" s="138"/>
+      <c r="AV37" s="138"/>
+      <c r="AW37" s="138"/>
+      <c r="AX37" s="138"/>
+      <c r="AY37" s="138"/>
+      <c r="AZ37" s="138"/>
+      <c r="BA37" s="138"/>
+      <c r="BB37" s="138"/>
+      <c r="BC37" s="138"/>
       <c r="BD37" s="2"/>
       <c r="BE37" s="23"/>
       <c r="BF37" s="1">
@@ -4363,45 +4363,45 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="77" t="s">
+      <c r="S38" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="T38" s="77"/>
-      <c r="U38" s="77"/>
-      <c r="V38" s="77"/>
-      <c r="W38" s="77"/>
-      <c r="X38" s="77"/>
-      <c r="Y38" s="78"/>
-      <c r="Z38" s="78"/>
-      <c r="AA38" s="78"/>
-      <c r="AB38" s="78"/>
-      <c r="AC38" s="78"/>
-      <c r="AD38" s="78"/>
-      <c r="AE38" s="78"/>
-      <c r="AF38" s="78"/>
-      <c r="AG38" s="78"/>
-      <c r="AH38" s="78"/>
-      <c r="AI38" s="78"/>
-      <c r="AJ38" s="78"/>
-      <c r="AK38" s="78"/>
-      <c r="AL38" s="78"/>
-      <c r="AM38" s="78"/>
-      <c r="AN38" s="78"/>
+      <c r="T38" s="139"/>
+      <c r="U38" s="139"/>
+      <c r="V38" s="139"/>
+      <c r="W38" s="139"/>
+      <c r="X38" s="139"/>
+      <c r="Y38" s="124"/>
+      <c r="Z38" s="124"/>
+      <c r="AA38" s="124"/>
+      <c r="AB38" s="124"/>
+      <c r="AC38" s="124"/>
+      <c r="AD38" s="124"/>
+      <c r="AE38" s="124"/>
+      <c r="AF38" s="124"/>
+      <c r="AG38" s="124"/>
+      <c r="AH38" s="124"/>
+      <c r="AI38" s="124"/>
+      <c r="AJ38" s="124"/>
+      <c r="AK38" s="124"/>
+      <c r="AL38" s="124"/>
+      <c r="AM38" s="124"/>
+      <c r="AN38" s="124"/>
       <c r="AO38" s="2"/>
-      <c r="AP38" s="76"/>
-      <c r="AQ38" s="76"/>
-      <c r="AR38" s="76"/>
-      <c r="AS38" s="76"/>
-      <c r="AT38" s="76"/>
-      <c r="AU38" s="76"/>
-      <c r="AV38" s="76"/>
-      <c r="AW38" s="76"/>
-      <c r="AX38" s="76"/>
-      <c r="AY38" s="76"/>
-      <c r="AZ38" s="76"/>
-      <c r="BA38" s="76"/>
-      <c r="BB38" s="76"/>
-      <c r="BC38" s="76"/>
+      <c r="AP38" s="138"/>
+      <c r="AQ38" s="138"/>
+      <c r="AR38" s="138"/>
+      <c r="AS38" s="138"/>
+      <c r="AT38" s="138"/>
+      <c r="AU38" s="138"/>
+      <c r="AV38" s="138"/>
+      <c r="AW38" s="138"/>
+      <c r="AX38" s="138"/>
+      <c r="AY38" s="138"/>
+      <c r="AZ38" s="138"/>
+      <c r="BA38" s="138"/>
+      <c r="BB38" s="138"/>
+      <c r="BC38" s="138"/>
       <c r="BD38" s="2"/>
       <c r="BE38" s="23"/>
       <c r="BF38" s="1">
@@ -4446,39 +4446,39 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="22"/>
-      <c r="Y39" s="79" t="s">
+      <c r="Y39" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="Z39" s="79"/>
-      <c r="AA39" s="79"/>
-      <c r="AB39" s="79"/>
-      <c r="AC39" s="79"/>
-      <c r="AD39" s="79"/>
-      <c r="AE39" s="79"/>
-      <c r="AF39" s="79"/>
-      <c r="AG39" s="79"/>
-      <c r="AH39" s="79"/>
-      <c r="AI39" s="79"/>
-      <c r="AJ39" s="79"/>
-      <c r="AK39" s="79"/>
-      <c r="AL39" s="79"/>
-      <c r="AM39" s="79"/>
-      <c r="AN39" s="79"/>
+      <c r="Z39" s="127"/>
+      <c r="AA39" s="127"/>
+      <c r="AB39" s="127"/>
+      <c r="AC39" s="127"/>
+      <c r="AD39" s="127"/>
+      <c r="AE39" s="127"/>
+      <c r="AF39" s="127"/>
+      <c r="AG39" s="127"/>
+      <c r="AH39" s="127"/>
+      <c r="AI39" s="127"/>
+      <c r="AJ39" s="127"/>
+      <c r="AK39" s="127"/>
+      <c r="AL39" s="127"/>
+      <c r="AM39" s="127"/>
+      <c r="AN39" s="127"/>
       <c r="AO39" s="2"/>
-      <c r="AP39" s="80"/>
-      <c r="AQ39" s="80"/>
-      <c r="AR39" s="80"/>
-      <c r="AS39" s="80"/>
-      <c r="AT39" s="80"/>
-      <c r="AU39" s="80"/>
-      <c r="AV39" s="80"/>
-      <c r="AW39" s="80"/>
-      <c r="AX39" s="80"/>
-      <c r="AY39" s="80"/>
-      <c r="AZ39" s="80"/>
-      <c r="BA39" s="80"/>
-      <c r="BB39" s="80"/>
-      <c r="BC39" s="80"/>
+      <c r="AP39" s="140"/>
+      <c r="AQ39" s="140"/>
+      <c r="AR39" s="140"/>
+      <c r="AS39" s="140"/>
+      <c r="AT39" s="140"/>
+      <c r="AU39" s="140"/>
+      <c r="AV39" s="140"/>
+      <c r="AW39" s="140"/>
+      <c r="AX39" s="140"/>
+      <c r="AY39" s="140"/>
+      <c r="AZ39" s="140"/>
+      <c r="BA39" s="140"/>
+      <c r="BB39" s="140"/>
+      <c r="BC39" s="140"/>
       <c r="BD39" s="2"/>
       <c r="BG39" s="6"/>
       <c r="BH39" s="52">
@@ -4502,58 +4502,58 @@
       <c r="E40" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="78"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="124"/>
+      <c r="K40" s="124"/>
+      <c r="L40" s="124"/>
+      <c r="M40" s="124"/>
+      <c r="N40" s="124"/>
+      <c r="O40" s="124"/>
+      <c r="P40" s="124"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="81" t="s">
+      <c r="R40" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="S40" s="81"/>
-      <c r="T40" s="81"/>
-      <c r="U40" s="81"/>
-      <c r="V40" s="81"/>
-      <c r="W40" s="81"/>
-      <c r="X40" s="81"/>
-      <c r="Y40" s="78"/>
-      <c r="Z40" s="78"/>
-      <c r="AA40" s="78"/>
-      <c r="AB40" s="78"/>
-      <c r="AC40" s="78"/>
-      <c r="AD40" s="78"/>
-      <c r="AE40" s="78"/>
-      <c r="AF40" s="78"/>
-      <c r="AG40" s="78"/>
-      <c r="AH40" s="78"/>
-      <c r="AI40" s="78"/>
-      <c r="AJ40" s="78"/>
-      <c r="AK40" s="78"/>
-      <c r="AL40" s="78"/>
-      <c r="AM40" s="78"/>
-      <c r="AN40" s="78"/>
+      <c r="S40" s="141"/>
+      <c r="T40" s="141"/>
+      <c r="U40" s="141"/>
+      <c r="V40" s="141"/>
+      <c r="W40" s="141"/>
+      <c r="X40" s="141"/>
+      <c r="Y40" s="124"/>
+      <c r="Z40" s="124"/>
+      <c r="AA40" s="124"/>
+      <c r="AB40" s="124"/>
+      <c r="AC40" s="124"/>
+      <c r="AD40" s="124"/>
+      <c r="AE40" s="124"/>
+      <c r="AF40" s="124"/>
+      <c r="AG40" s="124"/>
+      <c r="AH40" s="124"/>
+      <c r="AI40" s="124"/>
+      <c r="AJ40" s="124"/>
+      <c r="AK40" s="124"/>
+      <c r="AL40" s="124"/>
+      <c r="AM40" s="124"/>
+      <c r="AN40" s="124"/>
       <c r="AO40" s="2"/>
-      <c r="AP40" s="80"/>
-      <c r="AQ40" s="80"/>
-      <c r="AR40" s="80"/>
-      <c r="AS40" s="80"/>
-      <c r="AT40" s="80"/>
-      <c r="AU40" s="80"/>
-      <c r="AV40" s="80"/>
-      <c r="AW40" s="80"/>
-      <c r="AX40" s="80"/>
-      <c r="AY40" s="80"/>
-      <c r="AZ40" s="80"/>
-      <c r="BA40" s="80"/>
-      <c r="BB40" s="80"/>
-      <c r="BC40" s="80"/>
+      <c r="AP40" s="140"/>
+      <c r="AQ40" s="140"/>
+      <c r="AR40" s="140"/>
+      <c r="AS40" s="140"/>
+      <c r="AT40" s="140"/>
+      <c r="AU40" s="140"/>
+      <c r="AV40" s="140"/>
+      <c r="AW40" s="140"/>
+      <c r="AX40" s="140"/>
+      <c r="AY40" s="140"/>
+      <c r="AZ40" s="140"/>
+      <c r="BA40" s="140"/>
+      <c r="BB40" s="140"/>
+      <c r="BC40" s="140"/>
       <c r="BD40" s="2"/>
       <c r="BG40" s="6"/>
       <c r="BH40" s="52">
@@ -4575,19 +4575,19 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="79" t="s">
+      <c r="F41" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
+      <c r="G41" s="127"/>
+      <c r="H41" s="127"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="127"/>
+      <c r="K41" s="127"/>
+      <c r="L41" s="127"/>
+      <c r="M41" s="127"/>
+      <c r="N41" s="127"/>
+      <c r="O41" s="127"/>
+      <c r="P41" s="127"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
@@ -4596,24 +4596,24 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
-      <c r="Y41" s="79" t="s">
+      <c r="Y41" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="Z41" s="79"/>
-      <c r="AA41" s="79"/>
-      <c r="AB41" s="79"/>
-      <c r="AC41" s="79"/>
-      <c r="AD41" s="79"/>
-      <c r="AE41" s="79"/>
-      <c r="AF41" s="79"/>
-      <c r="AG41" s="79"/>
-      <c r="AH41" s="79"/>
-      <c r="AI41" s="79"/>
-      <c r="AJ41" s="79"/>
-      <c r="AK41" s="79"/>
-      <c r="AL41" s="79"/>
-      <c r="AM41" s="79"/>
-      <c r="AN41" s="79"/>
+      <c r="Z41" s="127"/>
+      <c r="AA41" s="127"/>
+      <c r="AB41" s="127"/>
+      <c r="AC41" s="127"/>
+      <c r="AD41" s="127"/>
+      <c r="AE41" s="127"/>
+      <c r="AF41" s="127"/>
+      <c r="AG41" s="127"/>
+      <c r="AH41" s="127"/>
+      <c r="AI41" s="127"/>
+      <c r="AJ41" s="127"/>
+      <c r="AK41" s="127"/>
+      <c r="AL41" s="127"/>
+      <c r="AM41" s="127"/>
+      <c r="AN41" s="127"/>
       <c r="AO41" s="2"/>
       <c r="AP41" s="53"/>
       <c r="AQ41" s="53"/>
@@ -4750,27 +4750,27 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
       <c r="AJ43" s="2"/>
-      <c r="AK43" s="78"/>
-      <c r="AL43" s="78"/>
-      <c r="AM43" s="78"/>
-      <c r="AN43" s="78"/>
-      <c r="AO43" s="78"/>
-      <c r="AP43" s="78"/>
+      <c r="AK43" s="124"/>
+      <c r="AL43" s="124"/>
+      <c r="AM43" s="124"/>
+      <c r="AN43" s="124"/>
+      <c r="AO43" s="124"/>
+      <c r="AP43" s="124"/>
       <c r="AQ43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AR43" s="78"/>
-      <c r="AS43" s="78"/>
-      <c r="AT43" s="78"/>
-      <c r="AU43" s="78"/>
-      <c r="AV43" s="78"/>
-      <c r="AW43" s="78"/>
-      <c r="AX43" s="78"/>
-      <c r="AY43" s="78"/>
-      <c r="AZ43" s="78"/>
-      <c r="BA43" s="78"/>
-      <c r="BB43" s="78"/>
-      <c r="BC43" s="78"/>
+      <c r="AR43" s="124"/>
+      <c r="AS43" s="124"/>
+      <c r="AT43" s="124"/>
+      <c r="AU43" s="124"/>
+      <c r="AV43" s="124"/>
+      <c r="AW43" s="124"/>
+      <c r="AX43" s="124"/>
+      <c r="AY43" s="124"/>
+      <c r="AZ43" s="124"/>
+      <c r="BA43" s="124"/>
+      <c r="BB43" s="124"/>
+      <c r="BC43" s="124"/>
       <c r="BD43" s="2"/>
       <c r="BE43" s="46"/>
       <c r="BF43" s="6"/>
@@ -4800,17 +4800,17 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
-      <c r="R44" s="75" t="s">
+      <c r="R44" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="S44" s="75"/>
-      <c r="T44" s="75"/>
-      <c r="U44" s="75"/>
-      <c r="V44" s="75"/>
-      <c r="W44" s="75"/>
-      <c r="X44" s="75"/>
-      <c r="Y44" s="75"/>
-      <c r="Z44" s="75"/>
+      <c r="S44" s="134"/>
+      <c r="T44" s="134"/>
+      <c r="U44" s="134"/>
+      <c r="V44" s="134"/>
+      <c r="W44" s="134"/>
+      <c r="X44" s="134"/>
+      <c r="Y44" s="134"/>
+      <c r="Z44" s="134"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="55"/>
@@ -4820,28 +4820,28 @@
       </c>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
-      <c r="AH44" s="78"/>
-      <c r="AI44" s="78"/>
-      <c r="AJ44" s="78"/>
-      <c r="AK44" s="78"/>
-      <c r="AL44" s="78"/>
-      <c r="AM44" s="78"/>
-      <c r="AN44" s="78"/>
-      <c r="AO44" s="78"/>
-      <c r="AP44" s="78"/>
-      <c r="AQ44" s="78"/>
-      <c r="AR44" s="78"/>
-      <c r="AS44" s="78"/>
-      <c r="AT44" s="78"/>
-      <c r="AU44" s="78"/>
-      <c r="AV44" s="78"/>
-      <c r="AW44" s="78"/>
-      <c r="AX44" s="78"/>
-      <c r="AY44" s="78"/>
-      <c r="AZ44" s="78"/>
-      <c r="BA44" s="78"/>
-      <c r="BB44" s="78"/>
-      <c r="BC44" s="78"/>
+      <c r="AH44" s="124"/>
+      <c r="AI44" s="124"/>
+      <c r="AJ44" s="124"/>
+      <c r="AK44" s="124"/>
+      <c r="AL44" s="124"/>
+      <c r="AM44" s="124"/>
+      <c r="AN44" s="124"/>
+      <c r="AO44" s="124"/>
+      <c r="AP44" s="124"/>
+      <c r="AQ44" s="124"/>
+      <c r="AR44" s="124"/>
+      <c r="AS44" s="124"/>
+      <c r="AT44" s="124"/>
+      <c r="AU44" s="124"/>
+      <c r="AV44" s="124"/>
+      <c r="AW44" s="124"/>
+      <c r="AX44" s="124"/>
+      <c r="AY44" s="124"/>
+      <c r="AZ44" s="124"/>
+      <c r="BA44" s="124"/>
+      <c r="BB44" s="124"/>
+      <c r="BC44" s="124"/>
       <c r="BD44" s="2"/>
       <c r="BE44" s="46"/>
       <c r="BF44" s="6"/>
@@ -4854,65 +4854,65 @@
       <c r="BR44" s="6"/>
     </row>
     <row r="45" spans="1:70" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="82" t="s">
+      <c r="A45" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="82"/>
-      <c r="Q45" s="82"/>
-      <c r="R45" s="82"/>
-      <c r="S45" s="82"/>
-      <c r="T45" s="82"/>
-      <c r="U45" s="82"/>
-      <c r="V45" s="82"/>
-      <c r="W45" s="82"/>
-      <c r="X45" s="82"/>
-      <c r="Y45" s="82"/>
-      <c r="Z45" s="82"/>
-      <c r="AA45" s="82"/>
-      <c r="AB45" s="82"/>
-      <c r="AC45" s="82"/>
-      <c r="AD45" s="82"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="135"/>
+      <c r="F45" s="135"/>
+      <c r="G45" s="135"/>
+      <c r="H45" s="135"/>
+      <c r="I45" s="135"/>
+      <c r="J45" s="135"/>
+      <c r="K45" s="135"/>
+      <c r="L45" s="135"/>
+      <c r="M45" s="135"/>
+      <c r="N45" s="135"/>
+      <c r="O45" s="135"/>
+      <c r="P45" s="135"/>
+      <c r="Q45" s="135"/>
+      <c r="R45" s="135"/>
+      <c r="S45" s="135"/>
+      <c r="T45" s="135"/>
+      <c r="U45" s="135"/>
+      <c r="V45" s="135"/>
+      <c r="W45" s="135"/>
+      <c r="X45" s="135"/>
+      <c r="Y45" s="135"/>
+      <c r="Z45" s="135"/>
+      <c r="AA45" s="135"/>
+      <c r="AB45" s="135"/>
+      <c r="AC45" s="135"/>
+      <c r="AD45" s="135"/>
       <c r="AE45" s="55"/>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
-      <c r="AI45" s="83" t="s">
+      <c r="AI45" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="AJ45" s="83"/>
-      <c r="AK45" s="83"/>
-      <c r="AL45" s="83"/>
-      <c r="AM45" s="83"/>
-      <c r="AN45" s="83"/>
-      <c r="AO45" s="83"/>
-      <c r="AP45" s="83"/>
-      <c r="AQ45" s="83"/>
-      <c r="AR45" s="83"/>
-      <c r="AS45" s="83"/>
-      <c r="AT45" s="83"/>
-      <c r="AU45" s="83"/>
-      <c r="AV45" s="83"/>
-      <c r="AW45" s="83"/>
-      <c r="AX45" s="83"/>
-      <c r="AY45" s="83"/>
-      <c r="AZ45" s="83"/>
-      <c r="BA45" s="83"/>
-      <c r="BB45" s="83"/>
-      <c r="BC45" s="83"/>
+      <c r="AJ45" s="126"/>
+      <c r="AK45" s="126"/>
+      <c r="AL45" s="126"/>
+      <c r="AM45" s="126"/>
+      <c r="AN45" s="126"/>
+      <c r="AO45" s="126"/>
+      <c r="AP45" s="126"/>
+      <c r="AQ45" s="126"/>
+      <c r="AR45" s="126"/>
+      <c r="AS45" s="126"/>
+      <c r="AT45" s="126"/>
+      <c r="AU45" s="126"/>
+      <c r="AV45" s="126"/>
+      <c r="AW45" s="126"/>
+      <c r="AX45" s="126"/>
+      <c r="AY45" s="126"/>
+      <c r="AZ45" s="126"/>
+      <c r="BA45" s="126"/>
+      <c r="BB45" s="126"/>
+      <c r="BC45" s="126"/>
       <c r="BD45" s="2"/>
       <c r="BE45" s="52">
         <v>150</v>
@@ -4927,35 +4927,35 @@
       <c r="BR45" s="6"/>
     </row>
     <row r="46" spans="1:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="84" t="s">
+      <c r="A46" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="84"/>
-      <c r="O46" s="84"/>
-      <c r="P46" s="84"/>
-      <c r="Q46" s="84"/>
-      <c r="R46" s="84"/>
-      <c r="S46" s="84"/>
-      <c r="T46" s="84"/>
-      <c r="U46" s="84"/>
-      <c r="V46" s="84"/>
-      <c r="W46" s="84"/>
-      <c r="X46" s="84"/>
-      <c r="Y46" s="84"/>
-      <c r="Z46" s="84"/>
-      <c r="AA46" s="84"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="136"/>
+      <c r="F46" s="136"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="136"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="136"/>
+      <c r="K46" s="136"/>
+      <c r="L46" s="136"/>
+      <c r="M46" s="136"/>
+      <c r="N46" s="136"/>
+      <c r="O46" s="136"/>
+      <c r="P46" s="136"/>
+      <c r="Q46" s="136"/>
+      <c r="R46" s="136"/>
+      <c r="S46" s="136"/>
+      <c r="T46" s="136"/>
+      <c r="U46" s="136"/>
+      <c r="V46" s="136"/>
+      <c r="W46" s="136"/>
+      <c r="X46" s="136"/>
+      <c r="Y46" s="136"/>
+      <c r="Z46" s="136"/>
+      <c r="AA46" s="136"/>
       <c r="AB46" s="58"/>
       <c r="AC46" s="58"/>
       <c r="AD46" s="57"/>
@@ -5033,28 +5033,28 @@
       <c r="AE47" s="8"/>
       <c r="AF47" s="59"/>
       <c r="AG47" s="59"/>
-      <c r="AH47" s="85"/>
-      <c r="AI47" s="85"/>
-      <c r="AJ47" s="85"/>
-      <c r="AK47" s="85"/>
-      <c r="AL47" s="85"/>
-      <c r="AM47" s="85"/>
-      <c r="AN47" s="85"/>
-      <c r="AO47" s="85"/>
-      <c r="AP47" s="85"/>
-      <c r="AQ47" s="85"/>
-      <c r="AR47" s="85"/>
-      <c r="AS47" s="85"/>
-      <c r="AT47" s="85"/>
-      <c r="AU47" s="85"/>
-      <c r="AV47" s="85"/>
-      <c r="AW47" s="85"/>
-      <c r="AX47" s="85"/>
-      <c r="AY47" s="85"/>
-      <c r="AZ47" s="85"/>
-      <c r="BA47" s="85"/>
-      <c r="BB47" s="85"/>
-      <c r="BC47" s="85"/>
+      <c r="AH47" s="129"/>
+      <c r="AI47" s="129"/>
+      <c r="AJ47" s="129"/>
+      <c r="AK47" s="129"/>
+      <c r="AL47" s="129"/>
+      <c r="AM47" s="129"/>
+      <c r="AN47" s="129"/>
+      <c r="AO47" s="129"/>
+      <c r="AP47" s="129"/>
+      <c r="AQ47" s="129"/>
+      <c r="AR47" s="129"/>
+      <c r="AS47" s="129"/>
+      <c r="AT47" s="129"/>
+      <c r="AU47" s="129"/>
+      <c r="AV47" s="129"/>
+      <c r="AW47" s="129"/>
+      <c r="AX47" s="129"/>
+      <c r="AY47" s="129"/>
+      <c r="AZ47" s="129"/>
+      <c r="BA47" s="129"/>
+      <c r="BB47" s="129"/>
+      <c r="BC47" s="129"/>
       <c r="BD47" s="2"/>
       <c r="BE47" s="52">
         <v>150</v>
@@ -5089,49 +5089,49 @@
       <c r="N48" s="65"/>
       <c r="O48" s="65"/>
       <c r="P48" s="2"/>
-      <c r="Q48" s="86"/>
-      <c r="R48" s="86"/>
-      <c r="S48" s="86"/>
-      <c r="T48" s="86"/>
-      <c r="U48" s="86"/>
-      <c r="V48" s="87" t="s">
+      <c r="Q48" s="130"/>
+      <c r="R48" s="130"/>
+      <c r="S48" s="130"/>
+      <c r="T48" s="130"/>
+      <c r="U48" s="130"/>
+      <c r="V48" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="W48" s="87"/>
-      <c r="X48" s="87"/>
-      <c r="Y48" s="87"/>
-      <c r="Z48" s="87"/>
-      <c r="AA48" s="87"/>
-      <c r="AB48" s="87"/>
-      <c r="AC48" s="87"/>
-      <c r="AD48" s="87"/>
+      <c r="W48" s="131"/>
+      <c r="X48" s="131"/>
+      <c r="Y48" s="131"/>
+      <c r="Z48" s="131"/>
+      <c r="AA48" s="131"/>
+      <c r="AB48" s="131"/>
+      <c r="AC48" s="131"/>
+      <c r="AD48" s="131"/>
       <c r="AE48" s="59" t="s">
         <v>59</v>
       </c>
       <c r="AF48" s="59"/>
       <c r="AG48" s="59"/>
       <c r="AH48" s="59"/>
-      <c r="AI48" s="88"/>
-      <c r="AJ48" s="88"/>
-      <c r="AK48" s="88"/>
-      <c r="AL48" s="88"/>
-      <c r="AM48" s="88"/>
-      <c r="AN48" s="88"/>
-      <c r="AO48" s="88"/>
-      <c r="AP48" s="88"/>
+      <c r="AI48" s="132"/>
+      <c r="AJ48" s="132"/>
+      <c r="AK48" s="132"/>
+      <c r="AL48" s="132"/>
+      <c r="AM48" s="132"/>
+      <c r="AN48" s="132"/>
+      <c r="AO48" s="132"/>
+      <c r="AP48" s="132"/>
       <c r="AQ48" s="8"/>
-      <c r="AR48" s="88"/>
-      <c r="AS48" s="88"/>
-      <c r="AT48" s="88"/>
-      <c r="AU48" s="88"/>
-      <c r="AV48" s="88"/>
+      <c r="AR48" s="132"/>
+      <c r="AS48" s="132"/>
+      <c r="AT48" s="132"/>
+      <c r="AU48" s="132"/>
+      <c r="AV48" s="132"/>
       <c r="AW48" s="8"/>
-      <c r="AX48" s="88"/>
-      <c r="AY48" s="88"/>
-      <c r="AZ48" s="88"/>
-      <c r="BA48" s="88"/>
-      <c r="BB48" s="88"/>
-      <c r="BC48" s="88"/>
+      <c r="AX48" s="132"/>
+      <c r="AY48" s="132"/>
+      <c r="AZ48" s="132"/>
+      <c r="BA48" s="132"/>
+      <c r="BB48" s="132"/>
+      <c r="BC48" s="132"/>
       <c r="BD48" s="2"/>
       <c r="BE48" s="52">
         <v>15</v>
@@ -5153,64 +5153,64 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="89" t="s">
+      <c r="H49" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="I49" s="89"/>
-      <c r="J49" s="89"/>
-      <c r="K49" s="89"/>
-      <c r="L49" s="89"/>
-      <c r="M49" s="89"/>
-      <c r="N49" s="89"/>
-      <c r="O49" s="89"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="106"/>
+      <c r="K49" s="106"/>
+      <c r="L49" s="106"/>
+      <c r="M49" s="106"/>
+      <c r="N49" s="106"/>
+      <c r="O49" s="106"/>
       <c r="P49" s="2"/>
-      <c r="Q49" s="90"/>
-      <c r="R49" s="90"/>
-      <c r="S49" s="90"/>
-      <c r="T49" s="90"/>
-      <c r="U49" s="90"/>
+      <c r="Q49" s="133"/>
+      <c r="R49" s="133"/>
+      <c r="S49" s="133"/>
+      <c r="T49" s="133"/>
+      <c r="U49" s="133"/>
       <c r="V49" s="2"/>
-      <c r="W49" s="79" t="s">
+      <c r="W49" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="X49" s="79"/>
-      <c r="Y49" s="79"/>
-      <c r="Z49" s="79"/>
-      <c r="AA49" s="79"/>
-      <c r="AB49" s="79"/>
-      <c r="AC49" s="79"/>
+      <c r="X49" s="127"/>
+      <c r="Y49" s="127"/>
+      <c r="Z49" s="127"/>
+      <c r="AA49" s="127"/>
+      <c r="AB49" s="127"/>
+      <c r="AC49" s="127"/>
       <c r="AD49" s="56"/>
       <c r="AE49" s="8"/>
       <c r="AF49" s="59"/>
       <c r="AG49" s="59"/>
       <c r="AH49" s="59"/>
       <c r="AI49" s="59"/>
-      <c r="AJ49" s="89" t="s">
+      <c r="AJ49" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="AK49" s="89"/>
-      <c r="AL49" s="89"/>
-      <c r="AM49" s="89"/>
-      <c r="AN49" s="89"/>
-      <c r="AO49" s="89"/>
-      <c r="AP49" s="89"/>
+      <c r="AK49" s="106"/>
+      <c r="AL49" s="106"/>
+      <c r="AM49" s="106"/>
+      <c r="AN49" s="106"/>
+      <c r="AO49" s="106"/>
+      <c r="AP49" s="106"/>
       <c r="AQ49" s="8"/>
-      <c r="AR49" s="89" t="s">
+      <c r="AR49" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="AS49" s="89"/>
-      <c r="AT49" s="89"/>
-      <c r="AU49" s="89"/>
-      <c r="AV49" s="89"/>
+      <c r="AS49" s="106"/>
+      <c r="AT49" s="106"/>
+      <c r="AU49" s="106"/>
+      <c r="AV49" s="106"/>
       <c r="AW49" s="8"/>
-      <c r="AX49" s="89" t="s">
+      <c r="AX49" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="AY49" s="89"/>
-      <c r="AZ49" s="89"/>
-      <c r="BA49" s="89"/>
-      <c r="BB49" s="89"/>
-      <c r="BC49" s="89"/>
+      <c r="AY49" s="106"/>
+      <c r="AZ49" s="106"/>
+      <c r="BA49" s="106"/>
+      <c r="BB49" s="106"/>
+      <c r="BC49" s="106"/>
       <c r="BD49" s="2"/>
       <c r="BE49" s="52">
         <v>225</v>
@@ -5243,49 +5243,49 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
-      <c r="Q50" s="78"/>
-      <c r="R50" s="78"/>
-      <c r="S50" s="78"/>
-      <c r="T50" s="78"/>
-      <c r="U50" s="78"/>
-      <c r="V50" s="92" t="s">
+      <c r="Q50" s="124"/>
+      <c r="R50" s="124"/>
+      <c r="S50" s="124"/>
+      <c r="T50" s="124"/>
+      <c r="U50" s="124"/>
+      <c r="V50" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="W50" s="92"/>
-      <c r="X50" s="92"/>
-      <c r="Y50" s="92"/>
-      <c r="Z50" s="92"/>
-      <c r="AA50" s="92"/>
-      <c r="AB50" s="92"/>
-      <c r="AC50" s="92"/>
-      <c r="AD50" s="92"/>
+      <c r="W50" s="128"/>
+      <c r="X50" s="128"/>
+      <c r="Y50" s="128"/>
+      <c r="Z50" s="128"/>
+      <c r="AA50" s="128"/>
+      <c r="AB50" s="128"/>
+      <c r="AC50" s="128"/>
+      <c r="AD50" s="128"/>
       <c r="AE50" s="59" t="s">
         <v>66</v>
       </c>
       <c r="AF50" s="59"/>
       <c r="AG50" s="59"/>
       <c r="AH50" s="59"/>
-      <c r="AI50" s="91"/>
-      <c r="AJ50" s="91"/>
-      <c r="AK50" s="91"/>
-      <c r="AL50" s="91"/>
-      <c r="AM50" s="91"/>
-      <c r="AN50" s="91"/>
-      <c r="AO50" s="91"/>
-      <c r="AP50" s="91"/>
+      <c r="AI50" s="125"/>
+      <c r="AJ50" s="125"/>
+      <c r="AK50" s="125"/>
+      <c r="AL50" s="125"/>
+      <c r="AM50" s="125"/>
+      <c r="AN50" s="125"/>
+      <c r="AO50" s="125"/>
+      <c r="AP50" s="125"/>
       <c r="AQ50" s="59"/>
-      <c r="AR50" s="91"/>
-      <c r="AS50" s="91"/>
-      <c r="AT50" s="91"/>
-      <c r="AU50" s="91"/>
-      <c r="AV50" s="91"/>
+      <c r="AR50" s="125"/>
+      <c r="AS50" s="125"/>
+      <c r="AT50" s="125"/>
+      <c r="AU50" s="125"/>
+      <c r="AV50" s="125"/>
       <c r="AW50" s="59"/>
-      <c r="AX50" s="91"/>
-      <c r="AY50" s="91"/>
-      <c r="AZ50" s="91"/>
-      <c r="BA50" s="91"/>
-      <c r="BB50" s="91"/>
-      <c r="BC50" s="91"/>
+      <c r="AX50" s="125"/>
+      <c r="AY50" s="125"/>
+      <c r="AZ50" s="125"/>
+      <c r="BA50" s="125"/>
+      <c r="BB50" s="125"/>
+      <c r="BC50" s="125"/>
       <c r="BD50" s="2"/>
       <c r="BE50" s="52">
         <v>225</v>
@@ -5316,21 +5316,21 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
-      <c r="Q51" s="83"/>
-      <c r="R51" s="83"/>
-      <c r="S51" s="83"/>
-      <c r="T51" s="83"/>
-      <c r="U51" s="83"/>
+      <c r="Q51" s="126"/>
+      <c r="R51" s="126"/>
+      <c r="S51" s="126"/>
+      <c r="T51" s="126"/>
+      <c r="U51" s="126"/>
       <c r="V51" s="2"/>
-      <c r="W51" s="79" t="s">
+      <c r="W51" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="X51" s="79"/>
-      <c r="Y51" s="79"/>
-      <c r="Z51" s="79"/>
-      <c r="AA51" s="79"/>
-      <c r="AB51" s="79"/>
-      <c r="AC51" s="79"/>
+      <c r="X51" s="127"/>
+      <c r="Y51" s="127"/>
+      <c r="Z51" s="127"/>
+      <c r="AA51" s="127"/>
+      <c r="AB51" s="127"/>
+      <c r="AC51" s="127"/>
       <c r="AD51" s="56"/>
       <c r="AE51" s="67" t="s">
         <v>67</v>
@@ -5339,32 +5339,32 @@
       <c r="AG51" s="59"/>
       <c r="AH51" s="59"/>
       <c r="AI51" s="11"/>
-      <c r="AJ51" s="89" t="s">
+      <c r="AJ51" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="AK51" s="89"/>
-      <c r="AL51" s="89"/>
-      <c r="AM51" s="89"/>
-      <c r="AN51" s="89"/>
-      <c r="AO51" s="89"/>
-      <c r="AP51" s="89"/>
+      <c r="AK51" s="106"/>
+      <c r="AL51" s="106"/>
+      <c r="AM51" s="106"/>
+      <c r="AN51" s="106"/>
+      <c r="AO51" s="106"/>
+      <c r="AP51" s="106"/>
       <c r="AQ51" s="59"/>
-      <c r="AR51" s="79" t="s">
+      <c r="AR51" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="AS51" s="79"/>
-      <c r="AT51" s="79"/>
-      <c r="AU51" s="79"/>
-      <c r="AV51" s="79"/>
+      <c r="AS51" s="127"/>
+      <c r="AT51" s="127"/>
+      <c r="AU51" s="127"/>
+      <c r="AV51" s="127"/>
       <c r="AW51" s="59"/>
-      <c r="AX51" s="79" t="s">
+      <c r="AX51" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="AY51" s="79"/>
-      <c r="AZ51" s="79"/>
-      <c r="BA51" s="79"/>
-      <c r="BB51" s="79"/>
-      <c r="BC51" s="79"/>
+      <c r="AY51" s="127"/>
+      <c r="AZ51" s="127"/>
+      <c r="BA51" s="127"/>
+      <c r="BB51" s="127"/>
+      <c r="BC51" s="127"/>
       <c r="BD51" s="2"/>
       <c r="BE51" s="52">
         <v>225</v>
@@ -5389,27 +5389,27 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="34"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="78"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="78"/>
-      <c r="M52" s="78"/>
-      <c r="N52" s="78"/>
-      <c r="O52" s="78"/>
+      <c r="I52" s="124"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="124"/>
+      <c r="L52" s="124"/>
+      <c r="M52" s="124"/>
+      <c r="N52" s="124"/>
+      <c r="O52" s="124"/>
       <c r="P52" s="2"/>
-      <c r="Q52" s="78"/>
-      <c r="R52" s="78"/>
-      <c r="S52" s="78"/>
-      <c r="T52" s="78"/>
-      <c r="U52" s="78"/>
+      <c r="Q52" s="124"/>
+      <c r="R52" s="124"/>
+      <c r="S52" s="124"/>
+      <c r="T52" s="124"/>
+      <c r="U52" s="124"/>
       <c r="V52" s="2"/>
-      <c r="W52" s="78"/>
-      <c r="X52" s="78"/>
-      <c r="Y52" s="78"/>
-      <c r="Z52" s="78"/>
-      <c r="AA52" s="78"/>
-      <c r="AB52" s="78"/>
-      <c r="AC52" s="78"/>
+      <c r="W52" s="124"/>
+      <c r="X52" s="124"/>
+      <c r="Y52" s="124"/>
+      <c r="Z52" s="124"/>
+      <c r="AA52" s="124"/>
+      <c r="AB52" s="124"/>
+      <c r="AC52" s="124"/>
       <c r="AD52" s="56"/>
       <c r="AE52" s="8"/>
       <c r="AF52" s="59"/>
@@ -5455,31 +5455,31 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="89" t="s">
+      <c r="I53" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="J53" s="89"/>
-      <c r="K53" s="89"/>
-      <c r="L53" s="89"/>
-      <c r="M53" s="89"/>
-      <c r="N53" s="89"/>
-      <c r="O53" s="89"/>
+      <c r="J53" s="106"/>
+      <c r="K53" s="106"/>
+      <c r="L53" s="106"/>
+      <c r="M53" s="106"/>
+      <c r="N53" s="106"/>
+      <c r="O53" s="106"/>
       <c r="P53" s="2"/>
-      <c r="Q53" s="83"/>
-      <c r="R53" s="83"/>
-      <c r="S53" s="83"/>
-      <c r="T53" s="83"/>
-      <c r="U53" s="83"/>
+      <c r="Q53" s="126"/>
+      <c r="R53" s="126"/>
+      <c r="S53" s="126"/>
+      <c r="T53" s="126"/>
+      <c r="U53" s="126"/>
       <c r="V53" s="2"/>
-      <c r="W53" s="79" t="s">
+      <c r="W53" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="X53" s="79"/>
-      <c r="Y53" s="79"/>
-      <c r="Z53" s="79"/>
-      <c r="AA53" s="79"/>
-      <c r="AB53" s="79"/>
-      <c r="AC53" s="79"/>
+      <c r="X53" s="127"/>
+      <c r="Y53" s="127"/>
+      <c r="Z53" s="127"/>
+      <c r="AA53" s="127"/>
+      <c r="AB53" s="127"/>
+      <c r="AC53" s="127"/>
       <c r="AD53" s="56"/>
       <c r="AE53" s="8"/>
       <c r="AF53" s="59"/>
@@ -5526,16 +5526,16 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="96" t="s">
+      <c r="H54" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="I54" s="96"/>
-      <c r="J54" s="96"/>
-      <c r="K54" s="96"/>
-      <c r="L54" s="96"/>
-      <c r="M54" s="96"/>
-      <c r="N54" s="96"/>
-      <c r="O54" s="96"/>
+      <c r="I54" s="123"/>
+      <c r="J54" s="123"/>
+      <c r="K54" s="123"/>
+      <c r="L54" s="123"/>
+      <c r="M54" s="123"/>
+      <c r="N54" s="123"/>
+      <c r="O54" s="123"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
@@ -5751,30 +5751,105 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="147">
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AT32:AV32"/>
-    <mergeCell ref="AW32:AZ32"/>
-    <mergeCell ref="BA32:BD32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="AK32:AM32"/>
-    <mergeCell ref="AN32:AP32"/>
-    <mergeCell ref="AQ32:AS32"/>
-    <mergeCell ref="A29:C31"/>
-    <mergeCell ref="D29:S29"/>
-    <mergeCell ref="T29:Y29"/>
-    <mergeCell ref="Z29:AB31"/>
-    <mergeCell ref="AC29:AG29"/>
-    <mergeCell ref="T30:V31"/>
-    <mergeCell ref="W30:Y31"/>
-    <mergeCell ref="AC30:AE31"/>
-    <mergeCell ref="AF30:AG31"/>
+    <mergeCell ref="Q35:AK35"/>
+    <mergeCell ref="F36:AK36"/>
+    <mergeCell ref="F37:AK37"/>
+    <mergeCell ref="AP37:BC38"/>
+    <mergeCell ref="S38:X38"/>
+    <mergeCell ref="Y38:AN38"/>
+    <mergeCell ref="Y39:AN39"/>
+    <mergeCell ref="AP39:BC40"/>
+    <mergeCell ref="F40:P40"/>
+    <mergeCell ref="R40:X40"/>
+    <mergeCell ref="Y40:AN40"/>
+    <mergeCell ref="F41:P41"/>
+    <mergeCell ref="Y41:AN41"/>
+    <mergeCell ref="AK43:AP43"/>
+    <mergeCell ref="AR43:BC43"/>
+    <mergeCell ref="R44:Z44"/>
+    <mergeCell ref="AH44:BC44"/>
+    <mergeCell ref="A45:AD45"/>
+    <mergeCell ref="AI45:BC45"/>
+    <mergeCell ref="A46:AA46"/>
+    <mergeCell ref="V48:AD48"/>
+    <mergeCell ref="AI48:AP48"/>
+    <mergeCell ref="AR48:AV48"/>
+    <mergeCell ref="AX48:BC48"/>
+    <mergeCell ref="H49:O49"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="W49:AC49"/>
+    <mergeCell ref="AJ49:AP49"/>
+    <mergeCell ref="AR49:AV49"/>
+    <mergeCell ref="AX49:BC49"/>
+    <mergeCell ref="AN34:AP34"/>
+    <mergeCell ref="AQ34:AS34"/>
+    <mergeCell ref="AT34:AV34"/>
+    <mergeCell ref="AW34:AZ34"/>
+    <mergeCell ref="BA34:BD34"/>
+    <mergeCell ref="H54:O54"/>
+    <mergeCell ref="I52:O52"/>
+    <mergeCell ref="Q52:U52"/>
+    <mergeCell ref="W52:AC52"/>
+    <mergeCell ref="I53:O53"/>
+    <mergeCell ref="AX50:BC50"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="W51:AC51"/>
+    <mergeCell ref="AJ51:AP51"/>
+    <mergeCell ref="AR51:AV51"/>
+    <mergeCell ref="AX51:BC51"/>
+    <mergeCell ref="Q53:U53"/>
+    <mergeCell ref="W53:AC53"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="V50:AD50"/>
+    <mergeCell ref="AI50:AP50"/>
+    <mergeCell ref="AR50:AV50"/>
+    <mergeCell ref="AH47:BC47"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AH34:AJ34"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AW33:AZ33"/>
+    <mergeCell ref="BA33:BD33"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AH33:AJ33"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AN33:AP33"/>
+    <mergeCell ref="AQ33:AS33"/>
+    <mergeCell ref="AT33:AV33"/>
+    <mergeCell ref="BB5:BD5"/>
+    <mergeCell ref="BB6:BD6"/>
+    <mergeCell ref="A7:AX8"/>
+    <mergeCell ref="AY7:BA8"/>
+    <mergeCell ref="BB7:BD8"/>
+    <mergeCell ref="A9:AR9"/>
+    <mergeCell ref="BB9:BD10"/>
+    <mergeCell ref="A10:AV10"/>
+    <mergeCell ref="A11:AR11"/>
+    <mergeCell ref="BB11:BD12"/>
+    <mergeCell ref="A12:AI12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H13:AV13"/>
+    <mergeCell ref="BB13:BD13"/>
+    <mergeCell ref="H15:AR15"/>
+    <mergeCell ref="BB15:BD16"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="H16:AV16"/>
+    <mergeCell ref="H18:AR18"/>
+    <mergeCell ref="BB18:BD19"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="H19:AV19"/>
+    <mergeCell ref="H21:AR21"/>
+    <mergeCell ref="AZ21:BA22"/>
+    <mergeCell ref="BB21:BD22"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="H22:AV22"/>
     <mergeCell ref="H23:AR23"/>
     <mergeCell ref="AZ23:BA23"/>
     <mergeCell ref="BB23:BD23"/>
@@ -5799,105 +5874,30 @@
     <mergeCell ref="AK29:AM31"/>
     <mergeCell ref="AN29:AP31"/>
     <mergeCell ref="AQ29:AS31"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="H16:AV16"/>
-    <mergeCell ref="H18:AR18"/>
-    <mergeCell ref="BB18:BD19"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="H19:AV19"/>
-    <mergeCell ref="H21:AR21"/>
-    <mergeCell ref="AZ21:BA22"/>
-    <mergeCell ref="BB21:BD22"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="H22:AV22"/>
-    <mergeCell ref="AW33:AZ33"/>
-    <mergeCell ref="BA33:BD33"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AH33:AJ33"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="AN33:AP33"/>
-    <mergeCell ref="AQ33:AS33"/>
-    <mergeCell ref="AT33:AV33"/>
-    <mergeCell ref="BB5:BD5"/>
-    <mergeCell ref="BB6:BD6"/>
-    <mergeCell ref="A7:AX8"/>
-    <mergeCell ref="AY7:BA8"/>
-    <mergeCell ref="BB7:BD8"/>
-    <mergeCell ref="A9:AR9"/>
-    <mergeCell ref="BB9:BD10"/>
-    <mergeCell ref="A10:AV10"/>
-    <mergeCell ref="A11:AR11"/>
-    <mergeCell ref="BB11:BD12"/>
-    <mergeCell ref="A12:AI12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="H13:AV13"/>
-    <mergeCell ref="BB13:BD13"/>
-    <mergeCell ref="H15:AR15"/>
-    <mergeCell ref="BB15:BD16"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AH34:AJ34"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AN34:AP34"/>
-    <mergeCell ref="AQ34:AS34"/>
-    <mergeCell ref="AT34:AV34"/>
-    <mergeCell ref="AW34:AZ34"/>
-    <mergeCell ref="BA34:BD34"/>
-    <mergeCell ref="H54:O54"/>
-    <mergeCell ref="I52:O52"/>
-    <mergeCell ref="Q52:U52"/>
-    <mergeCell ref="W52:AC52"/>
-    <mergeCell ref="I53:O53"/>
-    <mergeCell ref="AX50:BC50"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="W51:AC51"/>
-    <mergeCell ref="AJ51:AP51"/>
-    <mergeCell ref="AR51:AV51"/>
-    <mergeCell ref="AX51:BC51"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="W53:AC53"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="V50:AD50"/>
-    <mergeCell ref="AI50:AP50"/>
-    <mergeCell ref="AR50:AV50"/>
-    <mergeCell ref="AH47:BC47"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="V48:AD48"/>
-    <mergeCell ref="AI48:AP48"/>
-    <mergeCell ref="AR48:AV48"/>
-    <mergeCell ref="AX48:BC48"/>
-    <mergeCell ref="H49:O49"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="W49:AC49"/>
-    <mergeCell ref="AJ49:AP49"/>
-    <mergeCell ref="AR49:AV49"/>
-    <mergeCell ref="AX49:BC49"/>
-    <mergeCell ref="F41:P41"/>
-    <mergeCell ref="Y41:AN41"/>
-    <mergeCell ref="AK43:AP43"/>
-    <mergeCell ref="AR43:BC43"/>
-    <mergeCell ref="R44:Z44"/>
-    <mergeCell ref="AH44:BC44"/>
-    <mergeCell ref="A45:AD45"/>
-    <mergeCell ref="AI45:BC45"/>
-    <mergeCell ref="A46:AA46"/>
-    <mergeCell ref="Q35:AK35"/>
-    <mergeCell ref="F36:AK36"/>
-    <mergeCell ref="F37:AK37"/>
-    <mergeCell ref="AP37:BC38"/>
-    <mergeCell ref="S38:X38"/>
-    <mergeCell ref="Y38:AN38"/>
-    <mergeCell ref="Y39:AN39"/>
-    <mergeCell ref="AP39:BC40"/>
-    <mergeCell ref="F40:P40"/>
-    <mergeCell ref="R40:X40"/>
-    <mergeCell ref="Y40:AN40"/>
+    <mergeCell ref="A29:C31"/>
+    <mergeCell ref="D29:S29"/>
+    <mergeCell ref="T29:Y29"/>
+    <mergeCell ref="Z29:AB31"/>
+    <mergeCell ref="AC29:AG29"/>
+    <mergeCell ref="T30:V31"/>
+    <mergeCell ref="W30:Y31"/>
+    <mergeCell ref="AC30:AE31"/>
+    <mergeCell ref="AF30:AG31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AT32:AV32"/>
+    <mergeCell ref="AW32:AZ32"/>
+    <mergeCell ref="BA32:BD32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="AK32:AM32"/>
+    <mergeCell ref="AN32:AP32"/>
+    <mergeCell ref="AQ32:AS32"/>
   </mergeCells>
   <pageMargins left="0.35416666666666669" right="0.2361111111111111" top="0.39374999999999999" bottom="0.35416666666666669" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="96" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
